--- a/[Document]/소개운영자료/DIVE_개인정보_진로현황_수요조사.xlsx
+++ b/[Document]/소개운영자료/DIVE_개인정보_진로현황_수요조사.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DIVE]\[Document]\소개운영자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C646DC-2EA2-4557-BB0A-857608C06898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DEFF93-6AAA-4773-BEA1-966282AD57C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31890" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2026Y1Q" sheetId="1" r:id="rId1"/>
@@ -6647,198 +6647,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>순위</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>창업</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>특허</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>제안서</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>순위</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: KCI/SCI/SSCI </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>논문출판</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>순위</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>공모전</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>수상</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>대응분야 또는 아이디어</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -7011,6 +6819,235 @@
   <si>
     <t>DIVE 2026년도 1분기 
 수요조사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순위</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공모전</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수상</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과거 공모전 조사 및 엑셀 정리본 참고)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순위</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: KCI/SCI/SSCI </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>논문출판</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구글 스칼라 논문 검색 참고)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순위</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>창업</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특허</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제안서</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -7465,16 +7502,16 @@
     <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7697,10 +7734,10 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="14.25"/>
@@ -7714,20 +7751,20 @@
     <col min="7" max="7" width="17.53125" style="10" customWidth="1"/>
     <col min="8" max="8" width="32.46484375" style="10" customWidth="1"/>
     <col min="9" max="9" width="70.59765625" style="3" customWidth="1"/>
-    <col min="10" max="20" width="12.59765625" customWidth="1"/>
+    <col min="10" max="20" width="14.59765625" customWidth="1"/>
     <col min="21" max="27" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="54.4" customHeight="1">
       <c r="A1" s="40" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
       <c r="H1" s="9"/>
       <c r="I1" s="2"/>
     </row>
@@ -7735,14 +7772,14 @@
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
       <c r="J2" s="37" t="s">
         <v>114</v>
       </c>
@@ -7761,7 +7798,7 @@
       <c r="S2" s="38"/>
       <c r="T2" s="38"/>
     </row>
-    <row r="3" spans="1:20" ht="42.75">
+    <row r="3" spans="1:20" ht="98.65">
       <c r="A3" s="4" t="s">
         <v>59</v>
       </c>
@@ -7811,78 +7848,78 @@
         <v>118</v>
       </c>
       <c r="Q3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="R3" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="T3" s="13" t="s">
         <v>123</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="67.5">
       <c r="A4" s="26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D4" s="8">
         <v>20211011</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>67</v>
       </c>
       <c r="H4" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="J4" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="J4" s="32" t="s">
+      <c r="K4" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="S4" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="T4" s="33" t="s">
         <v>134</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="L4" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="M4" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="N4" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="P4" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q4" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="R4" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="S4" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="T4" s="33" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="33.75">

--- a/[Document]/소개운영자료/DIVE_개인정보_진로현황_수요조사.xlsx
+++ b/[Document]/소개운영자료/DIVE_개인정보_진로현황_수요조사.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="164">
   <si>
     <t>DIVE 2026년도 1분기 
 수요조사</t>
@@ -586,7 +586,7 @@
   <si>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Arial"/>
         <b/>
         <color rgb="FF000000"/>
         <sz val="11.0"/>
@@ -604,7 +604,7 @@
     </r>
     <r>
       <rPr>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Arial"/>
         <b/>
         <color rgb="FF000000"/>
         <sz val="11.0"/>
@@ -5660,30 +5660,7 @@
     <t>jun010914@naver.com</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>인천대학교</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
-      </rPr>
-      <t>산업경영공학과</t>
-    </r>
+    <t>인천대학교 산업경영공학과</t>
   </si>
   <si>
     <r>
@@ -5931,6 +5908,11 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">SQl 를 통한
+마케팅 데이터 전처리 
+및 코호트 AB 테스트 프로젝트 진행 </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Calibri"/>
@@ -6200,9 +6182,6 @@
   </si>
   <si>
     <t>hisunhelloo@gmail.com</t>
-  </si>
-  <si>
-    <t>인천대학교 산업경영공학과</t>
   </si>
   <si>
     <r>
@@ -6448,7 +6427,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6510,7 +6489,7 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="5" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -6546,6 +6525,12 @@
     </xf>
     <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -7141,7 +7126,9 @@
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
-      <c r="Q9" s="29"/>
+      <c r="Q9" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="R9" s="29"/>
       <c r="S9" s="29"/>
       <c r="T9" s="29"/>
@@ -7404,7 +7391,7 @@
       <c r="G16" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="36" t="s">
         <v>121</v>
       </c>
       <c r="I16" s="21" t="s">
@@ -7417,35 +7404,41 @@
       <c r="N16" s="30"/>
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="29"/>
+      <c r="Q16" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="R16" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="S16" s="29"/>
-      <c r="T16" s="29"/>
+      <c r="T16" s="37" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>91</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D17" s="28">
         <v>2.02100256E8</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="H17" s="36" t="s">
         <v>128</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>129</v>
       </c>
       <c r="I17" s="34"/>
       <c r="J17" s="29"/>
@@ -7462,28 +7455,28 @@
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>91</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D18" s="28">
         <v>2.02100743E8</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="H18" s="36" t="s">
         <v>134</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>135</v>
       </c>
       <c r="I18" s="34"/>
       <c r="J18" s="29"/>
@@ -7500,28 +7493,28 @@
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>91</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D19" s="28">
         <v>2.02200776E8</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="H19" s="36" t="s">
         <v>134</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>135</v>
       </c>
       <c r="I19" s="34"/>
       <c r="J19" s="29"/>
@@ -7538,28 +7531,28 @@
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>91</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D20" s="28">
         <v>2.02201705E8</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="H20" s="36" t="s">
         <v>144</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>145</v>
       </c>
       <c r="I20" s="34"/>
       <c r="J20" s="29"/>
@@ -7576,28 +7569,28 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>91</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D21" s="28">
         <v>2.02300822E8</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" s="36" t="s">
         <v>134</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>135</v>
       </c>
       <c r="I21" s="34"/>
       <c r="J21" s="29"/>
@@ -7614,28 +7607,28 @@
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>91</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D22" s="28">
         <v>2.02301275E8</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="36" t="s">
-        <v>153</v>
+      <c r="H22" s="38" t="s">
+        <v>121</v>
       </c>
       <c r="I22" s="34"/>
       <c r="J22" s="29"/>
@@ -7670,10 +7663,10 @@
         <v>157</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="H23" s="36" t="s">
         <v>134</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>135</v>
       </c>
       <c r="I23" s="34"/>
       <c r="J23" s="29"/>
@@ -7710,7 +7703,7 @@
       <c r="G24" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="H24" s="36" t="s">
+      <c r="H24" s="38" t="s">
         <v>163</v>
       </c>
       <c r="I24" s="34"/>
@@ -7727,6833 +7720,6833 @@
       <c r="T24" s="29"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="10"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="10"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="10"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="10"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="10"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="10"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="10"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="10"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="10"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="10"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="10"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="10"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="10"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="10"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="10"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="10"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="10"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="10"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="10"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="10"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="10"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="10"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="10"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="10"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="10"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="10"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="10"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="10"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="10"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="10"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="10"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="10"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="10"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="10"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="10"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="10"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="10"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="10"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="10"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="10"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="10"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="10"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="10"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="10"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="10"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
       <c r="I71" s="10"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="10"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
       <c r="I73" s="10"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="10"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="10"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
       <c r="I76" s="10"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="E77" s="37"/>
-      <c r="F77" s="37"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
       <c r="I77" s="10"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="E78" s="37"/>
-      <c r="F78" s="37"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="10"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="10"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
       <c r="I80" s="10"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="10"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
       <c r="I82" s="10"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="10"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="10"/>
     </row>
     <row r="85" ht="14.25" customHeight="1">
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="10"/>
     </row>
     <row r="86" ht="14.25" customHeight="1">
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="10"/>
     </row>
     <row r="87" ht="14.25" customHeight="1">
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
       <c r="I87" s="10"/>
     </row>
     <row r="88" ht="14.25" customHeight="1">
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="10"/>
     </row>
     <row r="89" ht="14.25" customHeight="1">
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
+      <c r="E89" s="39"/>
+      <c r="F89" s="39"/>
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
       <c r="I89" s="10"/>
     </row>
     <row r="90" ht="14.25" customHeight="1">
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
       <c r="I90" s="10"/>
     </row>
     <row r="91" ht="14.25" customHeight="1">
-      <c r="E91" s="37"/>
-      <c r="F91" s="37"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="10"/>
     </row>
     <row r="92" ht="14.25" customHeight="1">
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
       <c r="I92" s="10"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="39"/>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="10"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="39"/>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="10"/>
     </row>
     <row r="95" ht="14.25" customHeight="1">
-      <c r="E95" s="37"/>
-      <c r="F95" s="37"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="39"/>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
       <c r="I95" s="10"/>
     </row>
     <row r="96" ht="14.25" customHeight="1">
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="39"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="10"/>
     </row>
     <row r="97" ht="14.25" customHeight="1">
-      <c r="E97" s="37"/>
-      <c r="F97" s="37"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="39"/>
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="10"/>
     </row>
     <row r="98" ht="14.25" customHeight="1">
-      <c r="E98" s="37"/>
-      <c r="F98" s="37"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="10"/>
     </row>
     <row r="99" ht="14.25" customHeight="1">
-      <c r="E99" s="37"/>
-      <c r="F99" s="37"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="10"/>
     </row>
     <row r="100" ht="14.25" customHeight="1">
-      <c r="E100" s="37"/>
-      <c r="F100" s="37"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="39"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
       <c r="I100" s="10"/>
     </row>
     <row r="101" ht="14.25" customHeight="1">
-      <c r="E101" s="37"/>
-      <c r="F101" s="37"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="39"/>
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="10"/>
     </row>
     <row r="102" ht="14.25" customHeight="1">
-      <c r="E102" s="37"/>
-      <c r="F102" s="37"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="39"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="10"/>
     </row>
     <row r="103" ht="14.25" customHeight="1">
-      <c r="E103" s="37"/>
-      <c r="F103" s="37"/>
+      <c r="E103" s="39"/>
+      <c r="F103" s="39"/>
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="10"/>
     </row>
     <row r="104" ht="14.25" customHeight="1">
-      <c r="E104" s="37"/>
-      <c r="F104" s="37"/>
+      <c r="E104" s="39"/>
+      <c r="F104" s="39"/>
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
       <c r="I104" s="10"/>
     </row>
     <row r="105" ht="14.25" customHeight="1">
-      <c r="E105" s="37"/>
-      <c r="F105" s="37"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="39"/>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
       <c r="I105" s="10"/>
     </row>
     <row r="106" ht="14.25" customHeight="1">
-      <c r="E106" s="37"/>
-      <c r="F106" s="37"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="39"/>
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
       <c r="I106" s="10"/>
     </row>
     <row r="107" ht="14.25" customHeight="1">
-      <c r="E107" s="37"/>
-      <c r="F107" s="37"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="39"/>
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="10"/>
     </row>
     <row r="108" ht="14.25" customHeight="1">
-      <c r="E108" s="37"/>
-      <c r="F108" s="37"/>
+      <c r="E108" s="39"/>
+      <c r="F108" s="39"/>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="10"/>
     </row>
     <row r="109" ht="14.25" customHeight="1">
-      <c r="E109" s="37"/>
-      <c r="F109" s="37"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="39"/>
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
       <c r="I109" s="10"/>
     </row>
     <row r="110" ht="14.25" customHeight="1">
-      <c r="E110" s="37"/>
-      <c r="F110" s="37"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="39"/>
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
       <c r="I110" s="10"/>
     </row>
     <row r="111" ht="14.25" customHeight="1">
-      <c r="E111" s="37"/>
-      <c r="F111" s="37"/>
+      <c r="E111" s="39"/>
+      <c r="F111" s="39"/>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
       <c r="I111" s="10"/>
     </row>
     <row r="112" ht="14.25" customHeight="1">
-      <c r="E112" s="37"/>
-      <c r="F112" s="37"/>
+      <c r="E112" s="39"/>
+      <c r="F112" s="39"/>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
       <c r="I112" s="10"/>
     </row>
     <row r="113" ht="14.25" customHeight="1">
-      <c r="E113" s="37"/>
-      <c r="F113" s="37"/>
+      <c r="E113" s="39"/>
+      <c r="F113" s="39"/>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
       <c r="I113" s="10"/>
     </row>
     <row r="114" ht="14.25" customHeight="1">
-      <c r="E114" s="37"/>
-      <c r="F114" s="37"/>
+      <c r="E114" s="39"/>
+      <c r="F114" s="39"/>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
       <c r="I114" s="10"/>
     </row>
     <row r="115" ht="14.25" customHeight="1">
-      <c r="E115" s="37"/>
-      <c r="F115" s="37"/>
+      <c r="E115" s="39"/>
+      <c r="F115" s="39"/>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
       <c r="I115" s="10"/>
     </row>
     <row r="116" ht="14.25" customHeight="1">
-      <c r="E116" s="37"/>
-      <c r="F116" s="37"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="39"/>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
       <c r="I116" s="10"/>
     </row>
     <row r="117" ht="14.25" customHeight="1">
-      <c r="E117" s="37"/>
-      <c r="F117" s="37"/>
+      <c r="E117" s="39"/>
+      <c r="F117" s="39"/>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
       <c r="I117" s="10"/>
     </row>
     <row r="118" ht="14.25" customHeight="1">
-      <c r="E118" s="37"/>
-      <c r="F118" s="37"/>
+      <c r="E118" s="39"/>
+      <c r="F118" s="39"/>
       <c r="G118" s="9"/>
       <c r="H118" s="9"/>
       <c r="I118" s="10"/>
     </row>
     <row r="119" ht="14.25" customHeight="1">
-      <c r="E119" s="37"/>
-      <c r="F119" s="37"/>
+      <c r="E119" s="39"/>
+      <c r="F119" s="39"/>
       <c r="G119" s="9"/>
       <c r="H119" s="9"/>
       <c r="I119" s="10"/>
     </row>
     <row r="120" ht="14.25" customHeight="1">
-      <c r="E120" s="37"/>
-      <c r="F120" s="37"/>
+      <c r="E120" s="39"/>
+      <c r="F120" s="39"/>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
       <c r="I120" s="10"/>
     </row>
     <row r="121" ht="14.25" customHeight="1">
-      <c r="E121" s="37"/>
-      <c r="F121" s="37"/>
+      <c r="E121" s="39"/>
+      <c r="F121" s="39"/>
       <c r="G121" s="9"/>
       <c r="H121" s="9"/>
       <c r="I121" s="10"/>
     </row>
     <row r="122" ht="14.25" customHeight="1">
-      <c r="E122" s="37"/>
-      <c r="F122" s="37"/>
+      <c r="E122" s="39"/>
+      <c r="F122" s="39"/>
       <c r="G122" s="9"/>
       <c r="H122" s="9"/>
       <c r="I122" s="10"/>
     </row>
     <row r="123" ht="14.25" customHeight="1">
-      <c r="E123" s="37"/>
-      <c r="F123" s="37"/>
+      <c r="E123" s="39"/>
+      <c r="F123" s="39"/>
       <c r="G123" s="9"/>
       <c r="H123" s="9"/>
       <c r="I123" s="10"/>
     </row>
     <row r="124" ht="14.25" customHeight="1">
-      <c r="E124" s="37"/>
-      <c r="F124" s="37"/>
+      <c r="E124" s="39"/>
+      <c r="F124" s="39"/>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
       <c r="I124" s="10"/>
     </row>
     <row r="125" ht="14.25" customHeight="1">
-      <c r="E125" s="37"/>
-      <c r="F125" s="37"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="39"/>
       <c r="G125" s="9"/>
       <c r="H125" s="9"/>
       <c r="I125" s="10"/>
     </row>
     <row r="126" ht="14.25" customHeight="1">
-      <c r="E126" s="37"/>
-      <c r="F126" s="37"/>
+      <c r="E126" s="39"/>
+      <c r="F126" s="39"/>
       <c r="G126" s="9"/>
       <c r="H126" s="9"/>
       <c r="I126" s="10"/>
     </row>
     <row r="127" ht="14.25" customHeight="1">
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
+      <c r="E127" s="39"/>
+      <c r="F127" s="39"/>
       <c r="G127" s="9"/>
       <c r="H127" s="9"/>
       <c r="I127" s="10"/>
     </row>
     <row r="128" ht="14.25" customHeight="1">
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
+      <c r="E128" s="39"/>
+      <c r="F128" s="39"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
       <c r="I128" s="10"/>
     </row>
     <row r="129" ht="14.25" customHeight="1">
-      <c r="E129" s="37"/>
-      <c r="F129" s="37"/>
+      <c r="E129" s="39"/>
+      <c r="F129" s="39"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
       <c r="I129" s="10"/>
     </row>
     <row r="130" ht="14.25" customHeight="1">
-      <c r="E130" s="37"/>
-      <c r="F130" s="37"/>
+      <c r="E130" s="39"/>
+      <c r="F130" s="39"/>
       <c r="G130" s="9"/>
       <c r="H130" s="9"/>
       <c r="I130" s="10"/>
     </row>
     <row r="131" ht="14.25" customHeight="1">
-      <c r="E131" s="37"/>
-      <c r="F131" s="37"/>
+      <c r="E131" s="39"/>
+      <c r="F131" s="39"/>
       <c r="G131" s="9"/>
       <c r="H131" s="9"/>
       <c r="I131" s="10"/>
     </row>
     <row r="132" ht="14.25" customHeight="1">
-      <c r="E132" s="37"/>
-      <c r="F132" s="37"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="39"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
       <c r="I132" s="10"/>
     </row>
     <row r="133" ht="14.25" customHeight="1">
-      <c r="E133" s="37"/>
-      <c r="F133" s="37"/>
+      <c r="E133" s="39"/>
+      <c r="F133" s="39"/>
       <c r="G133" s="9"/>
       <c r="H133" s="9"/>
       <c r="I133" s="10"/>
     </row>
     <row r="134" ht="14.25" customHeight="1">
-      <c r="E134" s="37"/>
-      <c r="F134" s="37"/>
+      <c r="E134" s="39"/>
+      <c r="F134" s="39"/>
       <c r="G134" s="9"/>
       <c r="H134" s="9"/>
       <c r="I134" s="10"/>
     </row>
     <row r="135" ht="14.25" customHeight="1">
-      <c r="E135" s="37"/>
-      <c r="F135" s="37"/>
+      <c r="E135" s="39"/>
+      <c r="F135" s="39"/>
       <c r="G135" s="9"/>
       <c r="H135" s="9"/>
       <c r="I135" s="10"/>
     </row>
     <row r="136" ht="14.25" customHeight="1">
-      <c r="E136" s="37"/>
-      <c r="F136" s="37"/>
+      <c r="E136" s="39"/>
+      <c r="F136" s="39"/>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
       <c r="I136" s="10"/>
     </row>
     <row r="137" ht="14.25" customHeight="1">
-      <c r="E137" s="37"/>
-      <c r="F137" s="37"/>
+      <c r="E137" s="39"/>
+      <c r="F137" s="39"/>
       <c r="G137" s="9"/>
       <c r="H137" s="9"/>
       <c r="I137" s="10"/>
     </row>
     <row r="138" ht="14.25" customHeight="1">
-      <c r="E138" s="37"/>
-      <c r="F138" s="37"/>
+      <c r="E138" s="39"/>
+      <c r="F138" s="39"/>
       <c r="G138" s="9"/>
       <c r="H138" s="9"/>
       <c r="I138" s="10"/>
     </row>
     <row r="139" ht="14.25" customHeight="1">
-      <c r="E139" s="37"/>
-      <c r="F139" s="37"/>
+      <c r="E139" s="39"/>
+      <c r="F139" s="39"/>
       <c r="G139" s="9"/>
       <c r="H139" s="9"/>
       <c r="I139" s="10"/>
     </row>
     <row r="140" ht="14.25" customHeight="1">
-      <c r="E140" s="37"/>
-      <c r="F140" s="37"/>
+      <c r="E140" s="39"/>
+      <c r="F140" s="39"/>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
       <c r="I140" s="10"/>
     </row>
     <row r="141" ht="14.25" customHeight="1">
-      <c r="E141" s="37"/>
-      <c r="F141" s="37"/>
+      <c r="E141" s="39"/>
+      <c r="F141" s="39"/>
       <c r="G141" s="9"/>
       <c r="H141" s="9"/>
       <c r="I141" s="10"/>
     </row>
     <row r="142" ht="14.25" customHeight="1">
-      <c r="E142" s="37"/>
-      <c r="F142" s="37"/>
+      <c r="E142" s="39"/>
+      <c r="F142" s="39"/>
       <c r="G142" s="9"/>
       <c r="H142" s="9"/>
       <c r="I142" s="10"/>
     </row>
     <row r="143" ht="14.25" customHeight="1">
-      <c r="E143" s="37"/>
-      <c r="F143" s="37"/>
+      <c r="E143" s="39"/>
+      <c r="F143" s="39"/>
       <c r="G143" s="9"/>
       <c r="H143" s="9"/>
       <c r="I143" s="10"/>
     </row>
     <row r="144" ht="14.25" customHeight="1">
-      <c r="E144" s="37"/>
-      <c r="F144" s="37"/>
+      <c r="E144" s="39"/>
+      <c r="F144" s="39"/>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
       <c r="I144" s="10"/>
     </row>
     <row r="145" ht="14.25" customHeight="1">
-      <c r="E145" s="37"/>
-      <c r="F145" s="37"/>
+      <c r="E145" s="39"/>
+      <c r="F145" s="39"/>
       <c r="G145" s="9"/>
       <c r="H145" s="9"/>
       <c r="I145" s="10"/>
     </row>
     <row r="146" ht="14.25" customHeight="1">
-      <c r="E146" s="37"/>
-      <c r="F146" s="37"/>
+      <c r="E146" s="39"/>
+      <c r="F146" s="39"/>
       <c r="G146" s="9"/>
       <c r="H146" s="9"/>
       <c r="I146" s="10"/>
     </row>
     <row r="147" ht="14.25" customHeight="1">
-      <c r="E147" s="37"/>
-      <c r="F147" s="37"/>
+      <c r="E147" s="39"/>
+      <c r="F147" s="39"/>
       <c r="G147" s="9"/>
       <c r="H147" s="9"/>
       <c r="I147" s="10"/>
     </row>
     <row r="148" ht="14.25" customHeight="1">
-      <c r="E148" s="37"/>
-      <c r="F148" s="37"/>
+      <c r="E148" s="39"/>
+      <c r="F148" s="39"/>
       <c r="G148" s="9"/>
       <c r="H148" s="9"/>
       <c r="I148" s="10"/>
     </row>
     <row r="149" ht="14.25" customHeight="1">
-      <c r="E149" s="37"/>
-      <c r="F149" s="37"/>
+      <c r="E149" s="39"/>
+      <c r="F149" s="39"/>
       <c r="G149" s="9"/>
       <c r="H149" s="9"/>
       <c r="I149" s="10"/>
     </row>
     <row r="150" ht="14.25" customHeight="1">
-      <c r="E150" s="37"/>
-      <c r="F150" s="37"/>
+      <c r="E150" s="39"/>
+      <c r="F150" s="39"/>
       <c r="G150" s="9"/>
       <c r="H150" s="9"/>
       <c r="I150" s="10"/>
     </row>
     <row r="151" ht="14.25" customHeight="1">
-      <c r="E151" s="37"/>
-      <c r="F151" s="37"/>
+      <c r="E151" s="39"/>
+      <c r="F151" s="39"/>
       <c r="G151" s="9"/>
       <c r="H151" s="9"/>
       <c r="I151" s="10"/>
     </row>
     <row r="152" ht="14.25" customHeight="1">
-      <c r="E152" s="37"/>
-      <c r="F152" s="37"/>
+      <c r="E152" s="39"/>
+      <c r="F152" s="39"/>
       <c r="G152" s="9"/>
       <c r="H152" s="9"/>
       <c r="I152" s="10"/>
     </row>
     <row r="153" ht="14.25" customHeight="1">
-      <c r="E153" s="37"/>
-      <c r="F153" s="37"/>
+      <c r="E153" s="39"/>
+      <c r="F153" s="39"/>
       <c r="G153" s="9"/>
       <c r="H153" s="9"/>
       <c r="I153" s="10"/>
     </row>
     <row r="154" ht="14.25" customHeight="1">
-      <c r="E154" s="37"/>
-      <c r="F154" s="37"/>
+      <c r="E154" s="39"/>
+      <c r="F154" s="39"/>
       <c r="G154" s="9"/>
       <c r="H154" s="9"/>
       <c r="I154" s="10"/>
     </row>
     <row r="155" ht="14.25" customHeight="1">
-      <c r="E155" s="37"/>
-      <c r="F155" s="37"/>
+      <c r="E155" s="39"/>
+      <c r="F155" s="39"/>
       <c r="G155" s="9"/>
       <c r="H155" s="9"/>
       <c r="I155" s="10"/>
     </row>
     <row r="156" ht="14.25" customHeight="1">
-      <c r="E156" s="37"/>
-      <c r="F156" s="37"/>
+      <c r="E156" s="39"/>
+      <c r="F156" s="39"/>
       <c r="G156" s="9"/>
       <c r="H156" s="9"/>
       <c r="I156" s="10"/>
     </row>
     <row r="157" ht="14.25" customHeight="1">
-      <c r="E157" s="37"/>
-      <c r="F157" s="37"/>
+      <c r="E157" s="39"/>
+      <c r="F157" s="39"/>
       <c r="G157" s="9"/>
       <c r="H157" s="9"/>
       <c r="I157" s="10"/>
     </row>
     <row r="158" ht="14.25" customHeight="1">
-      <c r="E158" s="37"/>
-      <c r="F158" s="37"/>
+      <c r="E158" s="39"/>
+      <c r="F158" s="39"/>
       <c r="G158" s="9"/>
       <c r="H158" s="9"/>
       <c r="I158" s="10"/>
     </row>
     <row r="159" ht="14.25" customHeight="1">
-      <c r="E159" s="37"/>
-      <c r="F159" s="37"/>
+      <c r="E159" s="39"/>
+      <c r="F159" s="39"/>
       <c r="G159" s="9"/>
       <c r="H159" s="9"/>
       <c r="I159" s="10"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="E160" s="37"/>
-      <c r="F160" s="37"/>
+      <c r="E160" s="39"/>
+      <c r="F160" s="39"/>
       <c r="G160" s="9"/>
       <c r="H160" s="9"/>
       <c r="I160" s="10"/>
     </row>
     <row r="161" ht="14.25" customHeight="1">
-      <c r="E161" s="37"/>
-      <c r="F161" s="37"/>
+      <c r="E161" s="39"/>
+      <c r="F161" s="39"/>
       <c r="G161" s="9"/>
       <c r="H161" s="9"/>
       <c r="I161" s="10"/>
     </row>
     <row r="162" ht="14.25" customHeight="1">
-      <c r="E162" s="37"/>
-      <c r="F162" s="37"/>
+      <c r="E162" s="39"/>
+      <c r="F162" s="39"/>
       <c r="G162" s="9"/>
       <c r="H162" s="9"/>
       <c r="I162" s="10"/>
     </row>
     <row r="163" ht="14.25" customHeight="1">
-      <c r="E163" s="37"/>
-      <c r="F163" s="37"/>
+      <c r="E163" s="39"/>
+      <c r="F163" s="39"/>
       <c r="G163" s="9"/>
       <c r="H163" s="9"/>
       <c r="I163" s="10"/>
     </row>
     <row r="164" ht="14.25" customHeight="1">
-      <c r="E164" s="37"/>
-      <c r="F164" s="37"/>
+      <c r="E164" s="39"/>
+      <c r="F164" s="39"/>
       <c r="G164" s="9"/>
       <c r="H164" s="9"/>
       <c r="I164" s="10"/>
     </row>
     <row r="165" ht="14.25" customHeight="1">
-      <c r="E165" s="37"/>
-      <c r="F165" s="37"/>
+      <c r="E165" s="39"/>
+      <c r="F165" s="39"/>
       <c r="G165" s="9"/>
       <c r="H165" s="9"/>
       <c r="I165" s="10"/>
     </row>
     <row r="166" ht="14.25" customHeight="1">
-      <c r="E166" s="37"/>
-      <c r="F166" s="37"/>
+      <c r="E166" s="39"/>
+      <c r="F166" s="39"/>
       <c r="G166" s="9"/>
       <c r="H166" s="9"/>
       <c r="I166" s="10"/>
     </row>
     <row r="167" ht="14.25" customHeight="1">
-      <c r="E167" s="37"/>
-      <c r="F167" s="37"/>
+      <c r="E167" s="39"/>
+      <c r="F167" s="39"/>
       <c r="G167" s="9"/>
       <c r="H167" s="9"/>
       <c r="I167" s="10"/>
     </row>
     <row r="168" ht="14.25" customHeight="1">
-      <c r="E168" s="37"/>
-      <c r="F168" s="37"/>
+      <c r="E168" s="39"/>
+      <c r="F168" s="39"/>
       <c r="G168" s="9"/>
       <c r="H168" s="9"/>
       <c r="I168" s="10"/>
     </row>
     <row r="169" ht="14.25" customHeight="1">
-      <c r="E169" s="37"/>
-      <c r="F169" s="37"/>
+      <c r="E169" s="39"/>
+      <c r="F169" s="39"/>
       <c r="G169" s="9"/>
       <c r="H169" s="9"/>
       <c r="I169" s="10"/>
     </row>
     <row r="170" ht="14.25" customHeight="1">
-      <c r="E170" s="37"/>
-      <c r="F170" s="37"/>
+      <c r="E170" s="39"/>
+      <c r="F170" s="39"/>
       <c r="G170" s="9"/>
       <c r="H170" s="9"/>
       <c r="I170" s="10"/>
     </row>
     <row r="171" ht="14.25" customHeight="1">
-      <c r="E171" s="37"/>
-      <c r="F171" s="37"/>
+      <c r="E171" s="39"/>
+      <c r="F171" s="39"/>
       <c r="G171" s="9"/>
       <c r="H171" s="9"/>
       <c r="I171" s="10"/>
     </row>
     <row r="172" ht="14.25" customHeight="1">
-      <c r="E172" s="37"/>
-      <c r="F172" s="37"/>
+      <c r="E172" s="39"/>
+      <c r="F172" s="39"/>
       <c r="G172" s="9"/>
       <c r="H172" s="9"/>
       <c r="I172" s="10"/>
     </row>
     <row r="173" ht="14.25" customHeight="1">
-      <c r="E173" s="37"/>
-      <c r="F173" s="37"/>
+      <c r="E173" s="39"/>
+      <c r="F173" s="39"/>
       <c r="G173" s="9"/>
       <c r="H173" s="9"/>
       <c r="I173" s="10"/>
     </row>
     <row r="174" ht="14.25" customHeight="1">
-      <c r="E174" s="37"/>
-      <c r="F174" s="37"/>
+      <c r="E174" s="39"/>
+      <c r="F174" s="39"/>
       <c r="G174" s="9"/>
       <c r="H174" s="9"/>
       <c r="I174" s="10"/>
     </row>
     <row r="175" ht="14.25" customHeight="1">
-      <c r="E175" s="37"/>
-      <c r="F175" s="37"/>
+      <c r="E175" s="39"/>
+      <c r="F175" s="39"/>
       <c r="G175" s="9"/>
       <c r="H175" s="9"/>
       <c r="I175" s="10"/>
     </row>
     <row r="176" ht="14.25" customHeight="1">
-      <c r="E176" s="37"/>
-      <c r="F176" s="37"/>
+      <c r="E176" s="39"/>
+      <c r="F176" s="39"/>
       <c r="G176" s="9"/>
       <c r="H176" s="9"/>
       <c r="I176" s="10"/>
     </row>
     <row r="177" ht="14.25" customHeight="1">
-      <c r="E177" s="37"/>
-      <c r="F177" s="37"/>
+      <c r="E177" s="39"/>
+      <c r="F177" s="39"/>
       <c r="G177" s="9"/>
       <c r="H177" s="9"/>
       <c r="I177" s="10"/>
     </row>
     <row r="178" ht="14.25" customHeight="1">
-      <c r="E178" s="37"/>
-      <c r="F178" s="37"/>
+      <c r="E178" s="39"/>
+      <c r="F178" s="39"/>
       <c r="G178" s="9"/>
       <c r="H178" s="9"/>
       <c r="I178" s="10"/>
     </row>
     <row r="179" ht="14.25" customHeight="1">
-      <c r="E179" s="37"/>
-      <c r="F179" s="37"/>
+      <c r="E179" s="39"/>
+      <c r="F179" s="39"/>
       <c r="G179" s="9"/>
       <c r="H179" s="9"/>
       <c r="I179" s="10"/>
     </row>
     <row r="180" ht="14.25" customHeight="1">
-      <c r="E180" s="37"/>
-      <c r="F180" s="37"/>
+      <c r="E180" s="39"/>
+      <c r="F180" s="39"/>
       <c r="G180" s="9"/>
       <c r="H180" s="9"/>
       <c r="I180" s="10"/>
     </row>
     <row r="181" ht="14.25" customHeight="1">
-      <c r="E181" s="37"/>
-      <c r="F181" s="37"/>
+      <c r="E181" s="39"/>
+      <c r="F181" s="39"/>
       <c r="G181" s="9"/>
       <c r="H181" s="9"/>
       <c r="I181" s="10"/>
     </row>
     <row r="182" ht="14.25" customHeight="1">
-      <c r="E182" s="37"/>
-      <c r="F182" s="37"/>
+      <c r="E182" s="39"/>
+      <c r="F182" s="39"/>
       <c r="G182" s="9"/>
       <c r="H182" s="9"/>
       <c r="I182" s="10"/>
     </row>
     <row r="183" ht="14.25" customHeight="1">
-      <c r="E183" s="37"/>
-      <c r="F183" s="37"/>
+      <c r="E183" s="39"/>
+      <c r="F183" s="39"/>
       <c r="G183" s="9"/>
       <c r="H183" s="9"/>
       <c r="I183" s="10"/>
     </row>
     <row r="184" ht="14.25" customHeight="1">
-      <c r="E184" s="37"/>
-      <c r="F184" s="37"/>
+      <c r="E184" s="39"/>
+      <c r="F184" s="39"/>
       <c r="G184" s="9"/>
       <c r="H184" s="9"/>
       <c r="I184" s="10"/>
     </row>
     <row r="185" ht="14.25" customHeight="1">
-      <c r="E185" s="37"/>
-      <c r="F185" s="37"/>
+      <c r="E185" s="39"/>
+      <c r="F185" s="39"/>
       <c r="G185" s="9"/>
       <c r="H185" s="9"/>
       <c r="I185" s="10"/>
     </row>
     <row r="186" ht="14.25" customHeight="1">
-      <c r="E186" s="37"/>
-      <c r="F186" s="37"/>
+      <c r="E186" s="39"/>
+      <c r="F186" s="39"/>
       <c r="G186" s="9"/>
       <c r="H186" s="9"/>
       <c r="I186" s="10"/>
     </row>
     <row r="187" ht="14.25" customHeight="1">
-      <c r="E187" s="37"/>
-      <c r="F187" s="37"/>
+      <c r="E187" s="39"/>
+      <c r="F187" s="39"/>
       <c r="G187" s="9"/>
       <c r="H187" s="9"/>
       <c r="I187" s="10"/>
     </row>
     <row r="188" ht="14.25" customHeight="1">
-      <c r="E188" s="37"/>
-      <c r="F188" s="37"/>
+      <c r="E188" s="39"/>
+      <c r="F188" s="39"/>
       <c r="G188" s="9"/>
       <c r="H188" s="9"/>
       <c r="I188" s="10"/>
     </row>
     <row r="189" ht="14.25" customHeight="1">
-      <c r="E189" s="37"/>
-      <c r="F189" s="37"/>
+      <c r="E189" s="39"/>
+      <c r="F189" s="39"/>
       <c r="G189" s="9"/>
       <c r="H189" s="9"/>
       <c r="I189" s="10"/>
     </row>
     <row r="190" ht="14.25" customHeight="1">
-      <c r="E190" s="37"/>
-      <c r="F190" s="37"/>
+      <c r="E190" s="39"/>
+      <c r="F190" s="39"/>
       <c r="G190" s="9"/>
       <c r="H190" s="9"/>
       <c r="I190" s="10"/>
     </row>
     <row r="191" ht="14.25" customHeight="1">
-      <c r="E191" s="37"/>
-      <c r="F191" s="37"/>
+      <c r="E191" s="39"/>
+      <c r="F191" s="39"/>
       <c r="G191" s="9"/>
       <c r="H191" s="9"/>
       <c r="I191" s="10"/>
     </row>
     <row r="192" ht="14.25" customHeight="1">
-      <c r="E192" s="37"/>
-      <c r="F192" s="37"/>
+      <c r="E192" s="39"/>
+      <c r="F192" s="39"/>
       <c r="G192" s="9"/>
       <c r="H192" s="9"/>
       <c r="I192" s="10"/>
     </row>
     <row r="193" ht="14.25" customHeight="1">
-      <c r="E193" s="37"/>
-      <c r="F193" s="37"/>
+      <c r="E193" s="39"/>
+      <c r="F193" s="39"/>
       <c r="G193" s="9"/>
       <c r="H193" s="9"/>
       <c r="I193" s="10"/>
     </row>
     <row r="194" ht="14.25" customHeight="1">
-      <c r="E194" s="37"/>
-      <c r="F194" s="37"/>
+      <c r="E194" s="39"/>
+      <c r="F194" s="39"/>
       <c r="G194" s="9"/>
       <c r="H194" s="9"/>
       <c r="I194" s="10"/>
     </row>
     <row r="195" ht="14.25" customHeight="1">
-      <c r="E195" s="37"/>
-      <c r="F195" s="37"/>
+      <c r="E195" s="39"/>
+      <c r="F195" s="39"/>
       <c r="G195" s="9"/>
       <c r="H195" s="9"/>
       <c r="I195" s="10"/>
     </row>
     <row r="196" ht="14.25" customHeight="1">
-      <c r="E196" s="37"/>
-      <c r="F196" s="37"/>
+      <c r="E196" s="39"/>
+      <c r="F196" s="39"/>
       <c r="G196" s="9"/>
       <c r="H196" s="9"/>
       <c r="I196" s="10"/>
     </row>
     <row r="197" ht="14.25" customHeight="1">
-      <c r="E197" s="37"/>
-      <c r="F197" s="37"/>
+      <c r="E197" s="39"/>
+      <c r="F197" s="39"/>
       <c r="G197" s="9"/>
       <c r="H197" s="9"/>
       <c r="I197" s="10"/>
     </row>
     <row r="198" ht="14.25" customHeight="1">
-      <c r="E198" s="37"/>
-      <c r="F198" s="37"/>
+      <c r="E198" s="39"/>
+      <c r="F198" s="39"/>
       <c r="G198" s="9"/>
       <c r="H198" s="9"/>
       <c r="I198" s="10"/>
     </row>
     <row r="199" ht="14.25" customHeight="1">
-      <c r="E199" s="37"/>
-      <c r="F199" s="37"/>
+      <c r="E199" s="39"/>
+      <c r="F199" s="39"/>
       <c r="G199" s="9"/>
       <c r="H199" s="9"/>
       <c r="I199" s="10"/>
     </row>
     <row r="200" ht="14.25" customHeight="1">
-      <c r="E200" s="37"/>
-      <c r="F200" s="37"/>
+      <c r="E200" s="39"/>
+      <c r="F200" s="39"/>
       <c r="G200" s="9"/>
       <c r="H200" s="9"/>
       <c r="I200" s="10"/>
     </row>
     <row r="201" ht="14.25" customHeight="1">
-      <c r="E201" s="37"/>
-      <c r="F201" s="37"/>
+      <c r="E201" s="39"/>
+      <c r="F201" s="39"/>
       <c r="G201" s="9"/>
       <c r="H201" s="9"/>
       <c r="I201" s="10"/>
     </row>
     <row r="202" ht="14.25" customHeight="1">
-      <c r="E202" s="37"/>
-      <c r="F202" s="37"/>
+      <c r="E202" s="39"/>
+      <c r="F202" s="39"/>
       <c r="G202" s="9"/>
       <c r="H202" s="9"/>
       <c r="I202" s="10"/>
     </row>
     <row r="203" ht="14.25" customHeight="1">
-      <c r="E203" s="37"/>
-      <c r="F203" s="37"/>
+      <c r="E203" s="39"/>
+      <c r="F203" s="39"/>
       <c r="G203" s="9"/>
       <c r="H203" s="9"/>
       <c r="I203" s="10"/>
     </row>
     <row r="204" ht="14.25" customHeight="1">
-      <c r="E204" s="37"/>
-      <c r="F204" s="37"/>
+      <c r="E204" s="39"/>
+      <c r="F204" s="39"/>
       <c r="G204" s="9"/>
       <c r="H204" s="9"/>
       <c r="I204" s="10"/>
     </row>
     <row r="205" ht="14.25" customHeight="1">
-      <c r="E205" s="37"/>
-      <c r="F205" s="37"/>
+      <c r="E205" s="39"/>
+      <c r="F205" s="39"/>
       <c r="G205" s="9"/>
       <c r="H205" s="9"/>
       <c r="I205" s="10"/>
     </row>
     <row r="206" ht="14.25" customHeight="1">
-      <c r="E206" s="37"/>
-      <c r="F206" s="37"/>
+      <c r="E206" s="39"/>
+      <c r="F206" s="39"/>
       <c r="G206" s="9"/>
       <c r="H206" s="9"/>
       <c r="I206" s="10"/>
     </row>
     <row r="207" ht="14.25" customHeight="1">
-      <c r="E207" s="37"/>
-      <c r="F207" s="37"/>
+      <c r="E207" s="39"/>
+      <c r="F207" s="39"/>
       <c r="G207" s="9"/>
       <c r="H207" s="9"/>
       <c r="I207" s="10"/>
     </row>
     <row r="208" ht="14.25" customHeight="1">
-      <c r="E208" s="37"/>
-      <c r="F208" s="37"/>
+      <c r="E208" s="39"/>
+      <c r="F208" s="39"/>
       <c r="G208" s="9"/>
       <c r="H208" s="9"/>
       <c r="I208" s="10"/>
     </row>
     <row r="209" ht="14.25" customHeight="1">
-      <c r="E209" s="37"/>
-      <c r="F209" s="37"/>
+      <c r="E209" s="39"/>
+      <c r="F209" s="39"/>
       <c r="G209" s="9"/>
       <c r="H209" s="9"/>
       <c r="I209" s="10"/>
     </row>
     <row r="210" ht="14.25" customHeight="1">
-      <c r="E210" s="37"/>
-      <c r="F210" s="37"/>
+      <c r="E210" s="39"/>
+      <c r="F210" s="39"/>
       <c r="G210" s="9"/>
       <c r="H210" s="9"/>
       <c r="I210" s="10"/>
     </row>
     <row r="211" ht="14.25" customHeight="1">
-      <c r="E211" s="37"/>
-      <c r="F211" s="37"/>
+      <c r="E211" s="39"/>
+      <c r="F211" s="39"/>
       <c r="G211" s="9"/>
       <c r="H211" s="9"/>
       <c r="I211" s="10"/>
     </row>
     <row r="212" ht="14.25" customHeight="1">
-      <c r="E212" s="37"/>
-      <c r="F212" s="37"/>
+      <c r="E212" s="39"/>
+      <c r="F212" s="39"/>
       <c r="G212" s="9"/>
       <c r="H212" s="9"/>
       <c r="I212" s="10"/>
     </row>
     <row r="213" ht="14.25" customHeight="1">
-      <c r="E213" s="37"/>
-      <c r="F213" s="37"/>
+      <c r="E213" s="39"/>
+      <c r="F213" s="39"/>
       <c r="G213" s="9"/>
       <c r="H213" s="9"/>
       <c r="I213" s="10"/>
     </row>
     <row r="214" ht="14.25" customHeight="1">
-      <c r="E214" s="37"/>
-      <c r="F214" s="37"/>
+      <c r="E214" s="39"/>
+      <c r="F214" s="39"/>
       <c r="G214" s="9"/>
       <c r="H214" s="9"/>
       <c r="I214" s="10"/>
     </row>
     <row r="215" ht="14.25" customHeight="1">
-      <c r="E215" s="37"/>
-      <c r="F215" s="37"/>
+      <c r="E215" s="39"/>
+      <c r="F215" s="39"/>
       <c r="G215" s="9"/>
       <c r="H215" s="9"/>
       <c r="I215" s="10"/>
     </row>
     <row r="216" ht="14.25" customHeight="1">
-      <c r="E216" s="37"/>
-      <c r="F216" s="37"/>
+      <c r="E216" s="39"/>
+      <c r="F216" s="39"/>
       <c r="G216" s="9"/>
       <c r="H216" s="9"/>
       <c r="I216" s="10"/>
     </row>
     <row r="217" ht="14.25" customHeight="1">
-      <c r="E217" s="37"/>
-      <c r="F217" s="37"/>
+      <c r="E217" s="39"/>
+      <c r="F217" s="39"/>
       <c r="G217" s="9"/>
       <c r="H217" s="9"/>
       <c r="I217" s="10"/>
     </row>
     <row r="218" ht="14.25" customHeight="1">
-      <c r="E218" s="37"/>
-      <c r="F218" s="37"/>
+      <c r="E218" s="39"/>
+      <c r="F218" s="39"/>
       <c r="G218" s="9"/>
       <c r="H218" s="9"/>
       <c r="I218" s="10"/>
     </row>
     <row r="219" ht="14.25" customHeight="1">
-      <c r="E219" s="37"/>
-      <c r="F219" s="37"/>
+      <c r="E219" s="39"/>
+      <c r="F219" s="39"/>
       <c r="G219" s="9"/>
       <c r="H219" s="9"/>
       <c r="I219" s="10"/>
     </row>
     <row r="220" ht="14.25" customHeight="1">
-      <c r="E220" s="37"/>
-      <c r="F220" s="37"/>
+      <c r="E220" s="39"/>
+      <c r="F220" s="39"/>
       <c r="G220" s="9"/>
       <c r="H220" s="9"/>
       <c r="I220" s="10"/>
     </row>
     <row r="221" ht="14.25" customHeight="1">
-      <c r="E221" s="37"/>
-      <c r="F221" s="37"/>
+      <c r="E221" s="39"/>
+      <c r="F221" s="39"/>
       <c r="G221" s="9"/>
       <c r="H221" s="9"/>
       <c r="I221" s="10"/>
     </row>
     <row r="222" ht="14.25" customHeight="1">
-      <c r="E222" s="37"/>
-      <c r="F222" s="37"/>
+      <c r="E222" s="39"/>
+      <c r="F222" s="39"/>
       <c r="G222" s="9"/>
       <c r="H222" s="9"/>
       <c r="I222" s="10"/>
     </row>
     <row r="223" ht="14.25" customHeight="1">
-      <c r="E223" s="37"/>
-      <c r="F223" s="37"/>
+      <c r="E223" s="39"/>
+      <c r="F223" s="39"/>
       <c r="G223" s="9"/>
       <c r="H223" s="9"/>
       <c r="I223" s="10"/>
     </row>
     <row r="224" ht="14.25" customHeight="1">
-      <c r="E224" s="37"/>
-      <c r="F224" s="37"/>
+      <c r="E224" s="39"/>
+      <c r="F224" s="39"/>
       <c r="G224" s="9"/>
       <c r="H224" s="9"/>
       <c r="I224" s="10"/>
     </row>
     <row r="225" ht="14.25" customHeight="1">
-      <c r="E225" s="37"/>
-      <c r="F225" s="37"/>
+      <c r="E225" s="39"/>
+      <c r="F225" s="39"/>
       <c r="G225" s="9"/>
       <c r="H225" s="9"/>
       <c r="I225" s="10"/>
     </row>
     <row r="226" ht="14.25" customHeight="1">
-      <c r="E226" s="37"/>
-      <c r="F226" s="37"/>
+      <c r="E226" s="39"/>
+      <c r="F226" s="39"/>
       <c r="G226" s="9"/>
       <c r="H226" s="9"/>
       <c r="I226" s="10"/>
     </row>
     <row r="227" ht="14.25" customHeight="1">
-      <c r="E227" s="37"/>
-      <c r="F227" s="37"/>
+      <c r="E227" s="39"/>
+      <c r="F227" s="39"/>
       <c r="G227" s="9"/>
       <c r="H227" s="9"/>
       <c r="I227" s="10"/>
     </row>
     <row r="228" ht="14.25" customHeight="1">
-      <c r="E228" s="37"/>
-      <c r="F228" s="37"/>
+      <c r="E228" s="39"/>
+      <c r="F228" s="39"/>
       <c r="G228" s="9"/>
       <c r="H228" s="9"/>
       <c r="I228" s="10"/>
     </row>
     <row r="229" ht="14.25" customHeight="1">
-      <c r="E229" s="37"/>
-      <c r="F229" s="37"/>
+      <c r="E229" s="39"/>
+      <c r="F229" s="39"/>
       <c r="G229" s="9"/>
       <c r="H229" s="9"/>
       <c r="I229" s="10"/>
     </row>
     <row r="230" ht="14.25" customHeight="1">
-      <c r="E230" s="37"/>
-      <c r="F230" s="37"/>
+      <c r="E230" s="39"/>
+      <c r="F230" s="39"/>
       <c r="G230" s="9"/>
       <c r="H230" s="9"/>
       <c r="I230" s="10"/>
     </row>
     <row r="231" ht="14.25" customHeight="1">
-      <c r="E231" s="37"/>
-      <c r="F231" s="37"/>
+      <c r="E231" s="39"/>
+      <c r="F231" s="39"/>
       <c r="G231" s="9"/>
       <c r="H231" s="9"/>
       <c r="I231" s="10"/>
     </row>
     <row r="232" ht="14.25" customHeight="1">
-      <c r="E232" s="37"/>
-      <c r="F232" s="37"/>
+      <c r="E232" s="39"/>
+      <c r="F232" s="39"/>
       <c r="G232" s="9"/>
       <c r="H232" s="9"/>
       <c r="I232" s="10"/>
     </row>
     <row r="233" ht="14.25" customHeight="1">
-      <c r="E233" s="37"/>
-      <c r="F233" s="37"/>
+      <c r="E233" s="39"/>
+      <c r="F233" s="39"/>
       <c r="G233" s="9"/>
       <c r="H233" s="9"/>
       <c r="I233" s="10"/>
     </row>
     <row r="234" ht="14.25" customHeight="1">
-      <c r="E234" s="37"/>
-      <c r="F234" s="37"/>
+      <c r="E234" s="39"/>
+      <c r="F234" s="39"/>
       <c r="G234" s="9"/>
       <c r="H234" s="9"/>
       <c r="I234" s="10"/>
     </row>
     <row r="235" ht="14.25" customHeight="1">
-      <c r="E235" s="37"/>
-      <c r="F235" s="37"/>
+      <c r="E235" s="39"/>
+      <c r="F235" s="39"/>
       <c r="G235" s="9"/>
       <c r="H235" s="9"/>
       <c r="I235" s="10"/>
     </row>
     <row r="236" ht="14.25" customHeight="1">
-      <c r="E236" s="37"/>
-      <c r="F236" s="37"/>
+      <c r="E236" s="39"/>
+      <c r="F236" s="39"/>
       <c r="G236" s="9"/>
       <c r="H236" s="9"/>
       <c r="I236" s="10"/>
     </row>
     <row r="237" ht="14.25" customHeight="1">
-      <c r="E237" s="37"/>
-      <c r="F237" s="37"/>
+      <c r="E237" s="39"/>
+      <c r="F237" s="39"/>
       <c r="G237" s="9"/>
       <c r="H237" s="9"/>
       <c r="I237" s="10"/>
     </row>
     <row r="238" ht="14.25" customHeight="1">
-      <c r="E238" s="37"/>
-      <c r="F238" s="37"/>
+      <c r="E238" s="39"/>
+      <c r="F238" s="39"/>
       <c r="G238" s="9"/>
       <c r="H238" s="9"/>
       <c r="I238" s="10"/>
     </row>
     <row r="239" ht="14.25" customHeight="1">
-      <c r="E239" s="37"/>
-      <c r="F239" s="37"/>
+      <c r="E239" s="39"/>
+      <c r="F239" s="39"/>
       <c r="G239" s="9"/>
       <c r="H239" s="9"/>
       <c r="I239" s="10"/>
     </row>
     <row r="240" ht="14.25" customHeight="1">
-      <c r="E240" s="37"/>
-      <c r="F240" s="37"/>
+      <c r="E240" s="39"/>
+      <c r="F240" s="39"/>
       <c r="G240" s="9"/>
       <c r="H240" s="9"/>
       <c r="I240" s="10"/>
     </row>
     <row r="241" ht="14.25" customHeight="1">
-      <c r="E241" s="37"/>
-      <c r="F241" s="37"/>
+      <c r="E241" s="39"/>
+      <c r="F241" s="39"/>
       <c r="G241" s="9"/>
       <c r="H241" s="9"/>
       <c r="I241" s="10"/>
     </row>
     <row r="242" ht="14.25" customHeight="1">
-      <c r="E242" s="37"/>
-      <c r="F242" s="37"/>
+      <c r="E242" s="39"/>
+      <c r="F242" s="39"/>
       <c r="G242" s="9"/>
       <c r="H242" s="9"/>
       <c r="I242" s="10"/>
     </row>
     <row r="243" ht="14.25" customHeight="1">
-      <c r="E243" s="37"/>
-      <c r="F243" s="37"/>
+      <c r="E243" s="39"/>
+      <c r="F243" s="39"/>
       <c r="G243" s="9"/>
       <c r="H243" s="9"/>
       <c r="I243" s="10"/>
     </row>
     <row r="244" ht="14.25" customHeight="1">
-      <c r="E244" s="37"/>
-      <c r="F244" s="37"/>
+      <c r="E244" s="39"/>
+      <c r="F244" s="39"/>
       <c r="G244" s="9"/>
       <c r="H244" s="9"/>
       <c r="I244" s="10"/>
     </row>
     <row r="245" ht="14.25" customHeight="1">
-      <c r="E245" s="37"/>
-      <c r="F245" s="37"/>
+      <c r="E245" s="39"/>
+      <c r="F245" s="39"/>
       <c r="G245" s="9"/>
       <c r="H245" s="9"/>
       <c r="I245" s="10"/>
     </row>
     <row r="246" ht="14.25" customHeight="1">
-      <c r="E246" s="37"/>
-      <c r="F246" s="37"/>
+      <c r="E246" s="39"/>
+      <c r="F246" s="39"/>
       <c r="G246" s="9"/>
       <c r="H246" s="9"/>
       <c r="I246" s="10"/>
     </row>
     <row r="247" ht="14.25" customHeight="1">
-      <c r="E247" s="37"/>
-      <c r="F247" s="37"/>
+      <c r="E247" s="39"/>
+      <c r="F247" s="39"/>
       <c r="G247" s="9"/>
       <c r="H247" s="9"/>
       <c r="I247" s="10"/>
     </row>
     <row r="248" ht="14.25" customHeight="1">
-      <c r="E248" s="37"/>
-      <c r="F248" s="37"/>
+      <c r="E248" s="39"/>
+      <c r="F248" s="39"/>
       <c r="G248" s="9"/>
       <c r="H248" s="9"/>
       <c r="I248" s="10"/>
     </row>
     <row r="249" ht="14.25" customHeight="1">
-      <c r="E249" s="37"/>
-      <c r="F249" s="37"/>
+      <c r="E249" s="39"/>
+      <c r="F249" s="39"/>
       <c r="G249" s="9"/>
       <c r="H249" s="9"/>
       <c r="I249" s="10"/>
     </row>
     <row r="250" ht="14.25" customHeight="1">
-      <c r="E250" s="37"/>
-      <c r="F250" s="37"/>
+      <c r="E250" s="39"/>
+      <c r="F250" s="39"/>
       <c r="G250" s="9"/>
       <c r="H250" s="9"/>
       <c r="I250" s="10"/>
     </row>
     <row r="251" ht="14.25" customHeight="1">
-      <c r="E251" s="37"/>
-      <c r="F251" s="37"/>
+      <c r="E251" s="39"/>
+      <c r="F251" s="39"/>
       <c r="G251" s="9"/>
       <c r="H251" s="9"/>
       <c r="I251" s="10"/>
     </row>
     <row r="252" ht="14.25" customHeight="1">
-      <c r="E252" s="37"/>
-      <c r="F252" s="37"/>
+      <c r="E252" s="39"/>
+      <c r="F252" s="39"/>
       <c r="G252" s="9"/>
       <c r="H252" s="9"/>
       <c r="I252" s="10"/>
     </row>
     <row r="253" ht="14.25" customHeight="1">
-      <c r="E253" s="37"/>
-      <c r="F253" s="37"/>
+      <c r="E253" s="39"/>
+      <c r="F253" s="39"/>
       <c r="G253" s="9"/>
       <c r="H253" s="9"/>
       <c r="I253" s="10"/>
     </row>
     <row r="254" ht="14.25" customHeight="1">
-      <c r="E254" s="37"/>
-      <c r="F254" s="37"/>
+      <c r="E254" s="39"/>
+      <c r="F254" s="39"/>
       <c r="G254" s="9"/>
       <c r="H254" s="9"/>
       <c r="I254" s="10"/>
     </row>
     <row r="255" ht="14.25" customHeight="1">
-      <c r="E255" s="37"/>
-      <c r="F255" s="37"/>
+      <c r="E255" s="39"/>
+      <c r="F255" s="39"/>
       <c r="G255" s="9"/>
       <c r="H255" s="9"/>
       <c r="I255" s="10"/>
     </row>
     <row r="256" ht="14.25" customHeight="1">
-      <c r="E256" s="37"/>
-      <c r="F256" s="37"/>
+      <c r="E256" s="39"/>
+      <c r="F256" s="39"/>
       <c r="G256" s="9"/>
       <c r="H256" s="9"/>
       <c r="I256" s="10"/>
     </row>
     <row r="257" ht="14.25" customHeight="1">
-      <c r="E257" s="37"/>
-      <c r="F257" s="37"/>
+      <c r="E257" s="39"/>
+      <c r="F257" s="39"/>
       <c r="G257" s="9"/>
       <c r="H257" s="9"/>
       <c r="I257" s="10"/>
     </row>
     <row r="258" ht="14.25" customHeight="1">
-      <c r="E258" s="37"/>
-      <c r="F258" s="37"/>
+      <c r="E258" s="39"/>
+      <c r="F258" s="39"/>
       <c r="G258" s="9"/>
       <c r="H258" s="9"/>
       <c r="I258" s="10"/>
     </row>
     <row r="259" ht="14.25" customHeight="1">
-      <c r="E259" s="37"/>
-      <c r="F259" s="37"/>
+      <c r="E259" s="39"/>
+      <c r="F259" s="39"/>
       <c r="G259" s="9"/>
       <c r="H259" s="9"/>
       <c r="I259" s="10"/>
     </row>
     <row r="260" ht="14.25" customHeight="1">
-      <c r="E260" s="37"/>
-      <c r="F260" s="37"/>
+      <c r="E260" s="39"/>
+      <c r="F260" s="39"/>
       <c r="G260" s="9"/>
       <c r="H260" s="9"/>
       <c r="I260" s="10"/>
     </row>
     <row r="261" ht="14.25" customHeight="1">
-      <c r="E261" s="37"/>
-      <c r="F261" s="37"/>
+      <c r="E261" s="39"/>
+      <c r="F261" s="39"/>
       <c r="G261" s="9"/>
       <c r="H261" s="9"/>
       <c r="I261" s="10"/>
     </row>
     <row r="262" ht="14.25" customHeight="1">
-      <c r="E262" s="37"/>
-      <c r="F262" s="37"/>
+      <c r="E262" s="39"/>
+      <c r="F262" s="39"/>
       <c r="G262" s="9"/>
       <c r="H262" s="9"/>
       <c r="I262" s="10"/>
     </row>
     <row r="263" ht="14.25" customHeight="1">
-      <c r="E263" s="37"/>
-      <c r="F263" s="37"/>
+      <c r="E263" s="39"/>
+      <c r="F263" s="39"/>
       <c r="G263" s="9"/>
       <c r="H263" s="9"/>
       <c r="I263" s="10"/>
     </row>
     <row r="264" ht="14.25" customHeight="1">
-      <c r="E264" s="37"/>
-      <c r="F264" s="37"/>
+      <c r="E264" s="39"/>
+      <c r="F264" s="39"/>
       <c r="G264" s="9"/>
       <c r="H264" s="9"/>
       <c r="I264" s="10"/>
     </row>
     <row r="265" ht="14.25" customHeight="1">
-      <c r="E265" s="37"/>
-      <c r="F265" s="37"/>
+      <c r="E265" s="39"/>
+      <c r="F265" s="39"/>
       <c r="G265" s="9"/>
       <c r="H265" s="9"/>
       <c r="I265" s="10"/>
     </row>
     <row r="266" ht="14.25" customHeight="1">
-      <c r="E266" s="37"/>
-      <c r="F266" s="37"/>
+      <c r="E266" s="39"/>
+      <c r="F266" s="39"/>
       <c r="G266" s="9"/>
       <c r="H266" s="9"/>
       <c r="I266" s="10"/>
     </row>
     <row r="267" ht="14.25" customHeight="1">
-      <c r="E267" s="37"/>
-      <c r="F267" s="37"/>
+      <c r="E267" s="39"/>
+      <c r="F267" s="39"/>
       <c r="G267" s="9"/>
       <c r="H267" s="9"/>
       <c r="I267" s="10"/>
     </row>
     <row r="268" ht="14.25" customHeight="1">
-      <c r="E268" s="37"/>
-      <c r="F268" s="37"/>
+      <c r="E268" s="39"/>
+      <c r="F268" s="39"/>
       <c r="G268" s="9"/>
       <c r="H268" s="9"/>
       <c r="I268" s="10"/>
     </row>
     <row r="269" ht="14.25" customHeight="1">
-      <c r="E269" s="37"/>
-      <c r="F269" s="37"/>
+      <c r="E269" s="39"/>
+      <c r="F269" s="39"/>
       <c r="G269" s="9"/>
       <c r="H269" s="9"/>
       <c r="I269" s="10"/>
     </row>
     <row r="270" ht="14.25" customHeight="1">
-      <c r="E270" s="37"/>
-      <c r="F270" s="37"/>
+      <c r="E270" s="39"/>
+      <c r="F270" s="39"/>
       <c r="G270" s="9"/>
       <c r="H270" s="9"/>
       <c r="I270" s="10"/>
     </row>
     <row r="271" ht="14.25" customHeight="1">
-      <c r="E271" s="37"/>
-      <c r="F271" s="37"/>
+      <c r="E271" s="39"/>
+      <c r="F271" s="39"/>
       <c r="G271" s="9"/>
       <c r="H271" s="9"/>
       <c r="I271" s="10"/>
     </row>
     <row r="272" ht="14.25" customHeight="1">
-      <c r="E272" s="37"/>
-      <c r="F272" s="37"/>
+      <c r="E272" s="39"/>
+      <c r="F272" s="39"/>
       <c r="G272" s="9"/>
       <c r="H272" s="9"/>
       <c r="I272" s="10"/>
     </row>
     <row r="273" ht="14.25" customHeight="1">
-      <c r="E273" s="37"/>
-      <c r="F273" s="37"/>
+      <c r="E273" s="39"/>
+      <c r="F273" s="39"/>
       <c r="G273" s="9"/>
       <c r="H273" s="9"/>
       <c r="I273" s="10"/>
     </row>
     <row r="274" ht="14.25" customHeight="1">
-      <c r="E274" s="37"/>
-      <c r="F274" s="37"/>
+      <c r="E274" s="39"/>
+      <c r="F274" s="39"/>
       <c r="G274" s="9"/>
       <c r="H274" s="9"/>
       <c r="I274" s="10"/>
     </row>
     <row r="275" ht="14.25" customHeight="1">
-      <c r="E275" s="37"/>
-      <c r="F275" s="37"/>
+      <c r="E275" s="39"/>
+      <c r="F275" s="39"/>
       <c r="G275" s="9"/>
       <c r="H275" s="9"/>
       <c r="I275" s="10"/>
     </row>
     <row r="276" ht="14.25" customHeight="1">
-      <c r="E276" s="37"/>
-      <c r="F276" s="37"/>
+      <c r="E276" s="39"/>
+      <c r="F276" s="39"/>
       <c r="G276" s="9"/>
       <c r="H276" s="9"/>
       <c r="I276" s="10"/>
     </row>
     <row r="277" ht="14.25" customHeight="1">
-      <c r="E277" s="37"/>
-      <c r="F277" s="37"/>
+      <c r="E277" s="39"/>
+      <c r="F277" s="39"/>
       <c r="G277" s="9"/>
       <c r="H277" s="9"/>
       <c r="I277" s="10"/>
     </row>
     <row r="278" ht="14.25" customHeight="1">
-      <c r="E278" s="37"/>
-      <c r="F278" s="37"/>
+      <c r="E278" s="39"/>
+      <c r="F278" s="39"/>
       <c r="G278" s="9"/>
       <c r="H278" s="9"/>
       <c r="I278" s="10"/>
     </row>
     <row r="279" ht="14.25" customHeight="1">
-      <c r="E279" s="37"/>
-      <c r="F279" s="37"/>
+      <c r="E279" s="39"/>
+      <c r="F279" s="39"/>
       <c r="G279" s="9"/>
       <c r="H279" s="9"/>
       <c r="I279" s="10"/>
     </row>
     <row r="280" ht="14.25" customHeight="1">
-      <c r="E280" s="37"/>
-      <c r="F280" s="37"/>
+      <c r="E280" s="39"/>
+      <c r="F280" s="39"/>
       <c r="G280" s="9"/>
       <c r="H280" s="9"/>
       <c r="I280" s="10"/>
     </row>
     <row r="281" ht="14.25" customHeight="1">
-      <c r="E281" s="37"/>
-      <c r="F281" s="37"/>
+      <c r="E281" s="39"/>
+      <c r="F281" s="39"/>
       <c r="G281" s="9"/>
       <c r="H281" s="9"/>
       <c r="I281" s="10"/>
     </row>
     <row r="282" ht="14.25" customHeight="1">
-      <c r="E282" s="37"/>
-      <c r="F282" s="37"/>
+      <c r="E282" s="39"/>
+      <c r="F282" s="39"/>
       <c r="G282" s="9"/>
       <c r="H282" s="9"/>
       <c r="I282" s="10"/>
     </row>
     <row r="283" ht="14.25" customHeight="1">
-      <c r="E283" s="37"/>
-      <c r="F283" s="37"/>
+      <c r="E283" s="39"/>
+      <c r="F283" s="39"/>
       <c r="G283" s="9"/>
       <c r="H283" s="9"/>
       <c r="I283" s="10"/>
     </row>
     <row r="284" ht="14.25" customHeight="1">
-      <c r="E284" s="37"/>
-      <c r="F284" s="37"/>
+      <c r="E284" s="39"/>
+      <c r="F284" s="39"/>
       <c r="G284" s="9"/>
       <c r="H284" s="9"/>
       <c r="I284" s="10"/>
     </row>
     <row r="285" ht="14.25" customHeight="1">
-      <c r="E285" s="37"/>
-      <c r="F285" s="37"/>
+      <c r="E285" s="39"/>
+      <c r="F285" s="39"/>
       <c r="G285" s="9"/>
       <c r="H285" s="9"/>
       <c r="I285" s="10"/>
     </row>
     <row r="286" ht="14.25" customHeight="1">
-      <c r="E286" s="37"/>
-      <c r="F286" s="37"/>
+      <c r="E286" s="39"/>
+      <c r="F286" s="39"/>
       <c r="G286" s="9"/>
       <c r="H286" s="9"/>
       <c r="I286" s="10"/>
     </row>
     <row r="287" ht="14.25" customHeight="1">
-      <c r="E287" s="37"/>
-      <c r="F287" s="37"/>
+      <c r="E287" s="39"/>
+      <c r="F287" s="39"/>
       <c r="G287" s="9"/>
       <c r="H287" s="9"/>
       <c r="I287" s="10"/>
     </row>
     <row r="288" ht="14.25" customHeight="1">
-      <c r="E288" s="37"/>
-      <c r="F288" s="37"/>
+      <c r="E288" s="39"/>
+      <c r="F288" s="39"/>
       <c r="G288" s="9"/>
       <c r="H288" s="9"/>
       <c r="I288" s="10"/>
     </row>
     <row r="289" ht="14.25" customHeight="1">
-      <c r="E289" s="37"/>
-      <c r="F289" s="37"/>
+      <c r="E289" s="39"/>
+      <c r="F289" s="39"/>
       <c r="G289" s="9"/>
       <c r="H289" s="9"/>
       <c r="I289" s="10"/>
     </row>
     <row r="290" ht="14.25" customHeight="1">
-      <c r="E290" s="37"/>
-      <c r="F290" s="37"/>
+      <c r="E290" s="39"/>
+      <c r="F290" s="39"/>
       <c r="G290" s="9"/>
       <c r="H290" s="9"/>
       <c r="I290" s="10"/>
     </row>
     <row r="291" ht="14.25" customHeight="1">
-      <c r="E291" s="37"/>
-      <c r="F291" s="37"/>
+      <c r="E291" s="39"/>
+      <c r="F291" s="39"/>
       <c r="G291" s="9"/>
       <c r="H291" s="9"/>
       <c r="I291" s="10"/>
     </row>
     <row r="292" ht="14.25" customHeight="1">
-      <c r="E292" s="37"/>
-      <c r="F292" s="37"/>
+      <c r="E292" s="39"/>
+      <c r="F292" s="39"/>
       <c r="G292" s="9"/>
       <c r="H292" s="9"/>
       <c r="I292" s="10"/>
     </row>
     <row r="293" ht="14.25" customHeight="1">
-      <c r="E293" s="37"/>
-      <c r="F293" s="37"/>
+      <c r="E293" s="39"/>
+      <c r="F293" s="39"/>
       <c r="G293" s="9"/>
       <c r="H293" s="9"/>
       <c r="I293" s="10"/>
     </row>
     <row r="294" ht="14.25" customHeight="1">
-      <c r="E294" s="37"/>
-      <c r="F294" s="37"/>
+      <c r="E294" s="39"/>
+      <c r="F294" s="39"/>
       <c r="G294" s="9"/>
       <c r="H294" s="9"/>
       <c r="I294" s="10"/>
     </row>
     <row r="295" ht="14.25" customHeight="1">
-      <c r="E295" s="37"/>
-      <c r="F295" s="37"/>
+      <c r="E295" s="39"/>
+      <c r="F295" s="39"/>
       <c r="G295" s="9"/>
       <c r="H295" s="9"/>
       <c r="I295" s="10"/>
     </row>
     <row r="296" ht="14.25" customHeight="1">
-      <c r="E296" s="37"/>
-      <c r="F296" s="37"/>
+      <c r="E296" s="39"/>
+      <c r="F296" s="39"/>
       <c r="G296" s="9"/>
       <c r="H296" s="9"/>
       <c r="I296" s="10"/>
     </row>
     <row r="297" ht="14.25" customHeight="1">
-      <c r="E297" s="37"/>
-      <c r="F297" s="37"/>
+      <c r="E297" s="39"/>
+      <c r="F297" s="39"/>
       <c r="G297" s="9"/>
       <c r="H297" s="9"/>
       <c r="I297" s="10"/>
     </row>
     <row r="298" ht="14.25" customHeight="1">
-      <c r="E298" s="37"/>
-      <c r="F298" s="37"/>
+      <c r="E298" s="39"/>
+      <c r="F298" s="39"/>
       <c r="G298" s="9"/>
       <c r="H298" s="9"/>
       <c r="I298" s="10"/>
     </row>
     <row r="299" ht="14.25" customHeight="1">
-      <c r="E299" s="37"/>
-      <c r="F299" s="37"/>
+      <c r="E299" s="39"/>
+      <c r="F299" s="39"/>
       <c r="G299" s="9"/>
       <c r="H299" s="9"/>
       <c r="I299" s="10"/>
     </row>
     <row r="300" ht="14.25" customHeight="1">
-      <c r="E300" s="37"/>
-      <c r="F300" s="37"/>
+      <c r="E300" s="39"/>
+      <c r="F300" s="39"/>
       <c r="G300" s="9"/>
       <c r="H300" s="9"/>
       <c r="I300" s="10"/>
     </row>
     <row r="301" ht="14.25" customHeight="1">
-      <c r="E301" s="37"/>
-      <c r="F301" s="37"/>
+      <c r="E301" s="39"/>
+      <c r="F301" s="39"/>
       <c r="G301" s="9"/>
       <c r="H301" s="9"/>
       <c r="I301" s="10"/>
     </row>
     <row r="302" ht="14.25" customHeight="1">
-      <c r="E302" s="37"/>
-      <c r="F302" s="37"/>
+      <c r="E302" s="39"/>
+      <c r="F302" s="39"/>
       <c r="G302" s="9"/>
       <c r="H302" s="9"/>
       <c r="I302" s="10"/>
     </row>
     <row r="303" ht="14.25" customHeight="1">
-      <c r="E303" s="37"/>
-      <c r="F303" s="37"/>
+      <c r="E303" s="39"/>
+      <c r="F303" s="39"/>
       <c r="G303" s="9"/>
       <c r="H303" s="9"/>
       <c r="I303" s="10"/>
     </row>
     <row r="304" ht="14.25" customHeight="1">
-      <c r="E304" s="37"/>
-      <c r="F304" s="37"/>
+      <c r="E304" s="39"/>
+      <c r="F304" s="39"/>
       <c r="G304" s="9"/>
       <c r="H304" s="9"/>
       <c r="I304" s="10"/>
     </row>
     <row r="305" ht="14.25" customHeight="1">
-      <c r="E305" s="37"/>
-      <c r="F305" s="37"/>
+      <c r="E305" s="39"/>
+      <c r="F305" s="39"/>
       <c r="G305" s="9"/>
       <c r="H305" s="9"/>
       <c r="I305" s="10"/>
     </row>
     <row r="306" ht="14.25" customHeight="1">
-      <c r="E306" s="37"/>
-      <c r="F306" s="37"/>
+      <c r="E306" s="39"/>
+      <c r="F306" s="39"/>
       <c r="G306" s="9"/>
       <c r="H306" s="9"/>
       <c r="I306" s="10"/>
     </row>
     <row r="307" ht="14.25" customHeight="1">
-      <c r="E307" s="37"/>
-      <c r="F307" s="37"/>
+      <c r="E307" s="39"/>
+      <c r="F307" s="39"/>
       <c r="G307" s="9"/>
       <c r="H307" s="9"/>
       <c r="I307" s="10"/>
     </row>
     <row r="308" ht="14.25" customHeight="1">
-      <c r="E308" s="37"/>
-      <c r="F308" s="37"/>
+      <c r="E308" s="39"/>
+      <c r="F308" s="39"/>
       <c r="G308" s="9"/>
       <c r="H308" s="9"/>
       <c r="I308" s="10"/>
     </row>
     <row r="309" ht="14.25" customHeight="1">
-      <c r="E309" s="37"/>
-      <c r="F309" s="37"/>
+      <c r="E309" s="39"/>
+      <c r="F309" s="39"/>
       <c r="G309" s="9"/>
       <c r="H309" s="9"/>
       <c r="I309" s="10"/>
     </row>
     <row r="310" ht="14.25" customHeight="1">
-      <c r="E310" s="37"/>
-      <c r="F310" s="37"/>
+      <c r="E310" s="39"/>
+      <c r="F310" s="39"/>
       <c r="G310" s="9"/>
       <c r="H310" s="9"/>
       <c r="I310" s="10"/>
     </row>
     <row r="311" ht="14.25" customHeight="1">
-      <c r="E311" s="37"/>
-      <c r="F311" s="37"/>
+      <c r="E311" s="39"/>
+      <c r="F311" s="39"/>
       <c r="G311" s="9"/>
       <c r="H311" s="9"/>
       <c r="I311" s="10"/>
     </row>
     <row r="312" ht="14.25" customHeight="1">
-      <c r="E312" s="37"/>
-      <c r="F312" s="37"/>
+      <c r="E312" s="39"/>
+      <c r="F312" s="39"/>
       <c r="G312" s="9"/>
       <c r="H312" s="9"/>
       <c r="I312" s="10"/>
     </row>
     <row r="313" ht="14.25" customHeight="1">
-      <c r="E313" s="37"/>
-      <c r="F313" s="37"/>
+      <c r="E313" s="39"/>
+      <c r="F313" s="39"/>
       <c r="G313" s="9"/>
       <c r="H313" s="9"/>
       <c r="I313" s="10"/>
     </row>
     <row r="314" ht="14.25" customHeight="1">
-      <c r="E314" s="37"/>
-      <c r="F314" s="37"/>
+      <c r="E314" s="39"/>
+      <c r="F314" s="39"/>
       <c r="G314" s="9"/>
       <c r="H314" s="9"/>
       <c r="I314" s="10"/>
     </row>
     <row r="315" ht="14.25" customHeight="1">
-      <c r="E315" s="37"/>
-      <c r="F315" s="37"/>
+      <c r="E315" s="39"/>
+      <c r="F315" s="39"/>
       <c r="G315" s="9"/>
       <c r="H315" s="9"/>
       <c r="I315" s="10"/>
     </row>
     <row r="316" ht="14.25" customHeight="1">
-      <c r="E316" s="37"/>
-      <c r="F316" s="37"/>
+      <c r="E316" s="39"/>
+      <c r="F316" s="39"/>
       <c r="G316" s="9"/>
       <c r="H316" s="9"/>
       <c r="I316" s="10"/>
     </row>
     <row r="317" ht="14.25" customHeight="1">
-      <c r="E317" s="37"/>
-      <c r="F317" s="37"/>
+      <c r="E317" s="39"/>
+      <c r="F317" s="39"/>
       <c r="G317" s="9"/>
       <c r="H317" s="9"/>
       <c r="I317" s="10"/>
     </row>
     <row r="318" ht="14.25" customHeight="1">
-      <c r="E318" s="37"/>
-      <c r="F318" s="37"/>
+      <c r="E318" s="39"/>
+      <c r="F318" s="39"/>
       <c r="G318" s="9"/>
       <c r="H318" s="9"/>
       <c r="I318" s="10"/>
     </row>
     <row r="319" ht="14.25" customHeight="1">
-      <c r="E319" s="37"/>
-      <c r="F319" s="37"/>
+      <c r="E319" s="39"/>
+      <c r="F319" s="39"/>
       <c r="G319" s="9"/>
       <c r="H319" s="9"/>
       <c r="I319" s="10"/>
     </row>
     <row r="320" ht="14.25" customHeight="1">
-      <c r="E320" s="37"/>
-      <c r="F320" s="37"/>
+      <c r="E320" s="39"/>
+      <c r="F320" s="39"/>
       <c r="G320" s="9"/>
       <c r="H320" s="9"/>
       <c r="I320" s="10"/>
     </row>
     <row r="321" ht="14.25" customHeight="1">
-      <c r="E321" s="37"/>
-      <c r="F321" s="37"/>
+      <c r="E321" s="39"/>
+      <c r="F321" s="39"/>
       <c r="G321" s="9"/>
       <c r="H321" s="9"/>
       <c r="I321" s="10"/>
     </row>
     <row r="322" ht="14.25" customHeight="1">
-      <c r="E322" s="37"/>
-      <c r="F322" s="37"/>
+      <c r="E322" s="39"/>
+      <c r="F322" s="39"/>
       <c r="G322" s="9"/>
       <c r="H322" s="9"/>
       <c r="I322" s="10"/>
     </row>
     <row r="323" ht="14.25" customHeight="1">
-      <c r="E323" s="37"/>
-      <c r="F323" s="37"/>
+      <c r="E323" s="39"/>
+      <c r="F323" s="39"/>
       <c r="G323" s="9"/>
       <c r="H323" s="9"/>
       <c r="I323" s="10"/>
     </row>
     <row r="324" ht="14.25" customHeight="1">
-      <c r="E324" s="37"/>
-      <c r="F324" s="37"/>
+      <c r="E324" s="39"/>
+      <c r="F324" s="39"/>
       <c r="G324" s="9"/>
       <c r="H324" s="9"/>
       <c r="I324" s="10"/>
     </row>
     <row r="325" ht="14.25" customHeight="1">
-      <c r="E325" s="37"/>
-      <c r="F325" s="37"/>
+      <c r="E325" s="39"/>
+      <c r="F325" s="39"/>
       <c r="G325" s="9"/>
       <c r="H325" s="9"/>
       <c r="I325" s="10"/>
     </row>
     <row r="326" ht="14.25" customHeight="1">
-      <c r="E326" s="37"/>
-      <c r="F326" s="37"/>
+      <c r="E326" s="39"/>
+      <c r="F326" s="39"/>
       <c r="G326" s="9"/>
       <c r="H326" s="9"/>
       <c r="I326" s="10"/>
     </row>
     <row r="327" ht="14.25" customHeight="1">
-      <c r="E327" s="37"/>
-      <c r="F327" s="37"/>
+      <c r="E327" s="39"/>
+      <c r="F327" s="39"/>
       <c r="G327" s="9"/>
       <c r="H327" s="9"/>
       <c r="I327" s="10"/>
     </row>
     <row r="328" ht="14.25" customHeight="1">
-      <c r="E328" s="37"/>
-      <c r="F328" s="37"/>
+      <c r="E328" s="39"/>
+      <c r="F328" s="39"/>
       <c r="G328" s="9"/>
       <c r="H328" s="9"/>
       <c r="I328" s="10"/>
     </row>
     <row r="329" ht="14.25" customHeight="1">
-      <c r="E329" s="37"/>
-      <c r="F329" s="37"/>
+      <c r="E329" s="39"/>
+      <c r="F329" s="39"/>
       <c r="G329" s="9"/>
       <c r="H329" s="9"/>
       <c r="I329" s="10"/>
     </row>
     <row r="330" ht="14.25" customHeight="1">
-      <c r="E330" s="37"/>
-      <c r="F330" s="37"/>
+      <c r="E330" s="39"/>
+      <c r="F330" s="39"/>
       <c r="G330" s="9"/>
       <c r="H330" s="9"/>
       <c r="I330" s="10"/>
     </row>
     <row r="331" ht="14.25" customHeight="1">
-      <c r="E331" s="37"/>
-      <c r="F331" s="37"/>
+      <c r="E331" s="39"/>
+      <c r="F331" s="39"/>
       <c r="G331" s="9"/>
       <c r="H331" s="9"/>
       <c r="I331" s="10"/>
     </row>
     <row r="332" ht="14.25" customHeight="1">
-      <c r="E332" s="37"/>
-      <c r="F332" s="37"/>
+      <c r="E332" s="39"/>
+      <c r="F332" s="39"/>
       <c r="G332" s="9"/>
       <c r="H332" s="9"/>
       <c r="I332" s="10"/>
     </row>
     <row r="333" ht="14.25" customHeight="1">
-      <c r="E333" s="37"/>
-      <c r="F333" s="37"/>
+      <c r="E333" s="39"/>
+      <c r="F333" s="39"/>
       <c r="G333" s="9"/>
       <c r="H333" s="9"/>
       <c r="I333" s="10"/>
     </row>
     <row r="334" ht="14.25" customHeight="1">
-      <c r="E334" s="37"/>
-      <c r="F334" s="37"/>
+      <c r="E334" s="39"/>
+      <c r="F334" s="39"/>
       <c r="G334" s="9"/>
       <c r="H334" s="9"/>
       <c r="I334" s="10"/>
     </row>
     <row r="335" ht="14.25" customHeight="1">
-      <c r="E335" s="37"/>
-      <c r="F335" s="37"/>
+      <c r="E335" s="39"/>
+      <c r="F335" s="39"/>
       <c r="G335" s="9"/>
       <c r="H335" s="9"/>
       <c r="I335" s="10"/>
     </row>
     <row r="336" ht="14.25" customHeight="1">
-      <c r="E336" s="37"/>
-      <c r="F336" s="37"/>
+      <c r="E336" s="39"/>
+      <c r="F336" s="39"/>
       <c r="G336" s="9"/>
       <c r="H336" s="9"/>
       <c r="I336" s="10"/>
     </row>
     <row r="337" ht="14.25" customHeight="1">
-      <c r="E337" s="37"/>
-      <c r="F337" s="37"/>
+      <c r="E337" s="39"/>
+      <c r="F337" s="39"/>
       <c r="G337" s="9"/>
       <c r="H337" s="9"/>
       <c r="I337" s="10"/>
     </row>
     <row r="338" ht="14.25" customHeight="1">
-      <c r="E338" s="37"/>
-      <c r="F338" s="37"/>
+      <c r="E338" s="39"/>
+      <c r="F338" s="39"/>
       <c r="G338" s="9"/>
       <c r="H338" s="9"/>
       <c r="I338" s="10"/>
     </row>
     <row r="339" ht="14.25" customHeight="1">
-      <c r="E339" s="37"/>
-      <c r="F339" s="37"/>
+      <c r="E339" s="39"/>
+      <c r="F339" s="39"/>
       <c r="G339" s="9"/>
       <c r="H339" s="9"/>
       <c r="I339" s="10"/>
     </row>
     <row r="340" ht="14.25" customHeight="1">
-      <c r="E340" s="37"/>
-      <c r="F340" s="37"/>
+      <c r="E340" s="39"/>
+      <c r="F340" s="39"/>
       <c r="G340" s="9"/>
       <c r="H340" s="9"/>
       <c r="I340" s="10"/>
     </row>
     <row r="341" ht="14.25" customHeight="1">
-      <c r="E341" s="37"/>
-      <c r="F341" s="37"/>
+      <c r="E341" s="39"/>
+      <c r="F341" s="39"/>
       <c r="G341" s="9"/>
       <c r="H341" s="9"/>
       <c r="I341" s="10"/>
     </row>
     <row r="342" ht="14.25" customHeight="1">
-      <c r="E342" s="37"/>
-      <c r="F342" s="37"/>
+      <c r="E342" s="39"/>
+      <c r="F342" s="39"/>
       <c r="G342" s="9"/>
       <c r="H342" s="9"/>
       <c r="I342" s="10"/>
     </row>
     <row r="343" ht="14.25" customHeight="1">
-      <c r="E343" s="37"/>
-      <c r="F343" s="37"/>
+      <c r="E343" s="39"/>
+      <c r="F343" s="39"/>
       <c r="G343" s="9"/>
       <c r="H343" s="9"/>
       <c r="I343" s="10"/>
     </row>
     <row r="344" ht="14.25" customHeight="1">
-      <c r="E344" s="37"/>
-      <c r="F344" s="37"/>
+      <c r="E344" s="39"/>
+      <c r="F344" s="39"/>
       <c r="G344" s="9"/>
       <c r="H344" s="9"/>
       <c r="I344" s="10"/>
     </row>
     <row r="345" ht="14.25" customHeight="1">
-      <c r="E345" s="37"/>
-      <c r="F345" s="37"/>
+      <c r="E345" s="39"/>
+      <c r="F345" s="39"/>
       <c r="G345" s="9"/>
       <c r="H345" s="9"/>
       <c r="I345" s="10"/>
     </row>
     <row r="346" ht="14.25" customHeight="1">
-      <c r="E346" s="37"/>
-      <c r="F346" s="37"/>
+      <c r="E346" s="39"/>
+      <c r="F346" s="39"/>
       <c r="G346" s="9"/>
       <c r="H346" s="9"/>
       <c r="I346" s="10"/>
     </row>
     <row r="347" ht="14.25" customHeight="1">
-      <c r="E347" s="37"/>
-      <c r="F347" s="37"/>
+      <c r="E347" s="39"/>
+      <c r="F347" s="39"/>
       <c r="G347" s="9"/>
       <c r="H347" s="9"/>
       <c r="I347" s="10"/>
     </row>
     <row r="348" ht="14.25" customHeight="1">
-      <c r="E348" s="37"/>
-      <c r="F348" s="37"/>
+      <c r="E348" s="39"/>
+      <c r="F348" s="39"/>
       <c r="G348" s="9"/>
       <c r="H348" s="9"/>
       <c r="I348" s="10"/>
     </row>
     <row r="349" ht="14.25" customHeight="1">
-      <c r="E349" s="37"/>
-      <c r="F349" s="37"/>
+      <c r="E349" s="39"/>
+      <c r="F349" s="39"/>
       <c r="G349" s="9"/>
       <c r="H349" s="9"/>
       <c r="I349" s="10"/>
     </row>
     <row r="350" ht="14.25" customHeight="1">
-      <c r="E350" s="37"/>
-      <c r="F350" s="37"/>
+      <c r="E350" s="39"/>
+      <c r="F350" s="39"/>
       <c r="G350" s="9"/>
       <c r="H350" s="9"/>
       <c r="I350" s="10"/>
     </row>
     <row r="351" ht="14.25" customHeight="1">
-      <c r="E351" s="37"/>
-      <c r="F351" s="37"/>
+      <c r="E351" s="39"/>
+      <c r="F351" s="39"/>
       <c r="G351" s="9"/>
       <c r="H351" s="9"/>
       <c r="I351" s="10"/>
     </row>
     <row r="352" ht="14.25" customHeight="1">
-      <c r="E352" s="37"/>
-      <c r="F352" s="37"/>
+      <c r="E352" s="39"/>
+      <c r="F352" s="39"/>
       <c r="G352" s="9"/>
       <c r="H352" s="9"/>
       <c r="I352" s="10"/>
     </row>
     <row r="353" ht="14.25" customHeight="1">
-      <c r="E353" s="37"/>
-      <c r="F353" s="37"/>
+      <c r="E353" s="39"/>
+      <c r="F353" s="39"/>
       <c r="G353" s="9"/>
       <c r="H353" s="9"/>
       <c r="I353" s="10"/>
     </row>
     <row r="354" ht="14.25" customHeight="1">
-      <c r="E354" s="37"/>
-      <c r="F354" s="37"/>
+      <c r="E354" s="39"/>
+      <c r="F354" s="39"/>
       <c r="G354" s="9"/>
       <c r="H354" s="9"/>
       <c r="I354" s="10"/>
     </row>
     <row r="355" ht="14.25" customHeight="1">
-      <c r="E355" s="37"/>
-      <c r="F355" s="37"/>
+      <c r="E355" s="39"/>
+      <c r="F355" s="39"/>
       <c r="G355" s="9"/>
       <c r="H355" s="9"/>
       <c r="I355" s="10"/>
     </row>
     <row r="356" ht="14.25" customHeight="1">
-      <c r="E356" s="37"/>
-      <c r="F356" s="37"/>
+      <c r="E356" s="39"/>
+      <c r="F356" s="39"/>
       <c r="G356" s="9"/>
       <c r="H356" s="9"/>
       <c r="I356" s="10"/>
     </row>
     <row r="357" ht="14.25" customHeight="1">
-      <c r="E357" s="37"/>
-      <c r="F357" s="37"/>
+      <c r="E357" s="39"/>
+      <c r="F357" s="39"/>
       <c r="G357" s="9"/>
       <c r="H357" s="9"/>
       <c r="I357" s="10"/>
     </row>
     <row r="358" ht="14.25" customHeight="1">
-      <c r="E358" s="37"/>
-      <c r="F358" s="37"/>
+      <c r="E358" s="39"/>
+      <c r="F358" s="39"/>
       <c r="G358" s="9"/>
       <c r="H358" s="9"/>
       <c r="I358" s="10"/>
     </row>
     <row r="359" ht="14.25" customHeight="1">
-      <c r="E359" s="37"/>
-      <c r="F359" s="37"/>
+      <c r="E359" s="39"/>
+      <c r="F359" s="39"/>
       <c r="G359" s="9"/>
       <c r="H359" s="9"/>
       <c r="I359" s="10"/>
     </row>
     <row r="360" ht="14.25" customHeight="1">
-      <c r="E360" s="37"/>
-      <c r="F360" s="37"/>
+      <c r="E360" s="39"/>
+      <c r="F360" s="39"/>
       <c r="G360" s="9"/>
       <c r="H360" s="9"/>
       <c r="I360" s="10"/>
     </row>
     <row r="361" ht="14.25" customHeight="1">
-      <c r="E361" s="37"/>
-      <c r="F361" s="37"/>
+      <c r="E361" s="39"/>
+      <c r="F361" s="39"/>
       <c r="G361" s="9"/>
       <c r="H361" s="9"/>
       <c r="I361" s="10"/>
     </row>
     <row r="362" ht="14.25" customHeight="1">
-      <c r="E362" s="37"/>
-      <c r="F362" s="37"/>
+      <c r="E362" s="39"/>
+      <c r="F362" s="39"/>
       <c r="G362" s="9"/>
       <c r="H362" s="9"/>
       <c r="I362" s="10"/>
     </row>
     <row r="363" ht="14.25" customHeight="1">
-      <c r="E363" s="37"/>
-      <c r="F363" s="37"/>
+      <c r="E363" s="39"/>
+      <c r="F363" s="39"/>
       <c r="G363" s="9"/>
       <c r="H363" s="9"/>
       <c r="I363" s="10"/>
     </row>
     <row r="364" ht="14.25" customHeight="1">
-      <c r="E364" s="37"/>
-      <c r="F364" s="37"/>
+      <c r="E364" s="39"/>
+      <c r="F364" s="39"/>
       <c r="G364" s="9"/>
       <c r="H364" s="9"/>
       <c r="I364" s="10"/>
     </row>
     <row r="365" ht="14.25" customHeight="1">
-      <c r="E365" s="37"/>
-      <c r="F365" s="37"/>
+      <c r="E365" s="39"/>
+      <c r="F365" s="39"/>
       <c r="G365" s="9"/>
       <c r="H365" s="9"/>
       <c r="I365" s="10"/>
     </row>
     <row r="366" ht="14.25" customHeight="1">
-      <c r="E366" s="37"/>
-      <c r="F366" s="37"/>
+      <c r="E366" s="39"/>
+      <c r="F366" s="39"/>
       <c r="G366" s="9"/>
       <c r="H366" s="9"/>
       <c r="I366" s="10"/>
     </row>
     <row r="367" ht="14.25" customHeight="1">
-      <c r="E367" s="37"/>
-      <c r="F367" s="37"/>
+      <c r="E367" s="39"/>
+      <c r="F367" s="39"/>
       <c r="G367" s="9"/>
       <c r="H367" s="9"/>
       <c r="I367" s="10"/>
     </row>
     <row r="368" ht="14.25" customHeight="1">
-      <c r="E368" s="37"/>
-      <c r="F368" s="37"/>
+      <c r="E368" s="39"/>
+      <c r="F368" s="39"/>
       <c r="G368" s="9"/>
       <c r="H368" s="9"/>
       <c r="I368" s="10"/>
     </row>
     <row r="369" ht="14.25" customHeight="1">
-      <c r="E369" s="37"/>
-      <c r="F369" s="37"/>
+      <c r="E369" s="39"/>
+      <c r="F369" s="39"/>
       <c r="G369" s="9"/>
       <c r="H369" s="9"/>
       <c r="I369" s="10"/>
     </row>
     <row r="370" ht="14.25" customHeight="1">
-      <c r="E370" s="37"/>
-      <c r="F370" s="37"/>
+      <c r="E370" s="39"/>
+      <c r="F370" s="39"/>
       <c r="G370" s="9"/>
       <c r="H370" s="9"/>
       <c r="I370" s="10"/>
     </row>
     <row r="371" ht="14.25" customHeight="1">
-      <c r="E371" s="37"/>
-      <c r="F371" s="37"/>
+      <c r="E371" s="39"/>
+      <c r="F371" s="39"/>
       <c r="G371" s="9"/>
       <c r="H371" s="9"/>
       <c r="I371" s="10"/>
     </row>
     <row r="372" ht="14.25" customHeight="1">
-      <c r="E372" s="37"/>
-      <c r="F372" s="37"/>
+      <c r="E372" s="39"/>
+      <c r="F372" s="39"/>
       <c r="G372" s="9"/>
       <c r="H372" s="9"/>
       <c r="I372" s="10"/>
     </row>
     <row r="373" ht="14.25" customHeight="1">
-      <c r="E373" s="37"/>
-      <c r="F373" s="37"/>
+      <c r="E373" s="39"/>
+      <c r="F373" s="39"/>
       <c r="G373" s="9"/>
       <c r="H373" s="9"/>
       <c r="I373" s="10"/>
     </row>
     <row r="374" ht="14.25" customHeight="1">
-      <c r="E374" s="37"/>
-      <c r="F374" s="37"/>
+      <c r="E374" s="39"/>
+      <c r="F374" s="39"/>
       <c r="G374" s="9"/>
       <c r="H374" s="9"/>
       <c r="I374" s="10"/>
     </row>
     <row r="375" ht="14.25" customHeight="1">
-      <c r="E375" s="37"/>
-      <c r="F375" s="37"/>
+      <c r="E375" s="39"/>
+      <c r="F375" s="39"/>
       <c r="G375" s="9"/>
       <c r="H375" s="9"/>
       <c r="I375" s="10"/>
     </row>
     <row r="376" ht="14.25" customHeight="1">
-      <c r="E376" s="37"/>
-      <c r="F376" s="37"/>
+      <c r="E376" s="39"/>
+      <c r="F376" s="39"/>
       <c r="G376" s="9"/>
       <c r="H376" s="9"/>
       <c r="I376" s="10"/>
     </row>
     <row r="377" ht="14.25" customHeight="1">
-      <c r="E377" s="37"/>
-      <c r="F377" s="37"/>
+      <c r="E377" s="39"/>
+      <c r="F377" s="39"/>
       <c r="G377" s="9"/>
       <c r="H377" s="9"/>
       <c r="I377" s="10"/>
     </row>
     <row r="378" ht="14.25" customHeight="1">
-      <c r="E378" s="37"/>
-      <c r="F378" s="37"/>
+      <c r="E378" s="39"/>
+      <c r="F378" s="39"/>
       <c r="G378" s="9"/>
       <c r="H378" s="9"/>
       <c r="I378" s="10"/>
     </row>
     <row r="379" ht="14.25" customHeight="1">
-      <c r="E379" s="37"/>
-      <c r="F379" s="37"/>
+      <c r="E379" s="39"/>
+      <c r="F379" s="39"/>
       <c r="G379" s="9"/>
       <c r="H379" s="9"/>
       <c r="I379" s="10"/>
     </row>
     <row r="380" ht="14.25" customHeight="1">
-      <c r="E380" s="37"/>
-      <c r="F380" s="37"/>
+      <c r="E380" s="39"/>
+      <c r="F380" s="39"/>
       <c r="G380" s="9"/>
       <c r="H380" s="9"/>
       <c r="I380" s="10"/>
     </row>
     <row r="381" ht="14.25" customHeight="1">
-      <c r="E381" s="37"/>
-      <c r="F381" s="37"/>
+      <c r="E381" s="39"/>
+      <c r="F381" s="39"/>
       <c r="G381" s="9"/>
       <c r="H381" s="9"/>
       <c r="I381" s="10"/>
     </row>
     <row r="382" ht="14.25" customHeight="1">
-      <c r="E382" s="37"/>
-      <c r="F382" s="37"/>
+      <c r="E382" s="39"/>
+      <c r="F382" s="39"/>
       <c r="G382" s="9"/>
       <c r="H382" s="9"/>
       <c r="I382" s="10"/>
     </row>
     <row r="383" ht="14.25" customHeight="1">
-      <c r="E383" s="37"/>
-      <c r="F383" s="37"/>
+      <c r="E383" s="39"/>
+      <c r="F383" s="39"/>
       <c r="G383" s="9"/>
       <c r="H383" s="9"/>
       <c r="I383" s="10"/>
     </row>
     <row r="384" ht="14.25" customHeight="1">
-      <c r="E384" s="37"/>
-      <c r="F384" s="37"/>
+      <c r="E384" s="39"/>
+      <c r="F384" s="39"/>
       <c r="G384" s="9"/>
       <c r="H384" s="9"/>
       <c r="I384" s="10"/>
     </row>
     <row r="385" ht="14.25" customHeight="1">
-      <c r="E385" s="37"/>
-      <c r="F385" s="37"/>
+      <c r="E385" s="39"/>
+      <c r="F385" s="39"/>
       <c r="G385" s="9"/>
       <c r="H385" s="9"/>
       <c r="I385" s="10"/>
     </row>
     <row r="386" ht="14.25" customHeight="1">
-      <c r="E386" s="37"/>
-      <c r="F386" s="37"/>
+      <c r="E386" s="39"/>
+      <c r="F386" s="39"/>
       <c r="G386" s="9"/>
       <c r="H386" s="9"/>
       <c r="I386" s="10"/>
     </row>
     <row r="387" ht="14.25" customHeight="1">
-      <c r="E387" s="37"/>
-      <c r="F387" s="37"/>
+      <c r="E387" s="39"/>
+      <c r="F387" s="39"/>
       <c r="G387" s="9"/>
       <c r="H387" s="9"/>
       <c r="I387" s="10"/>
     </row>
     <row r="388" ht="14.25" customHeight="1">
-      <c r="E388" s="37"/>
-      <c r="F388" s="37"/>
+      <c r="E388" s="39"/>
+      <c r="F388" s="39"/>
       <c r="G388" s="9"/>
       <c r="H388" s="9"/>
       <c r="I388" s="10"/>
     </row>
     <row r="389" ht="14.25" customHeight="1">
-      <c r="E389" s="37"/>
-      <c r="F389" s="37"/>
+      <c r="E389" s="39"/>
+      <c r="F389" s="39"/>
       <c r="G389" s="9"/>
       <c r="H389" s="9"/>
       <c r="I389" s="10"/>
     </row>
     <row r="390" ht="14.25" customHeight="1">
-      <c r="E390" s="37"/>
-      <c r="F390" s="37"/>
+      <c r="E390" s="39"/>
+      <c r="F390" s="39"/>
       <c r="G390" s="9"/>
       <c r="H390" s="9"/>
       <c r="I390" s="10"/>
     </row>
     <row r="391" ht="14.25" customHeight="1">
-      <c r="E391" s="37"/>
-      <c r="F391" s="37"/>
+      <c r="E391" s="39"/>
+      <c r="F391" s="39"/>
       <c r="G391" s="9"/>
       <c r="H391" s="9"/>
       <c r="I391" s="10"/>
     </row>
     <row r="392" ht="14.25" customHeight="1">
-      <c r="E392" s="37"/>
-      <c r="F392" s="37"/>
+      <c r="E392" s="39"/>
+      <c r="F392" s="39"/>
       <c r="G392" s="9"/>
       <c r="H392" s="9"/>
       <c r="I392" s="10"/>
     </row>
     <row r="393" ht="14.25" customHeight="1">
-      <c r="E393" s="37"/>
-      <c r="F393" s="37"/>
+      <c r="E393" s="39"/>
+      <c r="F393" s="39"/>
       <c r="G393" s="9"/>
       <c r="H393" s="9"/>
       <c r="I393" s="10"/>
     </row>
     <row r="394" ht="14.25" customHeight="1">
-      <c r="E394" s="37"/>
-      <c r="F394" s="37"/>
+      <c r="E394" s="39"/>
+      <c r="F394" s="39"/>
       <c r="G394" s="9"/>
       <c r="H394" s="9"/>
       <c r="I394" s="10"/>
     </row>
     <row r="395" ht="14.25" customHeight="1">
-      <c r="E395" s="37"/>
-      <c r="F395" s="37"/>
+      <c r="E395" s="39"/>
+      <c r="F395" s="39"/>
       <c r="G395" s="9"/>
       <c r="H395" s="9"/>
       <c r="I395" s="10"/>
     </row>
     <row r="396" ht="14.25" customHeight="1">
-      <c r="E396" s="37"/>
-      <c r="F396" s="37"/>
+      <c r="E396" s="39"/>
+      <c r="F396" s="39"/>
       <c r="G396" s="9"/>
       <c r="H396" s="9"/>
       <c r="I396" s="10"/>
     </row>
     <row r="397" ht="14.25" customHeight="1">
-      <c r="E397" s="37"/>
-      <c r="F397" s="37"/>
+      <c r="E397" s="39"/>
+      <c r="F397" s="39"/>
       <c r="G397" s="9"/>
       <c r="H397" s="9"/>
       <c r="I397" s="10"/>
     </row>
     <row r="398" ht="14.25" customHeight="1">
-      <c r="E398" s="37"/>
-      <c r="F398" s="37"/>
+      <c r="E398" s="39"/>
+      <c r="F398" s="39"/>
       <c r="G398" s="9"/>
       <c r="H398" s="9"/>
       <c r="I398" s="10"/>
     </row>
     <row r="399" ht="14.25" customHeight="1">
-      <c r="E399" s="37"/>
-      <c r="F399" s="37"/>
+      <c r="E399" s="39"/>
+      <c r="F399" s="39"/>
       <c r="G399" s="9"/>
       <c r="H399" s="9"/>
       <c r="I399" s="10"/>
     </row>
     <row r="400" ht="14.25" customHeight="1">
-      <c r="E400" s="37"/>
-      <c r="F400" s="37"/>
+      <c r="E400" s="39"/>
+      <c r="F400" s="39"/>
       <c r="G400" s="9"/>
       <c r="H400" s="9"/>
       <c r="I400" s="10"/>
     </row>
     <row r="401" ht="14.25" customHeight="1">
-      <c r="E401" s="37"/>
-      <c r="F401" s="37"/>
+      <c r="E401" s="39"/>
+      <c r="F401" s="39"/>
       <c r="G401" s="9"/>
       <c r="H401" s="9"/>
       <c r="I401" s="10"/>
     </row>
     <row r="402" ht="14.25" customHeight="1">
-      <c r="E402" s="37"/>
-      <c r="F402" s="37"/>
+      <c r="E402" s="39"/>
+      <c r="F402" s="39"/>
       <c r="G402" s="9"/>
       <c r="H402" s="9"/>
       <c r="I402" s="10"/>
     </row>
     <row r="403" ht="14.25" customHeight="1">
-      <c r="E403" s="37"/>
-      <c r="F403" s="37"/>
+      <c r="E403" s="39"/>
+      <c r="F403" s="39"/>
       <c r="G403" s="9"/>
       <c r="H403" s="9"/>
       <c r="I403" s="10"/>
     </row>
     <row r="404" ht="14.25" customHeight="1">
-      <c r="E404" s="37"/>
-      <c r="F404" s="37"/>
+      <c r="E404" s="39"/>
+      <c r="F404" s="39"/>
       <c r="G404" s="9"/>
       <c r="H404" s="9"/>
       <c r="I404" s="10"/>
     </row>
     <row r="405" ht="14.25" customHeight="1">
-      <c r="E405" s="37"/>
-      <c r="F405" s="37"/>
+      <c r="E405" s="39"/>
+      <c r="F405" s="39"/>
       <c r="G405" s="9"/>
       <c r="H405" s="9"/>
       <c r="I405" s="10"/>
     </row>
     <row r="406" ht="14.25" customHeight="1">
-      <c r="E406" s="37"/>
-      <c r="F406" s="37"/>
+      <c r="E406" s="39"/>
+      <c r="F406" s="39"/>
       <c r="G406" s="9"/>
       <c r="H406" s="9"/>
       <c r="I406" s="10"/>
     </row>
     <row r="407" ht="14.25" customHeight="1">
-      <c r="E407" s="37"/>
-      <c r="F407" s="37"/>
+      <c r="E407" s="39"/>
+      <c r="F407" s="39"/>
       <c r="G407" s="9"/>
       <c r="H407" s="9"/>
       <c r="I407" s="10"/>
     </row>
     <row r="408" ht="14.25" customHeight="1">
-      <c r="E408" s="37"/>
-      <c r="F408" s="37"/>
+      <c r="E408" s="39"/>
+      <c r="F408" s="39"/>
       <c r="G408" s="9"/>
       <c r="H408" s="9"/>
       <c r="I408" s="10"/>
     </row>
     <row r="409" ht="14.25" customHeight="1">
-      <c r="E409" s="37"/>
-      <c r="F409" s="37"/>
+      <c r="E409" s="39"/>
+      <c r="F409" s="39"/>
       <c r="G409" s="9"/>
       <c r="H409" s="9"/>
       <c r="I409" s="10"/>
     </row>
     <row r="410" ht="14.25" customHeight="1">
-      <c r="E410" s="37"/>
-      <c r="F410" s="37"/>
+      <c r="E410" s="39"/>
+      <c r="F410" s="39"/>
       <c r="G410" s="9"/>
       <c r="H410" s="9"/>
       <c r="I410" s="10"/>
     </row>
     <row r="411" ht="14.25" customHeight="1">
-      <c r="E411" s="37"/>
-      <c r="F411" s="37"/>
+      <c r="E411" s="39"/>
+      <c r="F411" s="39"/>
       <c r="G411" s="9"/>
       <c r="H411" s="9"/>
       <c r="I411" s="10"/>
     </row>
     <row r="412" ht="14.25" customHeight="1">
-      <c r="E412" s="37"/>
-      <c r="F412" s="37"/>
+      <c r="E412" s="39"/>
+      <c r="F412" s="39"/>
       <c r="G412" s="9"/>
       <c r="H412" s="9"/>
       <c r="I412" s="10"/>
     </row>
     <row r="413" ht="14.25" customHeight="1">
-      <c r="E413" s="37"/>
-      <c r="F413" s="37"/>
+      <c r="E413" s="39"/>
+      <c r="F413" s="39"/>
       <c r="G413" s="9"/>
       <c r="H413" s="9"/>
       <c r="I413" s="10"/>
     </row>
     <row r="414" ht="14.25" customHeight="1">
-      <c r="E414" s="37"/>
-      <c r="F414" s="37"/>
+      <c r="E414" s="39"/>
+      <c r="F414" s="39"/>
       <c r="G414" s="9"/>
       <c r="H414" s="9"/>
       <c r="I414" s="10"/>
     </row>
     <row r="415" ht="14.25" customHeight="1">
-      <c r="E415" s="37"/>
-      <c r="F415" s="37"/>
+      <c r="E415" s="39"/>
+      <c r="F415" s="39"/>
       <c r="G415" s="9"/>
       <c r="H415" s="9"/>
       <c r="I415" s="10"/>
     </row>
     <row r="416" ht="14.25" customHeight="1">
-      <c r="E416" s="37"/>
-      <c r="F416" s="37"/>
+      <c r="E416" s="39"/>
+      <c r="F416" s="39"/>
       <c r="G416" s="9"/>
       <c r="H416" s="9"/>
       <c r="I416" s="10"/>
     </row>
     <row r="417" ht="14.25" customHeight="1">
-      <c r="E417" s="37"/>
-      <c r="F417" s="37"/>
+      <c r="E417" s="39"/>
+      <c r="F417" s="39"/>
       <c r="G417" s="9"/>
       <c r="H417" s="9"/>
       <c r="I417" s="10"/>
     </row>
     <row r="418" ht="14.25" customHeight="1">
-      <c r="E418" s="37"/>
-      <c r="F418" s="37"/>
+      <c r="E418" s="39"/>
+      <c r="F418" s="39"/>
       <c r="G418" s="9"/>
       <c r="H418" s="9"/>
       <c r="I418" s="10"/>
     </row>
     <row r="419" ht="14.25" customHeight="1">
-      <c r="E419" s="37"/>
-      <c r="F419" s="37"/>
+      <c r="E419" s="39"/>
+      <c r="F419" s="39"/>
       <c r="G419" s="9"/>
       <c r="H419" s="9"/>
       <c r="I419" s="10"/>
     </row>
     <row r="420" ht="14.25" customHeight="1">
-      <c r="E420" s="37"/>
-      <c r="F420" s="37"/>
+      <c r="E420" s="39"/>
+      <c r="F420" s="39"/>
       <c r="G420" s="9"/>
       <c r="H420" s="9"/>
       <c r="I420" s="10"/>
     </row>
     <row r="421" ht="14.25" customHeight="1">
-      <c r="E421" s="37"/>
-      <c r="F421" s="37"/>
+      <c r="E421" s="39"/>
+      <c r="F421" s="39"/>
       <c r="G421" s="9"/>
       <c r="H421" s="9"/>
       <c r="I421" s="10"/>
     </row>
     <row r="422" ht="14.25" customHeight="1">
-      <c r="E422" s="37"/>
-      <c r="F422" s="37"/>
+      <c r="E422" s="39"/>
+      <c r="F422" s="39"/>
       <c r="G422" s="9"/>
       <c r="H422" s="9"/>
       <c r="I422" s="10"/>
     </row>
     <row r="423" ht="14.25" customHeight="1">
-      <c r="E423" s="37"/>
-      <c r="F423" s="37"/>
+      <c r="E423" s="39"/>
+      <c r="F423" s="39"/>
       <c r="G423" s="9"/>
       <c r="H423" s="9"/>
       <c r="I423" s="10"/>
     </row>
     <row r="424" ht="14.25" customHeight="1">
-      <c r="E424" s="37"/>
-      <c r="F424" s="37"/>
+      <c r="E424" s="39"/>
+      <c r="F424" s="39"/>
       <c r="G424" s="9"/>
       <c r="H424" s="9"/>
       <c r="I424" s="10"/>
     </row>
     <row r="425" ht="14.25" customHeight="1">
-      <c r="E425" s="37"/>
-      <c r="F425" s="37"/>
+      <c r="E425" s="39"/>
+      <c r="F425" s="39"/>
       <c r="G425" s="9"/>
       <c r="H425" s="9"/>
       <c r="I425" s="10"/>
     </row>
     <row r="426" ht="14.25" customHeight="1">
-      <c r="E426" s="37"/>
-      <c r="F426" s="37"/>
+      <c r="E426" s="39"/>
+      <c r="F426" s="39"/>
       <c r="G426" s="9"/>
       <c r="H426" s="9"/>
       <c r="I426" s="10"/>
     </row>
     <row r="427" ht="14.25" customHeight="1">
-      <c r="E427" s="37"/>
-      <c r="F427" s="37"/>
+      <c r="E427" s="39"/>
+      <c r="F427" s="39"/>
       <c r="G427" s="9"/>
       <c r="H427" s="9"/>
       <c r="I427" s="10"/>
     </row>
     <row r="428" ht="14.25" customHeight="1">
-      <c r="E428" s="37"/>
-      <c r="F428" s="37"/>
+      <c r="E428" s="39"/>
+      <c r="F428" s="39"/>
       <c r="G428" s="9"/>
       <c r="H428" s="9"/>
       <c r="I428" s="10"/>
     </row>
     <row r="429" ht="14.25" customHeight="1">
-      <c r="E429" s="37"/>
-      <c r="F429" s="37"/>
+      <c r="E429" s="39"/>
+      <c r="F429" s="39"/>
       <c r="G429" s="9"/>
       <c r="H429" s="9"/>
       <c r="I429" s="10"/>
     </row>
     <row r="430" ht="14.25" customHeight="1">
-      <c r="E430" s="37"/>
-      <c r="F430" s="37"/>
+      <c r="E430" s="39"/>
+      <c r="F430" s="39"/>
       <c r="G430" s="9"/>
       <c r="H430" s="9"/>
       <c r="I430" s="10"/>
     </row>
     <row r="431" ht="14.25" customHeight="1">
-      <c r="E431" s="37"/>
-      <c r="F431" s="37"/>
+      <c r="E431" s="39"/>
+      <c r="F431" s="39"/>
       <c r="G431" s="9"/>
       <c r="H431" s="9"/>
       <c r="I431" s="10"/>
     </row>
     <row r="432" ht="14.25" customHeight="1">
-      <c r="E432" s="37"/>
-      <c r="F432" s="37"/>
+      <c r="E432" s="39"/>
+      <c r="F432" s="39"/>
       <c r="G432" s="9"/>
       <c r="H432" s="9"/>
       <c r="I432" s="10"/>
     </row>
     <row r="433" ht="14.25" customHeight="1">
-      <c r="E433" s="37"/>
-      <c r="F433" s="37"/>
+      <c r="E433" s="39"/>
+      <c r="F433" s="39"/>
       <c r="G433" s="9"/>
       <c r="H433" s="9"/>
       <c r="I433" s="10"/>
     </row>
     <row r="434" ht="14.25" customHeight="1">
-      <c r="E434" s="37"/>
-      <c r="F434" s="37"/>
+      <c r="E434" s="39"/>
+      <c r="F434" s="39"/>
       <c r="G434" s="9"/>
       <c r="H434" s="9"/>
       <c r="I434" s="10"/>
     </row>
     <row r="435" ht="14.25" customHeight="1">
-      <c r="E435" s="37"/>
-      <c r="F435" s="37"/>
+      <c r="E435" s="39"/>
+      <c r="F435" s="39"/>
       <c r="G435" s="9"/>
       <c r="H435" s="9"/>
       <c r="I435" s="10"/>
     </row>
     <row r="436" ht="14.25" customHeight="1">
-      <c r="E436" s="37"/>
-      <c r="F436" s="37"/>
+      <c r="E436" s="39"/>
+      <c r="F436" s="39"/>
       <c r="G436" s="9"/>
       <c r="H436" s="9"/>
       <c r="I436" s="10"/>
     </row>
     <row r="437" ht="14.25" customHeight="1">
-      <c r="E437" s="37"/>
-      <c r="F437" s="37"/>
+      <c r="E437" s="39"/>
+      <c r="F437" s="39"/>
       <c r="G437" s="9"/>
       <c r="H437" s="9"/>
       <c r="I437" s="10"/>
     </row>
     <row r="438" ht="14.25" customHeight="1">
-      <c r="E438" s="37"/>
-      <c r="F438" s="37"/>
+      <c r="E438" s="39"/>
+      <c r="F438" s="39"/>
       <c r="G438" s="9"/>
       <c r="H438" s="9"/>
       <c r="I438" s="10"/>
     </row>
     <row r="439" ht="14.25" customHeight="1">
-      <c r="E439" s="37"/>
-      <c r="F439" s="37"/>
+      <c r="E439" s="39"/>
+      <c r="F439" s="39"/>
       <c r="G439" s="9"/>
       <c r="H439" s="9"/>
       <c r="I439" s="10"/>
     </row>
     <row r="440" ht="14.25" customHeight="1">
-      <c r="E440" s="37"/>
-      <c r="F440" s="37"/>
+      <c r="E440" s="39"/>
+      <c r="F440" s="39"/>
       <c r="G440" s="9"/>
       <c r="H440" s="9"/>
       <c r="I440" s="10"/>
     </row>
     <row r="441" ht="14.25" customHeight="1">
-      <c r="E441" s="37"/>
-      <c r="F441" s="37"/>
+      <c r="E441" s="39"/>
+      <c r="F441" s="39"/>
       <c r="G441" s="9"/>
       <c r="H441" s="9"/>
       <c r="I441" s="10"/>
     </row>
     <row r="442" ht="14.25" customHeight="1">
-      <c r="E442" s="37"/>
-      <c r="F442" s="37"/>
+      <c r="E442" s="39"/>
+      <c r="F442" s="39"/>
       <c r="G442" s="9"/>
       <c r="H442" s="9"/>
       <c r="I442" s="10"/>
     </row>
     <row r="443" ht="14.25" customHeight="1">
-      <c r="E443" s="37"/>
-      <c r="F443" s="37"/>
+      <c r="E443" s="39"/>
+      <c r="F443" s="39"/>
       <c r="G443" s="9"/>
       <c r="H443" s="9"/>
       <c r="I443" s="10"/>
     </row>
     <row r="444" ht="14.25" customHeight="1">
-      <c r="E444" s="37"/>
-      <c r="F444" s="37"/>
+      <c r="E444" s="39"/>
+      <c r="F444" s="39"/>
       <c r="G444" s="9"/>
       <c r="H444" s="9"/>
       <c r="I444" s="10"/>
     </row>
     <row r="445" ht="14.25" customHeight="1">
-      <c r="E445" s="37"/>
-      <c r="F445" s="37"/>
+      <c r="E445" s="39"/>
+      <c r="F445" s="39"/>
       <c r="G445" s="9"/>
       <c r="H445" s="9"/>
       <c r="I445" s="10"/>
     </row>
     <row r="446" ht="14.25" customHeight="1">
-      <c r="E446" s="37"/>
-      <c r="F446" s="37"/>
+      <c r="E446" s="39"/>
+      <c r="F446" s="39"/>
       <c r="G446" s="9"/>
       <c r="H446" s="9"/>
       <c r="I446" s="10"/>
     </row>
     <row r="447" ht="14.25" customHeight="1">
-      <c r="E447" s="37"/>
-      <c r="F447" s="37"/>
+      <c r="E447" s="39"/>
+      <c r="F447" s="39"/>
       <c r="G447" s="9"/>
       <c r="H447" s="9"/>
       <c r="I447" s="10"/>
     </row>
     <row r="448" ht="14.25" customHeight="1">
-      <c r="E448" s="37"/>
-      <c r="F448" s="37"/>
+      <c r="E448" s="39"/>
+      <c r="F448" s="39"/>
       <c r="G448" s="9"/>
       <c r="H448" s="9"/>
       <c r="I448" s="10"/>
     </row>
     <row r="449" ht="14.25" customHeight="1">
-      <c r="E449" s="37"/>
-      <c r="F449" s="37"/>
+      <c r="E449" s="39"/>
+      <c r="F449" s="39"/>
       <c r="G449" s="9"/>
       <c r="H449" s="9"/>
       <c r="I449" s="10"/>
     </row>
     <row r="450" ht="14.25" customHeight="1">
-      <c r="E450" s="37"/>
-      <c r="F450" s="37"/>
+      <c r="E450" s="39"/>
+      <c r="F450" s="39"/>
       <c r="G450" s="9"/>
       <c r="H450" s="9"/>
       <c r="I450" s="10"/>
     </row>
     <row r="451" ht="14.25" customHeight="1">
-      <c r="E451" s="37"/>
-      <c r="F451" s="37"/>
+      <c r="E451" s="39"/>
+      <c r="F451" s="39"/>
       <c r="G451" s="9"/>
       <c r="H451" s="9"/>
       <c r="I451" s="10"/>
     </row>
     <row r="452" ht="14.25" customHeight="1">
-      <c r="E452" s="37"/>
-      <c r="F452" s="37"/>
+      <c r="E452" s="39"/>
+      <c r="F452" s="39"/>
       <c r="G452" s="9"/>
       <c r="H452" s="9"/>
       <c r="I452" s="10"/>
     </row>
     <row r="453" ht="14.25" customHeight="1">
-      <c r="E453" s="37"/>
-      <c r="F453" s="37"/>
+      <c r="E453" s="39"/>
+      <c r="F453" s="39"/>
       <c r="G453" s="9"/>
       <c r="H453" s="9"/>
       <c r="I453" s="10"/>
     </row>
     <row r="454" ht="14.25" customHeight="1">
-      <c r="E454" s="37"/>
-      <c r="F454" s="37"/>
+      <c r="E454" s="39"/>
+      <c r="F454" s="39"/>
       <c r="G454" s="9"/>
       <c r="H454" s="9"/>
       <c r="I454" s="10"/>
     </row>
     <row r="455" ht="14.25" customHeight="1">
-      <c r="E455" s="37"/>
-      <c r="F455" s="37"/>
+      <c r="E455" s="39"/>
+      <c r="F455" s="39"/>
       <c r="G455" s="9"/>
       <c r="H455" s="9"/>
       <c r="I455" s="10"/>
     </row>
     <row r="456" ht="14.25" customHeight="1">
-      <c r="E456" s="37"/>
-      <c r="F456" s="37"/>
+      <c r="E456" s="39"/>
+      <c r="F456" s="39"/>
       <c r="G456" s="9"/>
       <c r="H456" s="9"/>
       <c r="I456" s="10"/>
     </row>
     <row r="457" ht="14.25" customHeight="1">
-      <c r="E457" s="37"/>
-      <c r="F457" s="37"/>
+      <c r="E457" s="39"/>
+      <c r="F457" s="39"/>
       <c r="G457" s="9"/>
       <c r="H457" s="9"/>
       <c r="I457" s="10"/>
     </row>
     <row r="458" ht="14.25" customHeight="1">
-      <c r="E458" s="37"/>
-      <c r="F458" s="37"/>
+      <c r="E458" s="39"/>
+      <c r="F458" s="39"/>
       <c r="G458" s="9"/>
       <c r="H458" s="9"/>
       <c r="I458" s="10"/>
     </row>
     <row r="459" ht="14.25" customHeight="1">
-      <c r="E459" s="37"/>
-      <c r="F459" s="37"/>
+      <c r="E459" s="39"/>
+      <c r="F459" s="39"/>
       <c r="G459" s="9"/>
       <c r="H459" s="9"/>
       <c r="I459" s="10"/>
     </row>
     <row r="460" ht="14.25" customHeight="1">
-      <c r="E460" s="37"/>
-      <c r="F460" s="37"/>
+      <c r="E460" s="39"/>
+      <c r="F460" s="39"/>
       <c r="G460" s="9"/>
       <c r="H460" s="9"/>
       <c r="I460" s="10"/>
     </row>
     <row r="461" ht="14.25" customHeight="1">
-      <c r="E461" s="37"/>
-      <c r="F461" s="37"/>
+      <c r="E461" s="39"/>
+      <c r="F461" s="39"/>
       <c r="G461" s="9"/>
       <c r="H461" s="9"/>
       <c r="I461" s="10"/>
     </row>
     <row r="462" ht="14.25" customHeight="1">
-      <c r="E462" s="37"/>
-      <c r="F462" s="37"/>
+      <c r="E462" s="39"/>
+      <c r="F462" s="39"/>
       <c r="G462" s="9"/>
       <c r="H462" s="9"/>
       <c r="I462" s="10"/>
     </row>
     <row r="463" ht="14.25" customHeight="1">
-      <c r="E463" s="37"/>
-      <c r="F463" s="37"/>
+      <c r="E463" s="39"/>
+      <c r="F463" s="39"/>
       <c r="G463" s="9"/>
       <c r="H463" s="9"/>
       <c r="I463" s="10"/>
     </row>
     <row r="464" ht="14.25" customHeight="1">
-      <c r="E464" s="37"/>
-      <c r="F464" s="37"/>
+      <c r="E464" s="39"/>
+      <c r="F464" s="39"/>
       <c r="G464" s="9"/>
       <c r="H464" s="9"/>
       <c r="I464" s="10"/>
     </row>
     <row r="465" ht="14.25" customHeight="1">
-      <c r="E465" s="37"/>
-      <c r="F465" s="37"/>
+      <c r="E465" s="39"/>
+      <c r="F465" s="39"/>
       <c r="G465" s="9"/>
       <c r="H465" s="9"/>
       <c r="I465" s="10"/>
     </row>
     <row r="466" ht="14.25" customHeight="1">
-      <c r="E466" s="37"/>
-      <c r="F466" s="37"/>
+      <c r="E466" s="39"/>
+      <c r="F466" s="39"/>
       <c r="G466" s="9"/>
       <c r="H466" s="9"/>
       <c r="I466" s="10"/>
     </row>
     <row r="467" ht="14.25" customHeight="1">
-      <c r="E467" s="37"/>
-      <c r="F467" s="37"/>
+      <c r="E467" s="39"/>
+      <c r="F467" s="39"/>
       <c r="G467" s="9"/>
       <c r="H467" s="9"/>
       <c r="I467" s="10"/>
     </row>
     <row r="468" ht="14.25" customHeight="1">
-      <c r="E468" s="37"/>
-      <c r="F468" s="37"/>
+      <c r="E468" s="39"/>
+      <c r="F468" s="39"/>
       <c r="G468" s="9"/>
       <c r="H468" s="9"/>
       <c r="I468" s="10"/>
     </row>
     <row r="469" ht="14.25" customHeight="1">
-      <c r="E469" s="37"/>
-      <c r="F469" s="37"/>
+      <c r="E469" s="39"/>
+      <c r="F469" s="39"/>
       <c r="G469" s="9"/>
       <c r="H469" s="9"/>
       <c r="I469" s="10"/>
     </row>
     <row r="470" ht="14.25" customHeight="1">
-      <c r="E470" s="37"/>
-      <c r="F470" s="37"/>
+      <c r="E470" s="39"/>
+      <c r="F470" s="39"/>
       <c r="G470" s="9"/>
       <c r="H470" s="9"/>
       <c r="I470" s="10"/>
     </row>
     <row r="471" ht="14.25" customHeight="1">
-      <c r="E471" s="37"/>
-      <c r="F471" s="37"/>
+      <c r="E471" s="39"/>
+      <c r="F471" s="39"/>
       <c r="G471" s="9"/>
       <c r="H471" s="9"/>
       <c r="I471" s="10"/>
     </row>
     <row r="472" ht="14.25" customHeight="1">
-      <c r="E472" s="37"/>
-      <c r="F472" s="37"/>
+      <c r="E472" s="39"/>
+      <c r="F472" s="39"/>
       <c r="G472" s="9"/>
       <c r="H472" s="9"/>
       <c r="I472" s="10"/>
     </row>
     <row r="473" ht="14.25" customHeight="1">
-      <c r="E473" s="37"/>
-      <c r="F473" s="37"/>
+      <c r="E473" s="39"/>
+      <c r="F473" s="39"/>
       <c r="G473" s="9"/>
       <c r="H473" s="9"/>
       <c r="I473" s="10"/>
     </row>
     <row r="474" ht="14.25" customHeight="1">
-      <c r="E474" s="37"/>
-      <c r="F474" s="37"/>
+      <c r="E474" s="39"/>
+      <c r="F474" s="39"/>
       <c r="G474" s="9"/>
       <c r="H474" s="9"/>
       <c r="I474" s="10"/>
     </row>
     <row r="475" ht="14.25" customHeight="1">
-      <c r="E475" s="37"/>
-      <c r="F475" s="37"/>
+      <c r="E475" s="39"/>
+      <c r="F475" s="39"/>
       <c r="G475" s="9"/>
       <c r="H475" s="9"/>
       <c r="I475" s="10"/>
     </row>
     <row r="476" ht="14.25" customHeight="1">
-      <c r="E476" s="37"/>
-      <c r="F476" s="37"/>
+      <c r="E476" s="39"/>
+      <c r="F476" s="39"/>
       <c r="G476" s="9"/>
       <c r="H476" s="9"/>
       <c r="I476" s="10"/>
     </row>
     <row r="477" ht="14.25" customHeight="1">
-      <c r="E477" s="37"/>
-      <c r="F477" s="37"/>
+      <c r="E477" s="39"/>
+      <c r="F477" s="39"/>
       <c r="G477" s="9"/>
       <c r="H477" s="9"/>
       <c r="I477" s="10"/>
     </row>
     <row r="478" ht="14.25" customHeight="1">
-      <c r="E478" s="37"/>
-      <c r="F478" s="37"/>
+      <c r="E478" s="39"/>
+      <c r="F478" s="39"/>
       <c r="G478" s="9"/>
       <c r="H478" s="9"/>
       <c r="I478" s="10"/>
     </row>
     <row r="479" ht="14.25" customHeight="1">
-      <c r="E479" s="37"/>
-      <c r="F479" s="37"/>
+      <c r="E479" s="39"/>
+      <c r="F479" s="39"/>
       <c r="G479" s="9"/>
       <c r="H479" s="9"/>
       <c r="I479" s="10"/>
     </row>
     <row r="480" ht="14.25" customHeight="1">
-      <c r="E480" s="37"/>
-      <c r="F480" s="37"/>
+      <c r="E480" s="39"/>
+      <c r="F480" s="39"/>
       <c r="G480" s="9"/>
       <c r="H480" s="9"/>
       <c r="I480" s="10"/>
     </row>
     <row r="481" ht="14.25" customHeight="1">
-      <c r="E481" s="37"/>
-      <c r="F481" s="37"/>
+      <c r="E481" s="39"/>
+      <c r="F481" s="39"/>
       <c r="G481" s="9"/>
       <c r="H481" s="9"/>
       <c r="I481" s="10"/>
     </row>
     <row r="482" ht="14.25" customHeight="1">
-      <c r="E482" s="37"/>
-      <c r="F482" s="37"/>
+      <c r="E482" s="39"/>
+      <c r="F482" s="39"/>
       <c r="G482" s="9"/>
       <c r="H482" s="9"/>
       <c r="I482" s="10"/>
     </row>
     <row r="483" ht="14.25" customHeight="1">
-      <c r="E483" s="37"/>
-      <c r="F483" s="37"/>
+      <c r="E483" s="39"/>
+      <c r="F483" s="39"/>
       <c r="G483" s="9"/>
       <c r="H483" s="9"/>
       <c r="I483" s="10"/>
     </row>
     <row r="484" ht="14.25" customHeight="1">
-      <c r="E484" s="37"/>
-      <c r="F484" s="37"/>
+      <c r="E484" s="39"/>
+      <c r="F484" s="39"/>
       <c r="G484" s="9"/>
       <c r="H484" s="9"/>
       <c r="I484" s="10"/>
     </row>
     <row r="485" ht="14.25" customHeight="1">
-      <c r="E485" s="37"/>
-      <c r="F485" s="37"/>
+      <c r="E485" s="39"/>
+      <c r="F485" s="39"/>
       <c r="G485" s="9"/>
       <c r="H485" s="9"/>
       <c r="I485" s="10"/>
     </row>
     <row r="486" ht="14.25" customHeight="1">
-      <c r="E486" s="37"/>
-      <c r="F486" s="37"/>
+      <c r="E486" s="39"/>
+      <c r="F486" s="39"/>
       <c r="G486" s="9"/>
       <c r="H486" s="9"/>
       <c r="I486" s="10"/>
     </row>
     <row r="487" ht="14.25" customHeight="1">
-      <c r="E487" s="37"/>
-      <c r="F487" s="37"/>
+      <c r="E487" s="39"/>
+      <c r="F487" s="39"/>
       <c r="G487" s="9"/>
       <c r="H487" s="9"/>
       <c r="I487" s="10"/>
     </row>
     <row r="488" ht="14.25" customHeight="1">
-      <c r="E488" s="37"/>
-      <c r="F488" s="37"/>
+      <c r="E488" s="39"/>
+      <c r="F488" s="39"/>
       <c r="G488" s="9"/>
       <c r="H488" s="9"/>
       <c r="I488" s="10"/>
     </row>
     <row r="489" ht="14.25" customHeight="1">
-      <c r="E489" s="37"/>
-      <c r="F489" s="37"/>
+      <c r="E489" s="39"/>
+      <c r="F489" s="39"/>
       <c r="G489" s="9"/>
       <c r="H489" s="9"/>
       <c r="I489" s="10"/>
     </row>
     <row r="490" ht="14.25" customHeight="1">
-      <c r="E490" s="37"/>
-      <c r="F490" s="37"/>
+      <c r="E490" s="39"/>
+      <c r="F490" s="39"/>
       <c r="G490" s="9"/>
       <c r="H490" s="9"/>
       <c r="I490" s="10"/>
     </row>
     <row r="491" ht="14.25" customHeight="1">
-      <c r="E491" s="37"/>
-      <c r="F491" s="37"/>
+      <c r="E491" s="39"/>
+      <c r="F491" s="39"/>
       <c r="G491" s="9"/>
       <c r="H491" s="9"/>
       <c r="I491" s="10"/>
     </row>
     <row r="492" ht="14.25" customHeight="1">
-      <c r="E492" s="37"/>
-      <c r="F492" s="37"/>
+      <c r="E492" s="39"/>
+      <c r="F492" s="39"/>
       <c r="G492" s="9"/>
       <c r="H492" s="9"/>
       <c r="I492" s="10"/>
     </row>
     <row r="493" ht="14.25" customHeight="1">
-      <c r="E493" s="37"/>
-      <c r="F493" s="37"/>
+      <c r="E493" s="39"/>
+      <c r="F493" s="39"/>
       <c r="G493" s="9"/>
       <c r="H493" s="9"/>
       <c r="I493" s="10"/>
     </row>
     <row r="494" ht="14.25" customHeight="1">
-      <c r="E494" s="37"/>
-      <c r="F494" s="37"/>
+      <c r="E494" s="39"/>
+      <c r="F494" s="39"/>
       <c r="G494" s="9"/>
       <c r="H494" s="9"/>
       <c r="I494" s="10"/>
     </row>
     <row r="495" ht="14.25" customHeight="1">
-      <c r="E495" s="37"/>
-      <c r="F495" s="37"/>
+      <c r="E495" s="39"/>
+      <c r="F495" s="39"/>
       <c r="G495" s="9"/>
       <c r="H495" s="9"/>
       <c r="I495" s="10"/>
     </row>
     <row r="496" ht="14.25" customHeight="1">
-      <c r="E496" s="37"/>
-      <c r="F496" s="37"/>
+      <c r="E496" s="39"/>
+      <c r="F496" s="39"/>
       <c r="G496" s="9"/>
       <c r="H496" s="9"/>
       <c r="I496" s="10"/>
     </row>
     <row r="497" ht="14.25" customHeight="1">
-      <c r="E497" s="37"/>
-      <c r="F497" s="37"/>
+      <c r="E497" s="39"/>
+      <c r="F497" s="39"/>
       <c r="G497" s="9"/>
       <c r="H497" s="9"/>
       <c r="I497" s="10"/>
     </row>
     <row r="498" ht="14.25" customHeight="1">
-      <c r="E498" s="37"/>
-      <c r="F498" s="37"/>
+      <c r="E498" s="39"/>
+      <c r="F498" s="39"/>
       <c r="G498" s="9"/>
       <c r="H498" s="9"/>
       <c r="I498" s="10"/>
     </row>
     <row r="499" ht="14.25" customHeight="1">
-      <c r="E499" s="37"/>
-      <c r="F499" s="37"/>
+      <c r="E499" s="39"/>
+      <c r="F499" s="39"/>
       <c r="G499" s="9"/>
       <c r="H499" s="9"/>
       <c r="I499" s="10"/>
     </row>
     <row r="500" ht="14.25" customHeight="1">
-      <c r="E500" s="37"/>
-      <c r="F500" s="37"/>
+      <c r="E500" s="39"/>
+      <c r="F500" s="39"/>
       <c r="G500" s="9"/>
       <c r="H500" s="9"/>
       <c r="I500" s="10"/>
     </row>
     <row r="501" ht="14.25" customHeight="1">
-      <c r="E501" s="37"/>
-      <c r="F501" s="37"/>
+      <c r="E501" s="39"/>
+      <c r="F501" s="39"/>
       <c r="G501" s="9"/>
       <c r="H501" s="9"/>
       <c r="I501" s="10"/>
     </row>
     <row r="502" ht="14.25" customHeight="1">
-      <c r="E502" s="37"/>
-      <c r="F502" s="37"/>
+      <c r="E502" s="39"/>
+      <c r="F502" s="39"/>
       <c r="G502" s="9"/>
       <c r="H502" s="9"/>
       <c r="I502" s="10"/>
     </row>
     <row r="503" ht="14.25" customHeight="1">
-      <c r="E503" s="37"/>
-      <c r="F503" s="37"/>
+      <c r="E503" s="39"/>
+      <c r="F503" s="39"/>
       <c r="G503" s="9"/>
       <c r="H503" s="9"/>
       <c r="I503" s="10"/>
     </row>
     <row r="504" ht="14.25" customHeight="1">
-      <c r="E504" s="37"/>
-      <c r="F504" s="37"/>
+      <c r="E504" s="39"/>
+      <c r="F504" s="39"/>
       <c r="G504" s="9"/>
       <c r="H504" s="9"/>
       <c r="I504" s="10"/>
     </row>
     <row r="505" ht="14.25" customHeight="1">
-      <c r="E505" s="37"/>
-      <c r="F505" s="37"/>
+      <c r="E505" s="39"/>
+      <c r="F505" s="39"/>
       <c r="G505" s="9"/>
       <c r="H505" s="9"/>
       <c r="I505" s="10"/>
     </row>
     <row r="506" ht="14.25" customHeight="1">
-      <c r="E506" s="37"/>
-      <c r="F506" s="37"/>
+      <c r="E506" s="39"/>
+      <c r="F506" s="39"/>
       <c r="G506" s="9"/>
       <c r="H506" s="9"/>
       <c r="I506" s="10"/>
     </row>
     <row r="507" ht="14.25" customHeight="1">
-      <c r="E507" s="37"/>
-      <c r="F507" s="37"/>
+      <c r="E507" s="39"/>
+      <c r="F507" s="39"/>
       <c r="G507" s="9"/>
       <c r="H507" s="9"/>
       <c r="I507" s="10"/>
     </row>
     <row r="508" ht="14.25" customHeight="1">
-      <c r="E508" s="37"/>
-      <c r="F508" s="37"/>
+      <c r="E508" s="39"/>
+      <c r="F508" s="39"/>
       <c r="G508" s="9"/>
       <c r="H508" s="9"/>
       <c r="I508" s="10"/>
     </row>
     <row r="509" ht="14.25" customHeight="1">
-      <c r="E509" s="37"/>
-      <c r="F509" s="37"/>
+      <c r="E509" s="39"/>
+      <c r="F509" s="39"/>
       <c r="G509" s="9"/>
       <c r="H509" s="9"/>
       <c r="I509" s="10"/>
     </row>
     <row r="510" ht="14.25" customHeight="1">
-      <c r="E510" s="37"/>
-      <c r="F510" s="37"/>
+      <c r="E510" s="39"/>
+      <c r="F510" s="39"/>
       <c r="G510" s="9"/>
       <c r="H510" s="9"/>
       <c r="I510" s="10"/>
     </row>
     <row r="511" ht="14.25" customHeight="1">
-      <c r="E511" s="37"/>
-      <c r="F511" s="37"/>
+      <c r="E511" s="39"/>
+      <c r="F511" s="39"/>
       <c r="G511" s="9"/>
       <c r="H511" s="9"/>
       <c r="I511" s="10"/>
     </row>
     <row r="512" ht="14.25" customHeight="1">
-      <c r="E512" s="37"/>
-      <c r="F512" s="37"/>
+      <c r="E512" s="39"/>
+      <c r="F512" s="39"/>
       <c r="G512" s="9"/>
       <c r="H512" s="9"/>
       <c r="I512" s="10"/>
     </row>
     <row r="513" ht="14.25" customHeight="1">
-      <c r="E513" s="37"/>
-      <c r="F513" s="37"/>
+      <c r="E513" s="39"/>
+      <c r="F513" s="39"/>
       <c r="G513" s="9"/>
       <c r="H513" s="9"/>
       <c r="I513" s="10"/>
     </row>
     <row r="514" ht="14.25" customHeight="1">
-      <c r="E514" s="37"/>
-      <c r="F514" s="37"/>
+      <c r="E514" s="39"/>
+      <c r="F514" s="39"/>
       <c r="G514" s="9"/>
       <c r="H514" s="9"/>
       <c r="I514" s="10"/>
     </row>
     <row r="515" ht="14.25" customHeight="1">
-      <c r="E515" s="37"/>
-      <c r="F515" s="37"/>
+      <c r="E515" s="39"/>
+      <c r="F515" s="39"/>
       <c r="G515" s="9"/>
       <c r="H515" s="9"/>
       <c r="I515" s="10"/>
     </row>
     <row r="516" ht="14.25" customHeight="1">
-      <c r="E516" s="37"/>
-      <c r="F516" s="37"/>
+      <c r="E516" s="39"/>
+      <c r="F516" s="39"/>
       <c r="G516" s="9"/>
       <c r="H516" s="9"/>
       <c r="I516" s="10"/>
     </row>
     <row r="517" ht="14.25" customHeight="1">
-      <c r="E517" s="37"/>
-      <c r="F517" s="37"/>
+      <c r="E517" s="39"/>
+      <c r="F517" s="39"/>
       <c r="G517" s="9"/>
       <c r="H517" s="9"/>
       <c r="I517" s="10"/>
     </row>
     <row r="518" ht="14.25" customHeight="1">
-      <c r="E518" s="37"/>
-      <c r="F518" s="37"/>
+      <c r="E518" s="39"/>
+      <c r="F518" s="39"/>
       <c r="G518" s="9"/>
       <c r="H518" s="9"/>
       <c r="I518" s="10"/>
     </row>
     <row r="519" ht="14.25" customHeight="1">
-      <c r="E519" s="37"/>
-      <c r="F519" s="37"/>
+      <c r="E519" s="39"/>
+      <c r="F519" s="39"/>
       <c r="G519" s="9"/>
       <c r="H519" s="9"/>
       <c r="I519" s="10"/>
     </row>
     <row r="520" ht="14.25" customHeight="1">
-      <c r="E520" s="37"/>
-      <c r="F520" s="37"/>
+      <c r="E520" s="39"/>
+      <c r="F520" s="39"/>
       <c r="G520" s="9"/>
       <c r="H520" s="9"/>
       <c r="I520" s="10"/>
     </row>
     <row r="521" ht="14.25" customHeight="1">
-      <c r="E521" s="37"/>
-      <c r="F521" s="37"/>
+      <c r="E521" s="39"/>
+      <c r="F521" s="39"/>
       <c r="G521" s="9"/>
       <c r="H521" s="9"/>
       <c r="I521" s="10"/>
     </row>
     <row r="522" ht="14.25" customHeight="1">
-      <c r="E522" s="37"/>
-      <c r="F522" s="37"/>
+      <c r="E522" s="39"/>
+      <c r="F522" s="39"/>
       <c r="G522" s="9"/>
       <c r="H522" s="9"/>
       <c r="I522" s="10"/>
     </row>
     <row r="523" ht="14.25" customHeight="1">
-      <c r="E523" s="37"/>
-      <c r="F523" s="37"/>
+      <c r="E523" s="39"/>
+      <c r="F523" s="39"/>
       <c r="G523" s="9"/>
       <c r="H523" s="9"/>
       <c r="I523" s="10"/>
     </row>
     <row r="524" ht="14.25" customHeight="1">
-      <c r="E524" s="37"/>
-      <c r="F524" s="37"/>
+      <c r="E524" s="39"/>
+      <c r="F524" s="39"/>
       <c r="G524" s="9"/>
       <c r="H524" s="9"/>
       <c r="I524" s="10"/>
     </row>
     <row r="525" ht="14.25" customHeight="1">
-      <c r="E525" s="37"/>
-      <c r="F525" s="37"/>
+      <c r="E525" s="39"/>
+      <c r="F525" s="39"/>
       <c r="G525" s="9"/>
       <c r="H525" s="9"/>
       <c r="I525" s="10"/>
     </row>
     <row r="526" ht="14.25" customHeight="1">
-      <c r="E526" s="37"/>
-      <c r="F526" s="37"/>
+      <c r="E526" s="39"/>
+      <c r="F526" s="39"/>
       <c r="G526" s="9"/>
       <c r="H526" s="9"/>
       <c r="I526" s="10"/>
     </row>
     <row r="527" ht="14.25" customHeight="1">
-      <c r="E527" s="37"/>
-      <c r="F527" s="37"/>
+      <c r="E527" s="39"/>
+      <c r="F527" s="39"/>
       <c r="G527" s="9"/>
       <c r="H527" s="9"/>
       <c r="I527" s="10"/>
     </row>
     <row r="528" ht="14.25" customHeight="1">
-      <c r="E528" s="37"/>
-      <c r="F528" s="37"/>
+      <c r="E528" s="39"/>
+      <c r="F528" s="39"/>
       <c r="G528" s="9"/>
       <c r="H528" s="9"/>
       <c r="I528" s="10"/>
     </row>
     <row r="529" ht="14.25" customHeight="1">
-      <c r="E529" s="37"/>
-      <c r="F529" s="37"/>
+      <c r="E529" s="39"/>
+      <c r="F529" s="39"/>
       <c r="G529" s="9"/>
       <c r="H529" s="9"/>
       <c r="I529" s="10"/>
     </row>
     <row r="530" ht="14.25" customHeight="1">
-      <c r="E530" s="37"/>
-      <c r="F530" s="37"/>
+      <c r="E530" s="39"/>
+      <c r="F530" s="39"/>
       <c r="G530" s="9"/>
       <c r="H530" s="9"/>
       <c r="I530" s="10"/>
     </row>
     <row r="531" ht="14.25" customHeight="1">
-      <c r="E531" s="37"/>
-      <c r="F531" s="37"/>
+      <c r="E531" s="39"/>
+      <c r="F531" s="39"/>
       <c r="G531" s="9"/>
       <c r="H531" s="9"/>
       <c r="I531" s="10"/>
     </row>
     <row r="532" ht="14.25" customHeight="1">
-      <c r="E532" s="37"/>
-      <c r="F532" s="37"/>
+      <c r="E532" s="39"/>
+      <c r="F532" s="39"/>
       <c r="G532" s="9"/>
       <c r="H532" s="9"/>
       <c r="I532" s="10"/>
     </row>
     <row r="533" ht="14.25" customHeight="1">
-      <c r="E533" s="37"/>
-      <c r="F533" s="37"/>
+      <c r="E533" s="39"/>
+      <c r="F533" s="39"/>
       <c r="G533" s="9"/>
       <c r="H533" s="9"/>
       <c r="I533" s="10"/>
     </row>
     <row r="534" ht="14.25" customHeight="1">
-      <c r="E534" s="37"/>
-      <c r="F534" s="37"/>
+      <c r="E534" s="39"/>
+      <c r="F534" s="39"/>
       <c r="G534" s="9"/>
       <c r="H534" s="9"/>
       <c r="I534" s="10"/>
     </row>
     <row r="535" ht="14.25" customHeight="1">
-      <c r="E535" s="37"/>
-      <c r="F535" s="37"/>
+      <c r="E535" s="39"/>
+      <c r="F535" s="39"/>
       <c r="G535" s="9"/>
       <c r="H535" s="9"/>
       <c r="I535" s="10"/>
     </row>
     <row r="536" ht="14.25" customHeight="1">
-      <c r="E536" s="37"/>
-      <c r="F536" s="37"/>
+      <c r="E536" s="39"/>
+      <c r="F536" s="39"/>
       <c r="G536" s="9"/>
       <c r="H536" s="9"/>
       <c r="I536" s="10"/>
     </row>
     <row r="537" ht="14.25" customHeight="1">
-      <c r="E537" s="37"/>
-      <c r="F537" s="37"/>
+      <c r="E537" s="39"/>
+      <c r="F537" s="39"/>
       <c r="G537" s="9"/>
       <c r="H537" s="9"/>
       <c r="I537" s="10"/>
     </row>
     <row r="538" ht="14.25" customHeight="1">
-      <c r="E538" s="37"/>
-      <c r="F538" s="37"/>
+      <c r="E538" s="39"/>
+      <c r="F538" s="39"/>
       <c r="G538" s="9"/>
       <c r="H538" s="9"/>
       <c r="I538" s="10"/>
     </row>
     <row r="539" ht="14.25" customHeight="1">
-      <c r="E539" s="37"/>
-      <c r="F539" s="37"/>
+      <c r="E539" s="39"/>
+      <c r="F539" s="39"/>
       <c r="G539" s="9"/>
       <c r="H539" s="9"/>
       <c r="I539" s="10"/>
     </row>
     <row r="540" ht="14.25" customHeight="1">
-      <c r="E540" s="37"/>
-      <c r="F540" s="37"/>
+      <c r="E540" s="39"/>
+      <c r="F540" s="39"/>
       <c r="G540" s="9"/>
       <c r="H540" s="9"/>
       <c r="I540" s="10"/>
     </row>
     <row r="541" ht="14.25" customHeight="1">
-      <c r="E541" s="37"/>
-      <c r="F541" s="37"/>
+      <c r="E541" s="39"/>
+      <c r="F541" s="39"/>
       <c r="G541" s="9"/>
       <c r="H541" s="9"/>
       <c r="I541" s="10"/>
     </row>
     <row r="542" ht="14.25" customHeight="1">
-      <c r="E542" s="37"/>
-      <c r="F542" s="37"/>
+      <c r="E542" s="39"/>
+      <c r="F542" s="39"/>
       <c r="G542" s="9"/>
       <c r="H542" s="9"/>
       <c r="I542" s="10"/>
     </row>
     <row r="543" ht="14.25" customHeight="1">
-      <c r="E543" s="37"/>
-      <c r="F543" s="37"/>
+      <c r="E543" s="39"/>
+      <c r="F543" s="39"/>
       <c r="G543" s="9"/>
       <c r="H543" s="9"/>
       <c r="I543" s="10"/>
     </row>
     <row r="544" ht="14.25" customHeight="1">
-      <c r="E544" s="37"/>
-      <c r="F544" s="37"/>
+      <c r="E544" s="39"/>
+      <c r="F544" s="39"/>
       <c r="G544" s="9"/>
       <c r="H544" s="9"/>
       <c r="I544" s="10"/>
     </row>
     <row r="545" ht="14.25" customHeight="1">
-      <c r="E545" s="37"/>
-      <c r="F545" s="37"/>
+      <c r="E545" s="39"/>
+      <c r="F545" s="39"/>
       <c r="G545" s="9"/>
       <c r="H545" s="9"/>
       <c r="I545" s="10"/>
     </row>
     <row r="546" ht="14.25" customHeight="1">
-      <c r="E546" s="37"/>
-      <c r="F546" s="37"/>
+      <c r="E546" s="39"/>
+      <c r="F546" s="39"/>
       <c r="G546" s="9"/>
       <c r="H546" s="9"/>
       <c r="I546" s="10"/>
     </row>
     <row r="547" ht="14.25" customHeight="1">
-      <c r="E547" s="37"/>
-      <c r="F547" s="37"/>
+      <c r="E547" s="39"/>
+      <c r="F547" s="39"/>
       <c r="G547" s="9"/>
       <c r="H547" s="9"/>
       <c r="I547" s="10"/>
     </row>
     <row r="548" ht="14.25" customHeight="1">
-      <c r="E548" s="37"/>
-      <c r="F548" s="37"/>
+      <c r="E548" s="39"/>
+      <c r="F548" s="39"/>
       <c r="G548" s="9"/>
       <c r="H548" s="9"/>
       <c r="I548" s="10"/>
     </row>
     <row r="549" ht="14.25" customHeight="1">
-      <c r="E549" s="37"/>
-      <c r="F549" s="37"/>
+      <c r="E549" s="39"/>
+      <c r="F549" s="39"/>
       <c r="G549" s="9"/>
       <c r="H549" s="9"/>
       <c r="I549" s="10"/>
     </row>
     <row r="550" ht="14.25" customHeight="1">
-      <c r="E550" s="37"/>
-      <c r="F550" s="37"/>
+      <c r="E550" s="39"/>
+      <c r="F550" s="39"/>
       <c r="G550" s="9"/>
       <c r="H550" s="9"/>
       <c r="I550" s="10"/>
     </row>
     <row r="551" ht="14.25" customHeight="1">
-      <c r="E551" s="37"/>
-      <c r="F551" s="37"/>
+      <c r="E551" s="39"/>
+      <c r="F551" s="39"/>
       <c r="G551" s="9"/>
       <c r="H551" s="9"/>
       <c r="I551" s="10"/>
     </row>
     <row r="552" ht="14.25" customHeight="1">
-      <c r="E552" s="37"/>
-      <c r="F552" s="37"/>
+      <c r="E552" s="39"/>
+      <c r="F552" s="39"/>
       <c r="G552" s="9"/>
       <c r="H552" s="9"/>
       <c r="I552" s="10"/>
     </row>
     <row r="553" ht="14.25" customHeight="1">
-      <c r="E553" s="37"/>
-      <c r="F553" s="37"/>
+      <c r="E553" s="39"/>
+      <c r="F553" s="39"/>
       <c r="G553" s="9"/>
       <c r="H553" s="9"/>
       <c r="I553" s="10"/>
     </row>
     <row r="554" ht="14.25" customHeight="1">
-      <c r="E554" s="37"/>
-      <c r="F554" s="37"/>
+      <c r="E554" s="39"/>
+      <c r="F554" s="39"/>
       <c r="G554" s="9"/>
       <c r="H554" s="9"/>
       <c r="I554" s="10"/>
     </row>
     <row r="555" ht="14.25" customHeight="1">
-      <c r="E555" s="37"/>
-      <c r="F555" s="37"/>
+      <c r="E555" s="39"/>
+      <c r="F555" s="39"/>
       <c r="G555" s="9"/>
       <c r="H555" s="9"/>
       <c r="I555" s="10"/>
     </row>
     <row r="556" ht="14.25" customHeight="1">
-      <c r="E556" s="37"/>
-      <c r="F556" s="37"/>
+      <c r="E556" s="39"/>
+      <c r="F556" s="39"/>
       <c r="G556" s="9"/>
       <c r="H556" s="9"/>
       <c r="I556" s="10"/>
     </row>
     <row r="557" ht="14.25" customHeight="1">
-      <c r="E557" s="37"/>
-      <c r="F557" s="37"/>
+      <c r="E557" s="39"/>
+      <c r="F557" s="39"/>
       <c r="G557" s="9"/>
       <c r="H557" s="9"/>
       <c r="I557" s="10"/>
     </row>
     <row r="558" ht="14.25" customHeight="1">
-      <c r="E558" s="37"/>
-      <c r="F558" s="37"/>
+      <c r="E558" s="39"/>
+      <c r="F558" s="39"/>
       <c r="G558" s="9"/>
       <c r="H558" s="9"/>
       <c r="I558" s="10"/>
     </row>
     <row r="559" ht="14.25" customHeight="1">
-      <c r="E559" s="37"/>
-      <c r="F559" s="37"/>
+      <c r="E559" s="39"/>
+      <c r="F559" s="39"/>
       <c r="G559" s="9"/>
       <c r="H559" s="9"/>
       <c r="I559" s="10"/>
     </row>
     <row r="560" ht="14.25" customHeight="1">
-      <c r="E560" s="37"/>
-      <c r="F560" s="37"/>
+      <c r="E560" s="39"/>
+      <c r="F560" s="39"/>
       <c r="G560" s="9"/>
       <c r="H560" s="9"/>
       <c r="I560" s="10"/>
     </row>
     <row r="561" ht="14.25" customHeight="1">
-      <c r="E561" s="37"/>
-      <c r="F561" s="37"/>
+      <c r="E561" s="39"/>
+      <c r="F561" s="39"/>
       <c r="G561" s="9"/>
       <c r="H561" s="9"/>
       <c r="I561" s="10"/>
     </row>
     <row r="562" ht="14.25" customHeight="1">
-      <c r="E562" s="37"/>
-      <c r="F562" s="37"/>
+      <c r="E562" s="39"/>
+      <c r="F562" s="39"/>
       <c r="G562" s="9"/>
       <c r="H562" s="9"/>
       <c r="I562" s="10"/>
     </row>
     <row r="563" ht="14.25" customHeight="1">
-      <c r="E563" s="37"/>
-      <c r="F563" s="37"/>
+      <c r="E563" s="39"/>
+      <c r="F563" s="39"/>
       <c r="G563" s="9"/>
       <c r="H563" s="9"/>
       <c r="I563" s="10"/>
     </row>
     <row r="564" ht="14.25" customHeight="1">
-      <c r="E564" s="37"/>
-      <c r="F564" s="37"/>
+      <c r="E564" s="39"/>
+      <c r="F564" s="39"/>
       <c r="G564" s="9"/>
       <c r="H564" s="9"/>
       <c r="I564" s="10"/>
     </row>
     <row r="565" ht="14.25" customHeight="1">
-      <c r="E565" s="37"/>
-      <c r="F565" s="37"/>
+      <c r="E565" s="39"/>
+      <c r="F565" s="39"/>
       <c r="G565" s="9"/>
       <c r="H565" s="9"/>
       <c r="I565" s="10"/>
     </row>
     <row r="566" ht="14.25" customHeight="1">
-      <c r="E566" s="37"/>
-      <c r="F566" s="37"/>
+      <c r="E566" s="39"/>
+      <c r="F566" s="39"/>
       <c r="G566" s="9"/>
       <c r="H566" s="9"/>
       <c r="I566" s="10"/>
     </row>
     <row r="567" ht="14.25" customHeight="1">
-      <c r="E567" s="37"/>
-      <c r="F567" s="37"/>
+      <c r="E567" s="39"/>
+      <c r="F567" s="39"/>
       <c r="G567" s="9"/>
       <c r="H567" s="9"/>
       <c r="I567" s="10"/>
     </row>
     <row r="568" ht="14.25" customHeight="1">
-      <c r="E568" s="37"/>
-      <c r="F568" s="37"/>
+      <c r="E568" s="39"/>
+      <c r="F568" s="39"/>
       <c r="G568" s="9"/>
       <c r="H568" s="9"/>
       <c r="I568" s="10"/>
     </row>
     <row r="569" ht="14.25" customHeight="1">
-      <c r="E569" s="37"/>
-      <c r="F569" s="37"/>
+      <c r="E569" s="39"/>
+      <c r="F569" s="39"/>
       <c r="G569" s="9"/>
       <c r="H569" s="9"/>
       <c r="I569" s="10"/>
     </row>
     <row r="570" ht="14.25" customHeight="1">
-      <c r="E570" s="37"/>
-      <c r="F570" s="37"/>
+      <c r="E570" s="39"/>
+      <c r="F570" s="39"/>
       <c r="G570" s="9"/>
       <c r="H570" s="9"/>
       <c r="I570" s="10"/>
     </row>
     <row r="571" ht="14.25" customHeight="1">
-      <c r="E571" s="37"/>
-      <c r="F571" s="37"/>
+      <c r="E571" s="39"/>
+      <c r="F571" s="39"/>
       <c r="G571" s="9"/>
       <c r="H571" s="9"/>
       <c r="I571" s="10"/>
     </row>
     <row r="572" ht="14.25" customHeight="1">
-      <c r="E572" s="37"/>
-      <c r="F572" s="37"/>
+      <c r="E572" s="39"/>
+      <c r="F572" s="39"/>
       <c r="G572" s="9"/>
       <c r="H572" s="9"/>
       <c r="I572" s="10"/>
     </row>
     <row r="573" ht="14.25" customHeight="1">
-      <c r="E573" s="37"/>
-      <c r="F573" s="37"/>
+      <c r="E573" s="39"/>
+      <c r="F573" s="39"/>
       <c r="G573" s="9"/>
       <c r="H573" s="9"/>
       <c r="I573" s="10"/>
     </row>
     <row r="574" ht="14.25" customHeight="1">
-      <c r="E574" s="37"/>
-      <c r="F574" s="37"/>
+      <c r="E574" s="39"/>
+      <c r="F574" s="39"/>
       <c r="G574" s="9"/>
       <c r="H574" s="9"/>
       <c r="I574" s="10"/>
     </row>
     <row r="575" ht="14.25" customHeight="1">
-      <c r="E575" s="37"/>
-      <c r="F575" s="37"/>
+      <c r="E575" s="39"/>
+      <c r="F575" s="39"/>
       <c r="G575" s="9"/>
       <c r="H575" s="9"/>
       <c r="I575" s="10"/>
     </row>
     <row r="576" ht="14.25" customHeight="1">
-      <c r="E576" s="37"/>
-      <c r="F576" s="37"/>
+      <c r="E576" s="39"/>
+      <c r="F576" s="39"/>
       <c r="G576" s="9"/>
       <c r="H576" s="9"/>
       <c r="I576" s="10"/>
     </row>
     <row r="577" ht="14.25" customHeight="1">
-      <c r="E577" s="37"/>
-      <c r="F577" s="37"/>
+      <c r="E577" s="39"/>
+      <c r="F577" s="39"/>
       <c r="G577" s="9"/>
       <c r="H577" s="9"/>
       <c r="I577" s="10"/>
     </row>
     <row r="578" ht="14.25" customHeight="1">
-      <c r="E578" s="37"/>
-      <c r="F578" s="37"/>
+      <c r="E578" s="39"/>
+      <c r="F578" s="39"/>
       <c r="G578" s="9"/>
       <c r="H578" s="9"/>
       <c r="I578" s="10"/>
     </row>
     <row r="579" ht="14.25" customHeight="1">
-      <c r="E579" s="37"/>
-      <c r="F579" s="37"/>
+      <c r="E579" s="39"/>
+      <c r="F579" s="39"/>
       <c r="G579" s="9"/>
       <c r="H579" s="9"/>
       <c r="I579" s="10"/>
     </row>
     <row r="580" ht="14.25" customHeight="1">
-      <c r="E580" s="37"/>
-      <c r="F580" s="37"/>
+      <c r="E580" s="39"/>
+      <c r="F580" s="39"/>
       <c r="G580" s="9"/>
       <c r="H580" s="9"/>
       <c r="I580" s="10"/>
     </row>
     <row r="581" ht="14.25" customHeight="1">
-      <c r="E581" s="37"/>
-      <c r="F581" s="37"/>
+      <c r="E581" s="39"/>
+      <c r="F581" s="39"/>
       <c r="G581" s="9"/>
       <c r="H581" s="9"/>
       <c r="I581" s="10"/>
     </row>
     <row r="582" ht="14.25" customHeight="1">
-      <c r="E582" s="37"/>
-      <c r="F582" s="37"/>
+      <c r="E582" s="39"/>
+      <c r="F582" s="39"/>
       <c r="G582" s="9"/>
       <c r="H582" s="9"/>
       <c r="I582" s="10"/>
     </row>
     <row r="583" ht="14.25" customHeight="1">
-      <c r="E583" s="37"/>
-      <c r="F583" s="37"/>
+      <c r="E583" s="39"/>
+      <c r="F583" s="39"/>
       <c r="G583" s="9"/>
       <c r="H583" s="9"/>
       <c r="I583" s="10"/>
     </row>
     <row r="584" ht="14.25" customHeight="1">
-      <c r="E584" s="37"/>
-      <c r="F584" s="37"/>
+      <c r="E584" s="39"/>
+      <c r="F584" s="39"/>
       <c r="G584" s="9"/>
       <c r="H584" s="9"/>
       <c r="I584" s="10"/>
     </row>
     <row r="585" ht="14.25" customHeight="1">
-      <c r="E585" s="37"/>
-      <c r="F585" s="37"/>
+      <c r="E585" s="39"/>
+      <c r="F585" s="39"/>
       <c r="G585" s="9"/>
       <c r="H585" s="9"/>
       <c r="I585" s="10"/>
     </row>
     <row r="586" ht="14.25" customHeight="1">
-      <c r="E586" s="37"/>
-      <c r="F586" s="37"/>
+      <c r="E586" s="39"/>
+      <c r="F586" s="39"/>
       <c r="G586" s="9"/>
       <c r="H586" s="9"/>
       <c r="I586" s="10"/>
     </row>
     <row r="587" ht="14.25" customHeight="1">
-      <c r="E587" s="37"/>
-      <c r="F587" s="37"/>
+      <c r="E587" s="39"/>
+      <c r="F587" s="39"/>
       <c r="G587" s="9"/>
       <c r="H587" s="9"/>
       <c r="I587" s="10"/>
     </row>
     <row r="588" ht="14.25" customHeight="1">
-      <c r="E588" s="37"/>
-      <c r="F588" s="37"/>
+      <c r="E588" s="39"/>
+      <c r="F588" s="39"/>
       <c r="G588" s="9"/>
       <c r="H588" s="9"/>
       <c r="I588" s="10"/>
     </row>
     <row r="589" ht="14.25" customHeight="1">
-      <c r="E589" s="37"/>
-      <c r="F589" s="37"/>
+      <c r="E589" s="39"/>
+      <c r="F589" s="39"/>
       <c r="G589" s="9"/>
       <c r="H589" s="9"/>
       <c r="I589" s="10"/>
     </row>
     <row r="590" ht="14.25" customHeight="1">
-      <c r="E590" s="37"/>
-      <c r="F590" s="37"/>
+      <c r="E590" s="39"/>
+      <c r="F590" s="39"/>
       <c r="G590" s="9"/>
       <c r="H590" s="9"/>
       <c r="I590" s="10"/>
     </row>
     <row r="591" ht="14.25" customHeight="1">
-      <c r="E591" s="37"/>
-      <c r="F591" s="37"/>
+      <c r="E591" s="39"/>
+      <c r="F591" s="39"/>
       <c r="G591" s="9"/>
       <c r="H591" s="9"/>
       <c r="I591" s="10"/>
     </row>
     <row r="592" ht="14.25" customHeight="1">
-      <c r="E592" s="37"/>
-      <c r="F592" s="37"/>
+      <c r="E592" s="39"/>
+      <c r="F592" s="39"/>
       <c r="G592" s="9"/>
       <c r="H592" s="9"/>
       <c r="I592" s="10"/>
     </row>
     <row r="593" ht="14.25" customHeight="1">
-      <c r="E593" s="37"/>
-      <c r="F593" s="37"/>
+      <c r="E593" s="39"/>
+      <c r="F593" s="39"/>
       <c r="G593" s="9"/>
       <c r="H593" s="9"/>
       <c r="I593" s="10"/>
     </row>
     <row r="594" ht="14.25" customHeight="1">
-      <c r="E594" s="37"/>
-      <c r="F594" s="37"/>
+      <c r="E594" s="39"/>
+      <c r="F594" s="39"/>
       <c r="G594" s="9"/>
       <c r="H594" s="9"/>
       <c r="I594" s="10"/>
     </row>
     <row r="595" ht="14.25" customHeight="1">
-      <c r="E595" s="37"/>
-      <c r="F595" s="37"/>
+      <c r="E595" s="39"/>
+      <c r="F595" s="39"/>
       <c r="G595" s="9"/>
       <c r="H595" s="9"/>
       <c r="I595" s="10"/>
     </row>
     <row r="596" ht="14.25" customHeight="1">
-      <c r="E596" s="37"/>
-      <c r="F596" s="37"/>
+      <c r="E596" s="39"/>
+      <c r="F596" s="39"/>
       <c r="G596" s="9"/>
       <c r="H596" s="9"/>
       <c r="I596" s="10"/>
     </row>
     <row r="597" ht="14.25" customHeight="1">
-      <c r="E597" s="37"/>
-      <c r="F597" s="37"/>
+      <c r="E597" s="39"/>
+      <c r="F597" s="39"/>
       <c r="G597" s="9"/>
       <c r="H597" s="9"/>
       <c r="I597" s="10"/>
     </row>
     <row r="598" ht="14.25" customHeight="1">
-      <c r="E598" s="37"/>
-      <c r="F598" s="37"/>
+      <c r="E598" s="39"/>
+      <c r="F598" s="39"/>
       <c r="G598" s="9"/>
       <c r="H598" s="9"/>
       <c r="I598" s="10"/>
     </row>
     <row r="599" ht="14.25" customHeight="1">
-      <c r="E599" s="37"/>
-      <c r="F599" s="37"/>
+      <c r="E599" s="39"/>
+      <c r="F599" s="39"/>
       <c r="G599" s="9"/>
       <c r="H599" s="9"/>
       <c r="I599" s="10"/>
     </row>
     <row r="600" ht="14.25" customHeight="1">
-      <c r="E600" s="37"/>
-      <c r="F600" s="37"/>
+      <c r="E600" s="39"/>
+      <c r="F600" s="39"/>
       <c r="G600" s="9"/>
       <c r="H600" s="9"/>
       <c r="I600" s="10"/>
     </row>
     <row r="601" ht="14.25" customHeight="1">
-      <c r="E601" s="37"/>
-      <c r="F601" s="37"/>
+      <c r="E601" s="39"/>
+      <c r="F601" s="39"/>
       <c r="G601" s="9"/>
       <c r="H601" s="9"/>
       <c r="I601" s="10"/>
     </row>
     <row r="602" ht="14.25" customHeight="1">
-      <c r="E602" s="37"/>
-      <c r="F602" s="37"/>
+      <c r="E602" s="39"/>
+      <c r="F602" s="39"/>
       <c r="G602" s="9"/>
       <c r="H602" s="9"/>
       <c r="I602" s="10"/>
     </row>
     <row r="603" ht="14.25" customHeight="1">
-      <c r="E603" s="37"/>
-      <c r="F603" s="37"/>
+      <c r="E603" s="39"/>
+      <c r="F603" s="39"/>
       <c r="G603" s="9"/>
       <c r="H603" s="9"/>
       <c r="I603" s="10"/>
     </row>
     <row r="604" ht="14.25" customHeight="1">
-      <c r="E604" s="37"/>
-      <c r="F604" s="37"/>
+      <c r="E604" s="39"/>
+      <c r="F604" s="39"/>
       <c r="G604" s="9"/>
       <c r="H604" s="9"/>
       <c r="I604" s="10"/>
     </row>
     <row r="605" ht="14.25" customHeight="1">
-      <c r="E605" s="37"/>
-      <c r="F605" s="37"/>
+      <c r="E605" s="39"/>
+      <c r="F605" s="39"/>
       <c r="G605" s="9"/>
       <c r="H605" s="9"/>
       <c r="I605" s="10"/>
     </row>
     <row r="606" ht="14.25" customHeight="1">
-      <c r="E606" s="37"/>
-      <c r="F606" s="37"/>
+      <c r="E606" s="39"/>
+      <c r="F606" s="39"/>
       <c r="G606" s="9"/>
       <c r="H606" s="9"/>
       <c r="I606" s="10"/>
     </row>
     <row r="607" ht="14.25" customHeight="1">
-      <c r="E607" s="37"/>
-      <c r="F607" s="37"/>
+      <c r="E607" s="39"/>
+      <c r="F607" s="39"/>
       <c r="G607" s="9"/>
       <c r="H607" s="9"/>
       <c r="I607" s="10"/>
     </row>
     <row r="608" ht="14.25" customHeight="1">
-      <c r="E608" s="37"/>
-      <c r="F608" s="37"/>
+      <c r="E608" s="39"/>
+      <c r="F608" s="39"/>
       <c r="G608" s="9"/>
       <c r="H608" s="9"/>
       <c r="I608" s="10"/>
     </row>
     <row r="609" ht="14.25" customHeight="1">
-      <c r="E609" s="37"/>
-      <c r="F609" s="37"/>
+      <c r="E609" s="39"/>
+      <c r="F609" s="39"/>
       <c r="G609" s="9"/>
       <c r="H609" s="9"/>
       <c r="I609" s="10"/>
     </row>
     <row r="610" ht="14.25" customHeight="1">
-      <c r="E610" s="37"/>
-      <c r="F610" s="37"/>
+      <c r="E610" s="39"/>
+      <c r="F610" s="39"/>
       <c r="G610" s="9"/>
       <c r="H610" s="9"/>
       <c r="I610" s="10"/>
     </row>
     <row r="611" ht="14.25" customHeight="1">
-      <c r="E611" s="37"/>
-      <c r="F611" s="37"/>
+      <c r="E611" s="39"/>
+      <c r="F611" s="39"/>
       <c r="G611" s="9"/>
       <c r="H611" s="9"/>
       <c r="I611" s="10"/>
     </row>
     <row r="612" ht="14.25" customHeight="1">
-      <c r="E612" s="37"/>
-      <c r="F612" s="37"/>
+      <c r="E612" s="39"/>
+      <c r="F612" s="39"/>
       <c r="G612" s="9"/>
       <c r="H612" s="9"/>
       <c r="I612" s="10"/>
     </row>
     <row r="613" ht="14.25" customHeight="1">
-      <c r="E613" s="37"/>
-      <c r="F613" s="37"/>
+      <c r="E613" s="39"/>
+      <c r="F613" s="39"/>
       <c r="G613" s="9"/>
       <c r="H613" s="9"/>
       <c r="I613" s="10"/>
     </row>
     <row r="614" ht="14.25" customHeight="1">
-      <c r="E614" s="37"/>
-      <c r="F614" s="37"/>
+      <c r="E614" s="39"/>
+      <c r="F614" s="39"/>
       <c r="G614" s="9"/>
       <c r="H614" s="9"/>
       <c r="I614" s="10"/>
     </row>
     <row r="615" ht="14.25" customHeight="1">
-      <c r="E615" s="37"/>
-      <c r="F615" s="37"/>
+      <c r="E615" s="39"/>
+      <c r="F615" s="39"/>
       <c r="G615" s="9"/>
       <c r="H615" s="9"/>
       <c r="I615" s="10"/>
     </row>
     <row r="616" ht="14.25" customHeight="1">
-      <c r="E616" s="37"/>
-      <c r="F616" s="37"/>
+      <c r="E616" s="39"/>
+      <c r="F616" s="39"/>
       <c r="G616" s="9"/>
       <c r="H616" s="9"/>
       <c r="I616" s="10"/>
     </row>
     <row r="617" ht="14.25" customHeight="1">
-      <c r="E617" s="37"/>
-      <c r="F617" s="37"/>
+      <c r="E617" s="39"/>
+      <c r="F617" s="39"/>
       <c r="G617" s="9"/>
       <c r="H617" s="9"/>
       <c r="I617" s="10"/>
     </row>
     <row r="618" ht="14.25" customHeight="1">
-      <c r="E618" s="37"/>
-      <c r="F618" s="37"/>
+      <c r="E618" s="39"/>
+      <c r="F618" s="39"/>
       <c r="G618" s="9"/>
       <c r="H618" s="9"/>
       <c r="I618" s="10"/>
     </row>
     <row r="619" ht="14.25" customHeight="1">
-      <c r="E619" s="37"/>
-      <c r="F619" s="37"/>
+      <c r="E619" s="39"/>
+      <c r="F619" s="39"/>
       <c r="G619" s="9"/>
       <c r="H619" s="9"/>
       <c r="I619" s="10"/>
     </row>
     <row r="620" ht="14.25" customHeight="1">
-      <c r="E620" s="37"/>
-      <c r="F620" s="37"/>
+      <c r="E620" s="39"/>
+      <c r="F620" s="39"/>
       <c r="G620" s="9"/>
       <c r="H620" s="9"/>
       <c r="I620" s="10"/>
     </row>
     <row r="621" ht="14.25" customHeight="1">
-      <c r="E621" s="37"/>
-      <c r="F621" s="37"/>
+      <c r="E621" s="39"/>
+      <c r="F621" s="39"/>
       <c r="G621" s="9"/>
       <c r="H621" s="9"/>
       <c r="I621" s="10"/>
     </row>
     <row r="622" ht="14.25" customHeight="1">
-      <c r="E622" s="37"/>
-      <c r="F622" s="37"/>
+      <c r="E622" s="39"/>
+      <c r="F622" s="39"/>
       <c r="G622" s="9"/>
       <c r="H622" s="9"/>
       <c r="I622" s="10"/>
     </row>
     <row r="623" ht="14.25" customHeight="1">
-      <c r="E623" s="37"/>
-      <c r="F623" s="37"/>
+      <c r="E623" s="39"/>
+      <c r="F623" s="39"/>
       <c r="G623" s="9"/>
       <c r="H623" s="9"/>
       <c r="I623" s="10"/>
     </row>
     <row r="624" ht="14.25" customHeight="1">
-      <c r="E624" s="37"/>
-      <c r="F624" s="37"/>
+      <c r="E624" s="39"/>
+      <c r="F624" s="39"/>
       <c r="G624" s="9"/>
       <c r="H624" s="9"/>
       <c r="I624" s="10"/>
     </row>
     <row r="625" ht="14.25" customHeight="1">
-      <c r="E625" s="37"/>
-      <c r="F625" s="37"/>
+      <c r="E625" s="39"/>
+      <c r="F625" s="39"/>
       <c r="G625" s="9"/>
       <c r="H625" s="9"/>
       <c r="I625" s="10"/>
     </row>
     <row r="626" ht="14.25" customHeight="1">
-      <c r="E626" s="37"/>
-      <c r="F626" s="37"/>
+      <c r="E626" s="39"/>
+      <c r="F626" s="39"/>
       <c r="G626" s="9"/>
       <c r="H626" s="9"/>
       <c r="I626" s="10"/>
     </row>
     <row r="627" ht="14.25" customHeight="1">
-      <c r="E627" s="37"/>
-      <c r="F627" s="37"/>
+      <c r="E627" s="39"/>
+      <c r="F627" s="39"/>
       <c r="G627" s="9"/>
       <c r="H627" s="9"/>
       <c r="I627" s="10"/>
     </row>
     <row r="628" ht="14.25" customHeight="1">
-      <c r="E628" s="37"/>
-      <c r="F628" s="37"/>
+      <c r="E628" s="39"/>
+      <c r="F628" s="39"/>
       <c r="G628" s="9"/>
       <c r="H628" s="9"/>
       <c r="I628" s="10"/>
     </row>
     <row r="629" ht="14.25" customHeight="1">
-      <c r="E629" s="37"/>
-      <c r="F629" s="37"/>
+      <c r="E629" s="39"/>
+      <c r="F629" s="39"/>
       <c r="G629" s="9"/>
       <c r="H629" s="9"/>
       <c r="I629" s="10"/>
     </row>
     <row r="630" ht="14.25" customHeight="1">
-      <c r="E630" s="37"/>
-      <c r="F630" s="37"/>
+      <c r="E630" s="39"/>
+      <c r="F630" s="39"/>
       <c r="G630" s="9"/>
       <c r="H630" s="9"/>
       <c r="I630" s="10"/>
     </row>
     <row r="631" ht="14.25" customHeight="1">
-      <c r="E631" s="37"/>
-      <c r="F631" s="37"/>
+      <c r="E631" s="39"/>
+      <c r="F631" s="39"/>
       <c r="G631" s="9"/>
       <c r="H631" s="9"/>
       <c r="I631" s="10"/>
     </row>
     <row r="632" ht="14.25" customHeight="1">
-      <c r="E632" s="37"/>
-      <c r="F632" s="37"/>
+      <c r="E632" s="39"/>
+      <c r="F632" s="39"/>
       <c r="G632" s="9"/>
       <c r="H632" s="9"/>
       <c r="I632" s="10"/>
     </row>
     <row r="633" ht="14.25" customHeight="1">
-      <c r="E633" s="37"/>
-      <c r="F633" s="37"/>
+      <c r="E633" s="39"/>
+      <c r="F633" s="39"/>
       <c r="G633" s="9"/>
       <c r="H633" s="9"/>
       <c r="I633" s="10"/>
     </row>
     <row r="634" ht="14.25" customHeight="1">
-      <c r="E634" s="37"/>
-      <c r="F634" s="37"/>
+      <c r="E634" s="39"/>
+      <c r="F634" s="39"/>
       <c r="G634" s="9"/>
       <c r="H634" s="9"/>
       <c r="I634" s="10"/>
     </row>
     <row r="635" ht="14.25" customHeight="1">
-      <c r="E635" s="37"/>
-      <c r="F635" s="37"/>
+      <c r="E635" s="39"/>
+      <c r="F635" s="39"/>
       <c r="G635" s="9"/>
       <c r="H635" s="9"/>
       <c r="I635" s="10"/>
     </row>
     <row r="636" ht="14.25" customHeight="1">
-      <c r="E636" s="37"/>
-      <c r="F636" s="37"/>
+      <c r="E636" s="39"/>
+      <c r="F636" s="39"/>
       <c r="G636" s="9"/>
       <c r="H636" s="9"/>
       <c r="I636" s="10"/>
     </row>
     <row r="637" ht="14.25" customHeight="1">
-      <c r="E637" s="37"/>
-      <c r="F637" s="37"/>
+      <c r="E637" s="39"/>
+      <c r="F637" s="39"/>
       <c r="G637" s="9"/>
       <c r="H637" s="9"/>
       <c r="I637" s="10"/>
     </row>
     <row r="638" ht="14.25" customHeight="1">
-      <c r="E638" s="37"/>
-      <c r="F638" s="37"/>
+      <c r="E638" s="39"/>
+      <c r="F638" s="39"/>
       <c r="G638" s="9"/>
       <c r="H638" s="9"/>
       <c r="I638" s="10"/>
     </row>
     <row r="639" ht="14.25" customHeight="1">
-      <c r="E639" s="37"/>
-      <c r="F639" s="37"/>
+      <c r="E639" s="39"/>
+      <c r="F639" s="39"/>
       <c r="G639" s="9"/>
       <c r="H639" s="9"/>
       <c r="I639" s="10"/>
     </row>
     <row r="640" ht="14.25" customHeight="1">
-      <c r="E640" s="37"/>
-      <c r="F640" s="37"/>
+      <c r="E640" s="39"/>
+      <c r="F640" s="39"/>
       <c r="G640" s="9"/>
       <c r="H640" s="9"/>
       <c r="I640" s="10"/>
     </row>
     <row r="641" ht="14.25" customHeight="1">
-      <c r="E641" s="37"/>
-      <c r="F641" s="37"/>
+      <c r="E641" s="39"/>
+      <c r="F641" s="39"/>
       <c r="G641" s="9"/>
       <c r="H641" s="9"/>
       <c r="I641" s="10"/>
     </row>
     <row r="642" ht="14.25" customHeight="1">
-      <c r="E642" s="37"/>
-      <c r="F642" s="37"/>
+      <c r="E642" s="39"/>
+      <c r="F642" s="39"/>
       <c r="G642" s="9"/>
       <c r="H642" s="9"/>
       <c r="I642" s="10"/>
     </row>
     <row r="643" ht="14.25" customHeight="1">
-      <c r="E643" s="37"/>
-      <c r="F643" s="37"/>
+      <c r="E643" s="39"/>
+      <c r="F643" s="39"/>
       <c r="G643" s="9"/>
       <c r="H643" s="9"/>
       <c r="I643" s="10"/>
     </row>
     <row r="644" ht="14.25" customHeight="1">
-      <c r="E644" s="37"/>
-      <c r="F644" s="37"/>
+      <c r="E644" s="39"/>
+      <c r="F644" s="39"/>
       <c r="G644" s="9"/>
       <c r="H644" s="9"/>
       <c r="I644" s="10"/>
     </row>
     <row r="645" ht="14.25" customHeight="1">
-      <c r="E645" s="37"/>
-      <c r="F645" s="37"/>
+      <c r="E645" s="39"/>
+      <c r="F645" s="39"/>
       <c r="G645" s="9"/>
       <c r="H645" s="9"/>
       <c r="I645" s="10"/>
     </row>
     <row r="646" ht="14.25" customHeight="1">
-      <c r="E646" s="37"/>
-      <c r="F646" s="37"/>
+      <c r="E646" s="39"/>
+      <c r="F646" s="39"/>
       <c r="G646" s="9"/>
       <c r="H646" s="9"/>
       <c r="I646" s="10"/>
     </row>
     <row r="647" ht="14.25" customHeight="1">
-      <c r="E647" s="37"/>
-      <c r="F647" s="37"/>
+      <c r="E647" s="39"/>
+      <c r="F647" s="39"/>
       <c r="G647" s="9"/>
       <c r="H647" s="9"/>
       <c r="I647" s="10"/>
     </row>
     <row r="648" ht="14.25" customHeight="1">
-      <c r="E648" s="37"/>
-      <c r="F648" s="37"/>
+      <c r="E648" s="39"/>
+      <c r="F648" s="39"/>
       <c r="G648" s="9"/>
       <c r="H648" s="9"/>
       <c r="I648" s="10"/>
     </row>
     <row r="649" ht="14.25" customHeight="1">
-      <c r="E649" s="37"/>
-      <c r="F649" s="37"/>
+      <c r="E649" s="39"/>
+      <c r="F649" s="39"/>
       <c r="G649" s="9"/>
       <c r="H649" s="9"/>
       <c r="I649" s="10"/>
     </row>
     <row r="650" ht="14.25" customHeight="1">
-      <c r="E650" s="37"/>
-      <c r="F650" s="37"/>
+      <c r="E650" s="39"/>
+      <c r="F650" s="39"/>
       <c r="G650" s="9"/>
       <c r="H650" s="9"/>
       <c r="I650" s="10"/>
     </row>
     <row r="651" ht="14.25" customHeight="1">
-      <c r="E651" s="37"/>
-      <c r="F651" s="37"/>
+      <c r="E651" s="39"/>
+      <c r="F651" s="39"/>
       <c r="G651" s="9"/>
       <c r="H651" s="9"/>
       <c r="I651" s="10"/>
     </row>
     <row r="652" ht="14.25" customHeight="1">
-      <c r="E652" s="37"/>
-      <c r="F652" s="37"/>
+      <c r="E652" s="39"/>
+      <c r="F652" s="39"/>
       <c r="G652" s="9"/>
       <c r="H652" s="9"/>
       <c r="I652" s="10"/>
     </row>
     <row r="653" ht="14.25" customHeight="1">
-      <c r="E653" s="37"/>
-      <c r="F653" s="37"/>
+      <c r="E653" s="39"/>
+      <c r="F653" s="39"/>
       <c r="G653" s="9"/>
       <c r="H653" s="9"/>
       <c r="I653" s="10"/>
     </row>
     <row r="654" ht="14.25" customHeight="1">
-      <c r="E654" s="37"/>
-      <c r="F654" s="37"/>
+      <c r="E654" s="39"/>
+      <c r="F654" s="39"/>
       <c r="G654" s="9"/>
       <c r="H654" s="9"/>
       <c r="I654" s="10"/>
     </row>
     <row r="655" ht="14.25" customHeight="1">
-      <c r="E655" s="37"/>
-      <c r="F655" s="37"/>
+      <c r="E655" s="39"/>
+      <c r="F655" s="39"/>
       <c r="G655" s="9"/>
       <c r="H655" s="9"/>
       <c r="I655" s="10"/>
     </row>
     <row r="656" ht="14.25" customHeight="1">
-      <c r="E656" s="37"/>
-      <c r="F656" s="37"/>
+      <c r="E656" s="39"/>
+      <c r="F656" s="39"/>
       <c r="G656" s="9"/>
       <c r="H656" s="9"/>
       <c r="I656" s="10"/>
     </row>
     <row r="657" ht="14.25" customHeight="1">
-      <c r="E657" s="37"/>
-      <c r="F657" s="37"/>
+      <c r="E657" s="39"/>
+      <c r="F657" s="39"/>
       <c r="G657" s="9"/>
       <c r="H657" s="9"/>
       <c r="I657" s="10"/>
     </row>
     <row r="658" ht="14.25" customHeight="1">
-      <c r="E658" s="37"/>
-      <c r="F658" s="37"/>
+      <c r="E658" s="39"/>
+      <c r="F658" s="39"/>
       <c r="G658" s="9"/>
       <c r="H658" s="9"/>
       <c r="I658" s="10"/>
     </row>
     <row r="659" ht="14.25" customHeight="1">
-      <c r="E659" s="37"/>
-      <c r="F659" s="37"/>
+      <c r="E659" s="39"/>
+      <c r="F659" s="39"/>
       <c r="G659" s="9"/>
       <c r="H659" s="9"/>
       <c r="I659" s="10"/>
     </row>
     <row r="660" ht="14.25" customHeight="1">
-      <c r="E660" s="37"/>
-      <c r="F660" s="37"/>
+      <c r="E660" s="39"/>
+      <c r="F660" s="39"/>
       <c r="G660" s="9"/>
       <c r="H660" s="9"/>
       <c r="I660" s="10"/>
     </row>
     <row r="661" ht="14.25" customHeight="1">
-      <c r="E661" s="37"/>
-      <c r="F661" s="37"/>
+      <c r="E661" s="39"/>
+      <c r="F661" s="39"/>
       <c r="G661" s="9"/>
       <c r="H661" s="9"/>
       <c r="I661" s="10"/>
     </row>
     <row r="662" ht="14.25" customHeight="1">
-      <c r="E662" s="37"/>
-      <c r="F662" s="37"/>
+      <c r="E662" s="39"/>
+      <c r="F662" s="39"/>
       <c r="G662" s="9"/>
       <c r="H662" s="9"/>
       <c r="I662" s="10"/>
     </row>
     <row r="663" ht="14.25" customHeight="1">
-      <c r="E663" s="37"/>
-      <c r="F663" s="37"/>
+      <c r="E663" s="39"/>
+      <c r="F663" s="39"/>
       <c r="G663" s="9"/>
       <c r="H663" s="9"/>
       <c r="I663" s="10"/>
     </row>
     <row r="664" ht="14.25" customHeight="1">
-      <c r="E664" s="37"/>
-      <c r="F664" s="37"/>
+      <c r="E664" s="39"/>
+      <c r="F664" s="39"/>
       <c r="G664" s="9"/>
       <c r="H664" s="9"/>
       <c r="I664" s="10"/>
     </row>
     <row r="665" ht="14.25" customHeight="1">
-      <c r="E665" s="37"/>
-      <c r="F665" s="37"/>
+      <c r="E665" s="39"/>
+      <c r="F665" s="39"/>
       <c r="G665" s="9"/>
       <c r="H665" s="9"/>
       <c r="I665" s="10"/>
     </row>
     <row r="666" ht="14.25" customHeight="1">
-      <c r="E666" s="37"/>
-      <c r="F666" s="37"/>
+      <c r="E666" s="39"/>
+      <c r="F666" s="39"/>
       <c r="G666" s="9"/>
       <c r="H666" s="9"/>
       <c r="I666" s="10"/>
     </row>
     <row r="667" ht="14.25" customHeight="1">
-      <c r="E667" s="37"/>
-      <c r="F667" s="37"/>
+      <c r="E667" s="39"/>
+      <c r="F667" s="39"/>
       <c r="G667" s="9"/>
       <c r="H667" s="9"/>
       <c r="I667" s="10"/>
     </row>
     <row r="668" ht="14.25" customHeight="1">
-      <c r="E668" s="37"/>
-      <c r="F668" s="37"/>
+      <c r="E668" s="39"/>
+      <c r="F668" s="39"/>
       <c r="G668" s="9"/>
       <c r="H668" s="9"/>
       <c r="I668" s="10"/>
     </row>
     <row r="669" ht="14.25" customHeight="1">
-      <c r="E669" s="37"/>
-      <c r="F669" s="37"/>
+      <c r="E669" s="39"/>
+      <c r="F669" s="39"/>
       <c r="G669" s="9"/>
       <c r="H669" s="9"/>
       <c r="I669" s="10"/>
     </row>
     <row r="670" ht="14.25" customHeight="1">
-      <c r="E670" s="37"/>
-      <c r="F670" s="37"/>
+      <c r="E670" s="39"/>
+      <c r="F670" s="39"/>
       <c r="G670" s="9"/>
       <c r="H670" s="9"/>
       <c r="I670" s="10"/>
     </row>
     <row r="671" ht="14.25" customHeight="1">
-      <c r="E671" s="37"/>
-      <c r="F671" s="37"/>
+      <c r="E671" s="39"/>
+      <c r="F671" s="39"/>
       <c r="G671" s="9"/>
       <c r="H671" s="9"/>
       <c r="I671" s="10"/>
     </row>
     <row r="672" ht="14.25" customHeight="1">
-      <c r="E672" s="37"/>
-      <c r="F672" s="37"/>
+      <c r="E672" s="39"/>
+      <c r="F672" s="39"/>
       <c r="G672" s="9"/>
       <c r="H672" s="9"/>
       <c r="I672" s="10"/>
     </row>
     <row r="673" ht="14.25" customHeight="1">
-      <c r="E673" s="37"/>
-      <c r="F673" s="37"/>
+      <c r="E673" s="39"/>
+      <c r="F673" s="39"/>
       <c r="G673" s="9"/>
       <c r="H673" s="9"/>
       <c r="I673" s="10"/>
     </row>
     <row r="674" ht="14.25" customHeight="1">
-      <c r="E674" s="37"/>
-      <c r="F674" s="37"/>
+      <c r="E674" s="39"/>
+      <c r="F674" s="39"/>
       <c r="G674" s="9"/>
       <c r="H674" s="9"/>
       <c r="I674" s="10"/>
     </row>
     <row r="675" ht="14.25" customHeight="1">
-      <c r="E675" s="37"/>
-      <c r="F675" s="37"/>
+      <c r="E675" s="39"/>
+      <c r="F675" s="39"/>
       <c r="G675" s="9"/>
       <c r="H675" s="9"/>
       <c r="I675" s="10"/>
     </row>
     <row r="676" ht="14.25" customHeight="1">
-      <c r="E676" s="37"/>
-      <c r="F676" s="37"/>
+      <c r="E676" s="39"/>
+      <c r="F676" s="39"/>
       <c r="G676" s="9"/>
       <c r="H676" s="9"/>
       <c r="I676" s="10"/>
     </row>
     <row r="677" ht="14.25" customHeight="1">
-      <c r="E677" s="37"/>
-      <c r="F677" s="37"/>
+      <c r="E677" s="39"/>
+      <c r="F677" s="39"/>
       <c r="G677" s="9"/>
       <c r="H677" s="9"/>
       <c r="I677" s="10"/>
     </row>
     <row r="678" ht="14.25" customHeight="1">
-      <c r="E678" s="37"/>
-      <c r="F678" s="37"/>
+      <c r="E678" s="39"/>
+      <c r="F678" s="39"/>
       <c r="G678" s="9"/>
       <c r="H678" s="9"/>
       <c r="I678" s="10"/>
     </row>
     <row r="679" ht="14.25" customHeight="1">
-      <c r="E679" s="37"/>
-      <c r="F679" s="37"/>
+      <c r="E679" s="39"/>
+      <c r="F679" s="39"/>
       <c r="G679" s="9"/>
       <c r="H679" s="9"/>
       <c r="I679" s="10"/>
     </row>
     <row r="680" ht="14.25" customHeight="1">
-      <c r="E680" s="37"/>
-      <c r="F680" s="37"/>
+      <c r="E680" s="39"/>
+      <c r="F680" s="39"/>
       <c r="G680" s="9"/>
       <c r="H680" s="9"/>
       <c r="I680" s="10"/>
     </row>
     <row r="681" ht="14.25" customHeight="1">
-      <c r="E681" s="37"/>
-      <c r="F681" s="37"/>
+      <c r="E681" s="39"/>
+      <c r="F681" s="39"/>
       <c r="G681" s="9"/>
       <c r="H681" s="9"/>
       <c r="I681" s="10"/>
     </row>
     <row r="682" ht="14.25" customHeight="1">
-      <c r="E682" s="37"/>
-      <c r="F682" s="37"/>
+      <c r="E682" s="39"/>
+      <c r="F682" s="39"/>
       <c r="G682" s="9"/>
       <c r="H682" s="9"/>
       <c r="I682" s="10"/>
     </row>
     <row r="683" ht="14.25" customHeight="1">
-      <c r="E683" s="37"/>
-      <c r="F683" s="37"/>
+      <c r="E683" s="39"/>
+      <c r="F683" s="39"/>
       <c r="G683" s="9"/>
       <c r="H683" s="9"/>
       <c r="I683" s="10"/>
     </row>
     <row r="684" ht="14.25" customHeight="1">
-      <c r="E684" s="37"/>
-      <c r="F684" s="37"/>
+      <c r="E684" s="39"/>
+      <c r="F684" s="39"/>
       <c r="G684" s="9"/>
       <c r="H684" s="9"/>
       <c r="I684" s="10"/>
     </row>
     <row r="685" ht="14.25" customHeight="1">
-      <c r="E685" s="37"/>
-      <c r="F685" s="37"/>
+      <c r="E685" s="39"/>
+      <c r="F685" s="39"/>
       <c r="G685" s="9"/>
       <c r="H685" s="9"/>
       <c r="I685" s="10"/>
     </row>
     <row r="686" ht="14.25" customHeight="1">
-      <c r="E686" s="37"/>
-      <c r="F686" s="37"/>
+      <c r="E686" s="39"/>
+      <c r="F686" s="39"/>
       <c r="G686" s="9"/>
       <c r="H686" s="9"/>
       <c r="I686" s="10"/>
     </row>
     <row r="687" ht="14.25" customHeight="1">
-      <c r="E687" s="37"/>
-      <c r="F687" s="37"/>
+      <c r="E687" s="39"/>
+      <c r="F687" s="39"/>
       <c r="G687" s="9"/>
       <c r="H687" s="9"/>
       <c r="I687" s="10"/>
     </row>
     <row r="688" ht="14.25" customHeight="1">
-      <c r="E688" s="37"/>
-      <c r="F688" s="37"/>
+      <c r="E688" s="39"/>
+      <c r="F688" s="39"/>
       <c r="G688" s="9"/>
       <c r="H688" s="9"/>
       <c r="I688" s="10"/>
     </row>
     <row r="689" ht="14.25" customHeight="1">
-      <c r="E689" s="37"/>
-      <c r="F689" s="37"/>
+      <c r="E689" s="39"/>
+      <c r="F689" s="39"/>
       <c r="G689" s="9"/>
       <c r="H689" s="9"/>
       <c r="I689" s="10"/>
     </row>
     <row r="690" ht="14.25" customHeight="1">
-      <c r="E690" s="37"/>
-      <c r="F690" s="37"/>
+      <c r="E690" s="39"/>
+      <c r="F690" s="39"/>
       <c r="G690" s="9"/>
       <c r="H690" s="9"/>
       <c r="I690" s="10"/>
     </row>
     <row r="691" ht="14.25" customHeight="1">
-      <c r="E691" s="37"/>
-      <c r="F691" s="37"/>
+      <c r="E691" s="39"/>
+      <c r="F691" s="39"/>
       <c r="G691" s="9"/>
       <c r="H691" s="9"/>
       <c r="I691" s="10"/>
     </row>
     <row r="692" ht="14.25" customHeight="1">
-      <c r="E692" s="37"/>
-      <c r="F692" s="37"/>
+      <c r="E692" s="39"/>
+      <c r="F692" s="39"/>
       <c r="G692" s="9"/>
       <c r="H692" s="9"/>
       <c r="I692" s="10"/>
     </row>
     <row r="693" ht="14.25" customHeight="1">
-      <c r="E693" s="37"/>
-      <c r="F693" s="37"/>
+      <c r="E693" s="39"/>
+      <c r="F693" s="39"/>
       <c r="G693" s="9"/>
       <c r="H693" s="9"/>
       <c r="I693" s="10"/>
     </row>
     <row r="694" ht="14.25" customHeight="1">
-      <c r="E694" s="37"/>
-      <c r="F694" s="37"/>
+      <c r="E694" s="39"/>
+      <c r="F694" s="39"/>
       <c r="G694" s="9"/>
       <c r="H694" s="9"/>
       <c r="I694" s="10"/>
     </row>
     <row r="695" ht="14.25" customHeight="1">
-      <c r="E695" s="37"/>
-      <c r="F695" s="37"/>
+      <c r="E695" s="39"/>
+      <c r="F695" s="39"/>
       <c r="G695" s="9"/>
       <c r="H695" s="9"/>
       <c r="I695" s="10"/>
     </row>
     <row r="696" ht="14.25" customHeight="1">
-      <c r="E696" s="37"/>
-      <c r="F696" s="37"/>
+      <c r="E696" s="39"/>
+      <c r="F696" s="39"/>
       <c r="G696" s="9"/>
       <c r="H696" s="9"/>
       <c r="I696" s="10"/>
     </row>
     <row r="697" ht="14.25" customHeight="1">
-      <c r="E697" s="37"/>
-      <c r="F697" s="37"/>
+      <c r="E697" s="39"/>
+      <c r="F697" s="39"/>
       <c r="G697" s="9"/>
       <c r="H697" s="9"/>
       <c r="I697" s="10"/>
     </row>
     <row r="698" ht="14.25" customHeight="1">
-      <c r="E698" s="37"/>
-      <c r="F698" s="37"/>
+      <c r="E698" s="39"/>
+      <c r="F698" s="39"/>
       <c r="G698" s="9"/>
       <c r="H698" s="9"/>
       <c r="I698" s="10"/>
     </row>
     <row r="699" ht="14.25" customHeight="1">
-      <c r="E699" s="37"/>
-      <c r="F699" s="37"/>
+      <c r="E699" s="39"/>
+      <c r="F699" s="39"/>
       <c r="G699" s="9"/>
       <c r="H699" s="9"/>
       <c r="I699" s="10"/>
     </row>
     <row r="700" ht="14.25" customHeight="1">
-      <c r="E700" s="37"/>
-      <c r="F700" s="37"/>
+      <c r="E700" s="39"/>
+      <c r="F700" s="39"/>
       <c r="G700" s="9"/>
       <c r="H700" s="9"/>
       <c r="I700" s="10"/>
     </row>
     <row r="701" ht="14.25" customHeight="1">
-      <c r="E701" s="37"/>
-      <c r="F701" s="37"/>
+      <c r="E701" s="39"/>
+      <c r="F701" s="39"/>
       <c r="G701" s="9"/>
       <c r="H701" s="9"/>
       <c r="I701" s="10"/>
     </row>
     <row r="702" ht="14.25" customHeight="1">
-      <c r="E702" s="37"/>
-      <c r="F702" s="37"/>
+      <c r="E702" s="39"/>
+      <c r="F702" s="39"/>
       <c r="G702" s="9"/>
       <c r="H702" s="9"/>
       <c r="I702" s="10"/>
     </row>
     <row r="703" ht="14.25" customHeight="1">
-      <c r="E703" s="37"/>
-      <c r="F703" s="37"/>
+      <c r="E703" s="39"/>
+      <c r="F703" s="39"/>
       <c r="G703" s="9"/>
       <c r="H703" s="9"/>
       <c r="I703" s="10"/>
     </row>
     <row r="704" ht="14.25" customHeight="1">
-      <c r="E704" s="37"/>
-      <c r="F704" s="37"/>
+      <c r="E704" s="39"/>
+      <c r="F704" s="39"/>
       <c r="G704" s="9"/>
       <c r="H704" s="9"/>
       <c r="I704" s="10"/>
     </row>
     <row r="705" ht="14.25" customHeight="1">
-      <c r="E705" s="37"/>
-      <c r="F705" s="37"/>
+      <c r="E705" s="39"/>
+      <c r="F705" s="39"/>
       <c r="G705" s="9"/>
       <c r="H705" s="9"/>
       <c r="I705" s="10"/>
     </row>
     <row r="706" ht="14.25" customHeight="1">
-      <c r="E706" s="37"/>
-      <c r="F706" s="37"/>
+      <c r="E706" s="39"/>
+      <c r="F706" s="39"/>
       <c r="G706" s="9"/>
       <c r="H706" s="9"/>
       <c r="I706" s="10"/>
     </row>
     <row r="707" ht="14.25" customHeight="1">
-      <c r="E707" s="37"/>
-      <c r="F707" s="37"/>
+      <c r="E707" s="39"/>
+      <c r="F707" s="39"/>
       <c r="G707" s="9"/>
       <c r="H707" s="9"/>
       <c r="I707" s="10"/>
     </row>
     <row r="708" ht="14.25" customHeight="1">
-      <c r="E708" s="37"/>
-      <c r="F708" s="37"/>
+      <c r="E708" s="39"/>
+      <c r="F708" s="39"/>
       <c r="G708" s="9"/>
       <c r="H708" s="9"/>
       <c r="I708" s="10"/>
     </row>
     <row r="709" ht="14.25" customHeight="1">
-      <c r="E709" s="37"/>
-      <c r="F709" s="37"/>
+      <c r="E709" s="39"/>
+      <c r="F709" s="39"/>
       <c r="G709" s="9"/>
       <c r="H709" s="9"/>
       <c r="I709" s="10"/>
     </row>
     <row r="710" ht="14.25" customHeight="1">
-      <c r="E710" s="37"/>
-      <c r="F710" s="37"/>
+      <c r="E710" s="39"/>
+      <c r="F710" s="39"/>
       <c r="G710" s="9"/>
       <c r="H710" s="9"/>
       <c r="I710" s="10"/>
     </row>
     <row r="711" ht="14.25" customHeight="1">
-      <c r="E711" s="37"/>
-      <c r="F711" s="37"/>
+      <c r="E711" s="39"/>
+      <c r="F711" s="39"/>
       <c r="G711" s="9"/>
       <c r="H711" s="9"/>
       <c r="I711" s="10"/>
     </row>
     <row r="712" ht="14.25" customHeight="1">
-      <c r="E712" s="37"/>
-      <c r="F712" s="37"/>
+      <c r="E712" s="39"/>
+      <c r="F712" s="39"/>
       <c r="G712" s="9"/>
       <c r="H712" s="9"/>
       <c r="I712" s="10"/>
     </row>
     <row r="713" ht="14.25" customHeight="1">
-      <c r="E713" s="37"/>
-      <c r="F713" s="37"/>
+      <c r="E713" s="39"/>
+      <c r="F713" s="39"/>
       <c r="G713" s="9"/>
       <c r="H713" s="9"/>
       <c r="I713" s="10"/>
     </row>
     <row r="714" ht="14.25" customHeight="1">
-      <c r="E714" s="37"/>
-      <c r="F714" s="37"/>
+      <c r="E714" s="39"/>
+      <c r="F714" s="39"/>
       <c r="G714" s="9"/>
       <c r="H714" s="9"/>
       <c r="I714" s="10"/>
     </row>
     <row r="715" ht="14.25" customHeight="1">
-      <c r="E715" s="37"/>
-      <c r="F715" s="37"/>
+      <c r="E715" s="39"/>
+      <c r="F715" s="39"/>
       <c r="G715" s="9"/>
       <c r="H715" s="9"/>
       <c r="I715" s="10"/>
     </row>
     <row r="716" ht="14.25" customHeight="1">
-      <c r="E716" s="37"/>
-      <c r="F716" s="37"/>
+      <c r="E716" s="39"/>
+      <c r="F716" s="39"/>
       <c r="G716" s="9"/>
       <c r="H716" s="9"/>
       <c r="I716" s="10"/>
     </row>
     <row r="717" ht="14.25" customHeight="1">
-      <c r="E717" s="37"/>
-      <c r="F717" s="37"/>
+      <c r="E717" s="39"/>
+      <c r="F717" s="39"/>
       <c r="G717" s="9"/>
       <c r="H717" s="9"/>
       <c r="I717" s="10"/>
     </row>
     <row r="718" ht="14.25" customHeight="1">
-      <c r="E718" s="37"/>
-      <c r="F718" s="37"/>
+      <c r="E718" s="39"/>
+      <c r="F718" s="39"/>
       <c r="G718" s="9"/>
       <c r="H718" s="9"/>
       <c r="I718" s="10"/>
     </row>
     <row r="719" ht="14.25" customHeight="1">
-      <c r="E719" s="37"/>
-      <c r="F719" s="37"/>
+      <c r="E719" s="39"/>
+      <c r="F719" s="39"/>
       <c r="G719" s="9"/>
       <c r="H719" s="9"/>
       <c r="I719" s="10"/>
     </row>
     <row r="720" ht="14.25" customHeight="1">
-      <c r="E720" s="37"/>
-      <c r="F720" s="37"/>
+      <c r="E720" s="39"/>
+      <c r="F720" s="39"/>
       <c r="G720" s="9"/>
       <c r="H720" s="9"/>
       <c r="I720" s="10"/>
     </row>
     <row r="721" ht="14.25" customHeight="1">
-      <c r="E721" s="37"/>
-      <c r="F721" s="37"/>
+      <c r="E721" s="39"/>
+      <c r="F721" s="39"/>
       <c r="G721" s="9"/>
       <c r="H721" s="9"/>
       <c r="I721" s="10"/>
     </row>
     <row r="722" ht="14.25" customHeight="1">
-      <c r="E722" s="37"/>
-      <c r="F722" s="37"/>
+      <c r="E722" s="39"/>
+      <c r="F722" s="39"/>
       <c r="G722" s="9"/>
       <c r="H722" s="9"/>
       <c r="I722" s="10"/>
     </row>
     <row r="723" ht="14.25" customHeight="1">
-      <c r="E723" s="37"/>
-      <c r="F723" s="37"/>
+      <c r="E723" s="39"/>
+      <c r="F723" s="39"/>
       <c r="G723" s="9"/>
       <c r="H723" s="9"/>
       <c r="I723" s="10"/>
     </row>
     <row r="724" ht="14.25" customHeight="1">
-      <c r="E724" s="37"/>
-      <c r="F724" s="37"/>
+      <c r="E724" s="39"/>
+      <c r="F724" s="39"/>
       <c r="G724" s="9"/>
       <c r="H724" s="9"/>
       <c r="I724" s="10"/>
     </row>
     <row r="725" ht="14.25" customHeight="1">
-      <c r="E725" s="37"/>
-      <c r="F725" s="37"/>
+      <c r="E725" s="39"/>
+      <c r="F725" s="39"/>
       <c r="G725" s="9"/>
       <c r="H725" s="9"/>
       <c r="I725" s="10"/>
     </row>
     <row r="726" ht="14.25" customHeight="1">
-      <c r="E726" s="37"/>
-      <c r="F726" s="37"/>
+      <c r="E726" s="39"/>
+      <c r="F726" s="39"/>
       <c r="G726" s="9"/>
       <c r="H726" s="9"/>
       <c r="I726" s="10"/>
     </row>
     <row r="727" ht="14.25" customHeight="1">
-      <c r="E727" s="37"/>
-      <c r="F727" s="37"/>
+      <c r="E727" s="39"/>
+      <c r="F727" s="39"/>
       <c r="G727" s="9"/>
       <c r="H727" s="9"/>
       <c r="I727" s="10"/>
     </row>
     <row r="728" ht="14.25" customHeight="1">
-      <c r="E728" s="37"/>
-      <c r="F728" s="37"/>
+      <c r="E728" s="39"/>
+      <c r="F728" s="39"/>
       <c r="G728" s="9"/>
       <c r="H728" s="9"/>
       <c r="I728" s="10"/>
     </row>
     <row r="729" ht="14.25" customHeight="1">
-      <c r="E729" s="37"/>
-      <c r="F729" s="37"/>
+      <c r="E729" s="39"/>
+      <c r="F729" s="39"/>
       <c r="G729" s="9"/>
       <c r="H729" s="9"/>
       <c r="I729" s="10"/>
     </row>
     <row r="730" ht="14.25" customHeight="1">
-      <c r="E730" s="37"/>
-      <c r="F730" s="37"/>
+      <c r="E730" s="39"/>
+      <c r="F730" s="39"/>
       <c r="G730" s="9"/>
       <c r="H730" s="9"/>
       <c r="I730" s="10"/>
     </row>
     <row r="731" ht="14.25" customHeight="1">
-      <c r="E731" s="37"/>
-      <c r="F731" s="37"/>
+      <c r="E731" s="39"/>
+      <c r="F731" s="39"/>
       <c r="G731" s="9"/>
       <c r="H731" s="9"/>
       <c r="I731" s="10"/>
     </row>
     <row r="732" ht="14.25" customHeight="1">
-      <c r="E732" s="37"/>
-      <c r="F732" s="37"/>
+      <c r="E732" s="39"/>
+      <c r="F732" s="39"/>
       <c r="G732" s="9"/>
       <c r="H732" s="9"/>
       <c r="I732" s="10"/>
     </row>
     <row r="733" ht="14.25" customHeight="1">
-      <c r="E733" s="37"/>
-      <c r="F733" s="37"/>
+      <c r="E733" s="39"/>
+      <c r="F733" s="39"/>
       <c r="G733" s="9"/>
       <c r="H733" s="9"/>
       <c r="I733" s="10"/>
     </row>
     <row r="734" ht="14.25" customHeight="1">
-      <c r="E734" s="37"/>
-      <c r="F734" s="37"/>
+      <c r="E734" s="39"/>
+      <c r="F734" s="39"/>
       <c r="G734" s="9"/>
       <c r="H734" s="9"/>
       <c r="I734" s="10"/>
     </row>
     <row r="735" ht="14.25" customHeight="1">
-      <c r="E735" s="37"/>
-      <c r="F735" s="37"/>
+      <c r="E735" s="39"/>
+      <c r="F735" s="39"/>
       <c r="G735" s="9"/>
       <c r="H735" s="9"/>
       <c r="I735" s="10"/>
     </row>
     <row r="736" ht="14.25" customHeight="1">
-      <c r="E736" s="37"/>
-      <c r="F736" s="37"/>
+      <c r="E736" s="39"/>
+      <c r="F736" s="39"/>
       <c r="G736" s="9"/>
       <c r="H736" s="9"/>
       <c r="I736" s="10"/>
     </row>
     <row r="737" ht="14.25" customHeight="1">
-      <c r="E737" s="37"/>
-      <c r="F737" s="37"/>
+      <c r="E737" s="39"/>
+      <c r="F737" s="39"/>
       <c r="G737" s="9"/>
       <c r="H737" s="9"/>
       <c r="I737" s="10"/>
     </row>
     <row r="738" ht="14.25" customHeight="1">
-      <c r="E738" s="37"/>
-      <c r="F738" s="37"/>
+      <c r="E738" s="39"/>
+      <c r="F738" s="39"/>
       <c r="G738" s="9"/>
       <c r="H738" s="9"/>
       <c r="I738" s="10"/>
     </row>
     <row r="739" ht="14.25" customHeight="1">
-      <c r="E739" s="37"/>
-      <c r="F739" s="37"/>
+      <c r="E739" s="39"/>
+      <c r="F739" s="39"/>
       <c r="G739" s="9"/>
       <c r="H739" s="9"/>
       <c r="I739" s="10"/>
     </row>
     <row r="740" ht="14.25" customHeight="1">
-      <c r="E740" s="37"/>
-      <c r="F740" s="37"/>
+      <c r="E740" s="39"/>
+      <c r="F740" s="39"/>
       <c r="G740" s="9"/>
       <c r="H740" s="9"/>
       <c r="I740" s="10"/>
     </row>
     <row r="741" ht="14.25" customHeight="1">
-      <c r="E741" s="37"/>
-      <c r="F741" s="37"/>
+      <c r="E741" s="39"/>
+      <c r="F741" s="39"/>
       <c r="G741" s="9"/>
       <c r="H741" s="9"/>
       <c r="I741" s="10"/>
     </row>
     <row r="742" ht="14.25" customHeight="1">
-      <c r="E742" s="37"/>
-      <c r="F742" s="37"/>
+      <c r="E742" s="39"/>
+      <c r="F742" s="39"/>
       <c r="G742" s="9"/>
       <c r="H742" s="9"/>
       <c r="I742" s="10"/>
     </row>
     <row r="743" ht="14.25" customHeight="1">
-      <c r="E743" s="37"/>
-      <c r="F743" s="37"/>
+      <c r="E743" s="39"/>
+      <c r="F743" s="39"/>
       <c r="G743" s="9"/>
       <c r="H743" s="9"/>
       <c r="I743" s="10"/>
     </row>
     <row r="744" ht="14.25" customHeight="1">
-      <c r="E744" s="37"/>
-      <c r="F744" s="37"/>
+      <c r="E744" s="39"/>
+      <c r="F744" s="39"/>
       <c r="G744" s="9"/>
       <c r="H744" s="9"/>
       <c r="I744" s="10"/>
     </row>
     <row r="745" ht="14.25" customHeight="1">
-      <c r="E745" s="37"/>
-      <c r="F745" s="37"/>
+      <c r="E745" s="39"/>
+      <c r="F745" s="39"/>
       <c r="G745" s="9"/>
       <c r="H745" s="9"/>
       <c r="I745" s="10"/>
     </row>
     <row r="746" ht="14.25" customHeight="1">
-      <c r="E746" s="37"/>
-      <c r="F746" s="37"/>
+      <c r="E746" s="39"/>
+      <c r="F746" s="39"/>
       <c r="G746" s="9"/>
       <c r="H746" s="9"/>
       <c r="I746" s="10"/>
     </row>
     <row r="747" ht="14.25" customHeight="1">
-      <c r="E747" s="37"/>
-      <c r="F747" s="37"/>
+      <c r="E747" s="39"/>
+      <c r="F747" s="39"/>
       <c r="G747" s="9"/>
       <c r="H747" s="9"/>
       <c r="I747" s="10"/>
     </row>
     <row r="748" ht="14.25" customHeight="1">
-      <c r="E748" s="37"/>
-      <c r="F748" s="37"/>
+      <c r="E748" s="39"/>
+      <c r="F748" s="39"/>
       <c r="G748" s="9"/>
       <c r="H748" s="9"/>
       <c r="I748" s="10"/>
     </row>
     <row r="749" ht="14.25" customHeight="1">
-      <c r="E749" s="37"/>
-      <c r="F749" s="37"/>
+      <c r="E749" s="39"/>
+      <c r="F749" s="39"/>
       <c r="G749" s="9"/>
       <c r="H749" s="9"/>
       <c r="I749" s="10"/>
     </row>
     <row r="750" ht="14.25" customHeight="1">
-      <c r="E750" s="37"/>
-      <c r="F750" s="37"/>
+      <c r="E750" s="39"/>
+      <c r="F750" s="39"/>
       <c r="G750" s="9"/>
       <c r="H750" s="9"/>
       <c r="I750" s="10"/>
     </row>
     <row r="751" ht="14.25" customHeight="1">
-      <c r="E751" s="37"/>
-      <c r="F751" s="37"/>
+      <c r="E751" s="39"/>
+      <c r="F751" s="39"/>
       <c r="G751" s="9"/>
       <c r="H751" s="9"/>
       <c r="I751" s="10"/>
     </row>
     <row r="752" ht="14.25" customHeight="1">
-      <c r="E752" s="37"/>
-      <c r="F752" s="37"/>
+      <c r="E752" s="39"/>
+      <c r="F752" s="39"/>
       <c r="G752" s="9"/>
       <c r="H752" s="9"/>
       <c r="I752" s="10"/>
     </row>
     <row r="753" ht="14.25" customHeight="1">
-      <c r="E753" s="37"/>
-      <c r="F753" s="37"/>
+      <c r="E753" s="39"/>
+      <c r="F753" s="39"/>
       <c r="G753" s="9"/>
       <c r="H753" s="9"/>
       <c r="I753" s="10"/>
     </row>
     <row r="754" ht="14.25" customHeight="1">
-      <c r="E754" s="37"/>
-      <c r="F754" s="37"/>
+      <c r="E754" s="39"/>
+      <c r="F754" s="39"/>
       <c r="G754" s="9"/>
       <c r="H754" s="9"/>
       <c r="I754" s="10"/>
     </row>
     <row r="755" ht="14.25" customHeight="1">
-      <c r="E755" s="37"/>
-      <c r="F755" s="37"/>
+      <c r="E755" s="39"/>
+      <c r="F755" s="39"/>
       <c r="G755" s="9"/>
       <c r="H755" s="9"/>
       <c r="I755" s="10"/>
     </row>
     <row r="756" ht="14.25" customHeight="1">
-      <c r="E756" s="37"/>
-      <c r="F756" s="37"/>
+      <c r="E756" s="39"/>
+      <c r="F756" s="39"/>
       <c r="G756" s="9"/>
       <c r="H756" s="9"/>
       <c r="I756" s="10"/>
     </row>
     <row r="757" ht="14.25" customHeight="1">
-      <c r="E757" s="37"/>
-      <c r="F757" s="37"/>
+      <c r="E757" s="39"/>
+      <c r="F757" s="39"/>
       <c r="G757" s="9"/>
       <c r="H757" s="9"/>
       <c r="I757" s="10"/>
     </row>
     <row r="758" ht="14.25" customHeight="1">
-      <c r="E758" s="37"/>
-      <c r="F758" s="37"/>
+      <c r="E758" s="39"/>
+      <c r="F758" s="39"/>
       <c r="G758" s="9"/>
       <c r="H758" s="9"/>
       <c r="I758" s="10"/>
     </row>
     <row r="759" ht="14.25" customHeight="1">
-      <c r="E759" s="37"/>
-      <c r="F759" s="37"/>
+      <c r="E759" s="39"/>
+      <c r="F759" s="39"/>
       <c r="G759" s="9"/>
       <c r="H759" s="9"/>
       <c r="I759" s="10"/>
     </row>
     <row r="760" ht="14.25" customHeight="1">
-      <c r="E760" s="37"/>
-      <c r="F760" s="37"/>
+      <c r="E760" s="39"/>
+      <c r="F760" s="39"/>
       <c r="G760" s="9"/>
       <c r="H760" s="9"/>
       <c r="I760" s="10"/>
     </row>
     <row r="761" ht="14.25" customHeight="1">
-      <c r="E761" s="37"/>
-      <c r="F761" s="37"/>
+      <c r="E761" s="39"/>
+      <c r="F761" s="39"/>
       <c r="G761" s="9"/>
       <c r="H761" s="9"/>
       <c r="I761" s="10"/>
     </row>
     <row r="762" ht="14.25" customHeight="1">
-      <c r="E762" s="37"/>
-      <c r="F762" s="37"/>
+      <c r="E762" s="39"/>
+      <c r="F762" s="39"/>
       <c r="G762" s="9"/>
       <c r="H762" s="9"/>
       <c r="I762" s="10"/>
     </row>
     <row r="763" ht="14.25" customHeight="1">
-      <c r="E763" s="37"/>
-      <c r="F763" s="37"/>
+      <c r="E763" s="39"/>
+      <c r="F763" s="39"/>
       <c r="G763" s="9"/>
       <c r="H763" s="9"/>
       <c r="I763" s="10"/>
     </row>
     <row r="764" ht="14.25" customHeight="1">
-      <c r="E764" s="37"/>
-      <c r="F764" s="37"/>
+      <c r="E764" s="39"/>
+      <c r="F764" s="39"/>
       <c r="G764" s="9"/>
       <c r="H764" s="9"/>
       <c r="I764" s="10"/>
     </row>
     <row r="765" ht="14.25" customHeight="1">
-      <c r="E765" s="37"/>
-      <c r="F765" s="37"/>
+      <c r="E765" s="39"/>
+      <c r="F765" s="39"/>
       <c r="G765" s="9"/>
       <c r="H765" s="9"/>
       <c r="I765" s="10"/>
     </row>
     <row r="766" ht="14.25" customHeight="1">
-      <c r="E766" s="37"/>
-      <c r="F766" s="37"/>
+      <c r="E766" s="39"/>
+      <c r="F766" s="39"/>
       <c r="G766" s="9"/>
       <c r="H766" s="9"/>
       <c r="I766" s="10"/>
     </row>
     <row r="767" ht="14.25" customHeight="1">
-      <c r="E767" s="37"/>
-      <c r="F767" s="37"/>
+      <c r="E767" s="39"/>
+      <c r="F767" s="39"/>
       <c r="G767" s="9"/>
       <c r="H767" s="9"/>
       <c r="I767" s="10"/>
     </row>
     <row r="768" ht="14.25" customHeight="1">
-      <c r="E768" s="37"/>
-      <c r="F768" s="37"/>
+      <c r="E768" s="39"/>
+      <c r="F768" s="39"/>
       <c r="G768" s="9"/>
       <c r="H768" s="9"/>
       <c r="I768" s="10"/>
     </row>
     <row r="769" ht="14.25" customHeight="1">
-      <c r="E769" s="37"/>
-      <c r="F769" s="37"/>
+      <c r="E769" s="39"/>
+      <c r="F769" s="39"/>
       <c r="G769" s="9"/>
       <c r="H769" s="9"/>
       <c r="I769" s="10"/>
     </row>
     <row r="770" ht="14.25" customHeight="1">
-      <c r="E770" s="37"/>
-      <c r="F770" s="37"/>
+      <c r="E770" s="39"/>
+      <c r="F770" s="39"/>
       <c r="G770" s="9"/>
       <c r="H770" s="9"/>
       <c r="I770" s="10"/>
     </row>
     <row r="771" ht="14.25" customHeight="1">
-      <c r="E771" s="37"/>
-      <c r="F771" s="37"/>
+      <c r="E771" s="39"/>
+      <c r="F771" s="39"/>
       <c r="G771" s="9"/>
       <c r="H771" s="9"/>
       <c r="I771" s="10"/>
     </row>
     <row r="772" ht="14.25" customHeight="1">
-      <c r="E772" s="37"/>
-      <c r="F772" s="37"/>
+      <c r="E772" s="39"/>
+      <c r="F772" s="39"/>
       <c r="G772" s="9"/>
       <c r="H772" s="9"/>
       <c r="I772" s="10"/>
     </row>
     <row r="773" ht="14.25" customHeight="1">
-      <c r="E773" s="37"/>
-      <c r="F773" s="37"/>
+      <c r="E773" s="39"/>
+      <c r="F773" s="39"/>
       <c r="G773" s="9"/>
       <c r="H773" s="9"/>
       <c r="I773" s="10"/>
     </row>
     <row r="774" ht="14.25" customHeight="1">
-      <c r="E774" s="37"/>
-      <c r="F774" s="37"/>
+      <c r="E774" s="39"/>
+      <c r="F774" s="39"/>
       <c r="G774" s="9"/>
       <c r="H774" s="9"/>
       <c r="I774" s="10"/>
     </row>
     <row r="775" ht="14.25" customHeight="1">
-      <c r="E775" s="37"/>
-      <c r="F775" s="37"/>
+      <c r="E775" s="39"/>
+      <c r="F775" s="39"/>
       <c r="G775" s="9"/>
       <c r="H775" s="9"/>
       <c r="I775" s="10"/>
     </row>
     <row r="776" ht="14.25" customHeight="1">
-      <c r="E776" s="37"/>
-      <c r="F776" s="37"/>
+      <c r="E776" s="39"/>
+      <c r="F776" s="39"/>
       <c r="G776" s="9"/>
       <c r="H776" s="9"/>
       <c r="I776" s="10"/>
     </row>
     <row r="777" ht="14.25" customHeight="1">
-      <c r="E777" s="37"/>
-      <c r="F777" s="37"/>
+      <c r="E777" s="39"/>
+      <c r="F777" s="39"/>
       <c r="G777" s="9"/>
       <c r="H777" s="9"/>
       <c r="I777" s="10"/>
     </row>
     <row r="778" ht="14.25" customHeight="1">
-      <c r="E778" s="37"/>
-      <c r="F778" s="37"/>
+      <c r="E778" s="39"/>
+      <c r="F778" s="39"/>
       <c r="G778" s="9"/>
       <c r="H778" s="9"/>
       <c r="I778" s="10"/>
     </row>
     <row r="779" ht="14.25" customHeight="1">
-      <c r="E779" s="37"/>
-      <c r="F779" s="37"/>
+      <c r="E779" s="39"/>
+      <c r="F779" s="39"/>
       <c r="G779" s="9"/>
       <c r="H779" s="9"/>
       <c r="I779" s="10"/>
     </row>
     <row r="780" ht="14.25" customHeight="1">
-      <c r="E780" s="37"/>
-      <c r="F780" s="37"/>
+      <c r="E780" s="39"/>
+      <c r="F780" s="39"/>
       <c r="G780" s="9"/>
       <c r="H780" s="9"/>
       <c r="I780" s="10"/>
     </row>
     <row r="781" ht="14.25" customHeight="1">
-      <c r="E781" s="37"/>
-      <c r="F781" s="37"/>
+      <c r="E781" s="39"/>
+      <c r="F781" s="39"/>
       <c r="G781" s="9"/>
       <c r="H781" s="9"/>
       <c r="I781" s="10"/>
     </row>
     <row r="782" ht="14.25" customHeight="1">
-      <c r="E782" s="37"/>
-      <c r="F782" s="37"/>
+      <c r="E782" s="39"/>
+      <c r="F782" s="39"/>
       <c r="G782" s="9"/>
       <c r="H782" s="9"/>
       <c r="I782" s="10"/>
     </row>
     <row r="783" ht="14.25" customHeight="1">
-      <c r="E783" s="37"/>
-      <c r="F783" s="37"/>
+      <c r="E783" s="39"/>
+      <c r="F783" s="39"/>
       <c r="G783" s="9"/>
       <c r="H783" s="9"/>
       <c r="I783" s="10"/>
     </row>
     <row r="784" ht="14.25" customHeight="1">
-      <c r="E784" s="37"/>
-      <c r="F784" s="37"/>
+      <c r="E784" s="39"/>
+      <c r="F784" s="39"/>
       <c r="G784" s="9"/>
       <c r="H784" s="9"/>
       <c r="I784" s="10"/>
     </row>
     <row r="785" ht="14.25" customHeight="1">
-      <c r="E785" s="37"/>
-      <c r="F785" s="37"/>
+      <c r="E785" s="39"/>
+      <c r="F785" s="39"/>
       <c r="G785" s="9"/>
       <c r="H785" s="9"/>
       <c r="I785" s="10"/>
     </row>
     <row r="786" ht="14.25" customHeight="1">
-      <c r="E786" s="37"/>
-      <c r="F786" s="37"/>
+      <c r="E786" s="39"/>
+      <c r="F786" s="39"/>
       <c r="G786" s="9"/>
       <c r="H786" s="9"/>
       <c r="I786" s="10"/>
     </row>
     <row r="787" ht="14.25" customHeight="1">
-      <c r="E787" s="37"/>
-      <c r="F787" s="37"/>
+      <c r="E787" s="39"/>
+      <c r="F787" s="39"/>
       <c r="G787" s="9"/>
       <c r="H787" s="9"/>
       <c r="I787" s="10"/>
     </row>
     <row r="788" ht="14.25" customHeight="1">
-      <c r="E788" s="37"/>
-      <c r="F788" s="37"/>
+      <c r="E788" s="39"/>
+      <c r="F788" s="39"/>
       <c r="G788" s="9"/>
       <c r="H788" s="9"/>
       <c r="I788" s="10"/>
     </row>
     <row r="789" ht="14.25" customHeight="1">
-      <c r="E789" s="37"/>
-      <c r="F789" s="37"/>
+      <c r="E789" s="39"/>
+      <c r="F789" s="39"/>
       <c r="G789" s="9"/>
       <c r="H789" s="9"/>
       <c r="I789" s="10"/>
     </row>
     <row r="790" ht="14.25" customHeight="1">
-      <c r="E790" s="37"/>
-      <c r="F790" s="37"/>
+      <c r="E790" s="39"/>
+      <c r="F790" s="39"/>
       <c r="G790" s="9"/>
       <c r="H790" s="9"/>
       <c r="I790" s="10"/>
     </row>
     <row r="791" ht="14.25" customHeight="1">
-      <c r="E791" s="37"/>
-      <c r="F791" s="37"/>
+      <c r="E791" s="39"/>
+      <c r="F791" s="39"/>
       <c r="G791" s="9"/>
       <c r="H791" s="9"/>
       <c r="I791" s="10"/>
     </row>
     <row r="792" ht="14.25" customHeight="1">
-      <c r="E792" s="37"/>
-      <c r="F792" s="37"/>
+      <c r="E792" s="39"/>
+      <c r="F792" s="39"/>
       <c r="G792" s="9"/>
       <c r="H792" s="9"/>
       <c r="I792" s="10"/>
     </row>
     <row r="793" ht="14.25" customHeight="1">
-      <c r="E793" s="37"/>
-      <c r="F793" s="37"/>
+      <c r="E793" s="39"/>
+      <c r="F793" s="39"/>
       <c r="G793" s="9"/>
       <c r="H793" s="9"/>
       <c r="I793" s="10"/>
     </row>
     <row r="794" ht="14.25" customHeight="1">
-      <c r="E794" s="37"/>
-      <c r="F794" s="37"/>
+      <c r="E794" s="39"/>
+      <c r="F794" s="39"/>
       <c r="G794" s="9"/>
       <c r="H794" s="9"/>
       <c r="I794" s="10"/>
     </row>
     <row r="795" ht="14.25" customHeight="1">
-      <c r="E795" s="37"/>
-      <c r="F795" s="37"/>
+      <c r="E795" s="39"/>
+      <c r="F795" s="39"/>
       <c r="G795" s="9"/>
       <c r="H795" s="9"/>
       <c r="I795" s="10"/>
     </row>
     <row r="796" ht="14.25" customHeight="1">
-      <c r="E796" s="37"/>
-      <c r="F796" s="37"/>
+      <c r="E796" s="39"/>
+      <c r="F796" s="39"/>
       <c r="G796" s="9"/>
       <c r="H796" s="9"/>
       <c r="I796" s="10"/>
     </row>
     <row r="797" ht="14.25" customHeight="1">
-      <c r="E797" s="37"/>
-      <c r="F797" s="37"/>
+      <c r="E797" s="39"/>
+      <c r="F797" s="39"/>
       <c r="G797" s="9"/>
       <c r="H797" s="9"/>
       <c r="I797" s="10"/>
     </row>
     <row r="798" ht="14.25" customHeight="1">
-      <c r="E798" s="37"/>
-      <c r="F798" s="37"/>
+      <c r="E798" s="39"/>
+      <c r="F798" s="39"/>
       <c r="G798" s="9"/>
       <c r="H798" s="9"/>
       <c r="I798" s="10"/>
     </row>
     <row r="799" ht="14.25" customHeight="1">
-      <c r="E799" s="37"/>
-      <c r="F799" s="37"/>
+      <c r="E799" s="39"/>
+      <c r="F799" s="39"/>
       <c r="G799" s="9"/>
       <c r="H799" s="9"/>
       <c r="I799" s="10"/>
     </row>
     <row r="800" ht="14.25" customHeight="1">
-      <c r="E800" s="37"/>
-      <c r="F800" s="37"/>
+      <c r="E800" s="39"/>
+      <c r="F800" s="39"/>
       <c r="G800" s="9"/>
       <c r="H800" s="9"/>
       <c r="I800" s="10"/>
     </row>
     <row r="801" ht="14.25" customHeight="1">
-      <c r="E801" s="37"/>
-      <c r="F801" s="37"/>
+      <c r="E801" s="39"/>
+      <c r="F801" s="39"/>
       <c r="G801" s="9"/>
       <c r="H801" s="9"/>
       <c r="I801" s="10"/>
     </row>
     <row r="802" ht="14.25" customHeight="1">
-      <c r="E802" s="37"/>
-      <c r="F802" s="37"/>
+      <c r="E802" s="39"/>
+      <c r="F802" s="39"/>
       <c r="G802" s="9"/>
       <c r="H802" s="9"/>
       <c r="I802" s="10"/>
     </row>
     <row r="803" ht="14.25" customHeight="1">
-      <c r="E803" s="37"/>
-      <c r="F803" s="37"/>
+      <c r="E803" s="39"/>
+      <c r="F803" s="39"/>
       <c r="G803" s="9"/>
       <c r="H803" s="9"/>
       <c r="I803" s="10"/>
     </row>
     <row r="804" ht="14.25" customHeight="1">
-      <c r="E804" s="37"/>
-      <c r="F804" s="37"/>
+      <c r="E804" s="39"/>
+      <c r="F804" s="39"/>
       <c r="G804" s="9"/>
       <c r="H804" s="9"/>
       <c r="I804" s="10"/>
     </row>
     <row r="805" ht="14.25" customHeight="1">
-      <c r="E805" s="37"/>
-      <c r="F805" s="37"/>
+      <c r="E805" s="39"/>
+      <c r="F805" s="39"/>
       <c r="G805" s="9"/>
       <c r="H805" s="9"/>
       <c r="I805" s="10"/>
     </row>
     <row r="806" ht="14.25" customHeight="1">
-      <c r="E806" s="37"/>
-      <c r="F806" s="37"/>
+      <c r="E806" s="39"/>
+      <c r="F806" s="39"/>
       <c r="G806" s="9"/>
       <c r="H806" s="9"/>
       <c r="I806" s="10"/>
     </row>
     <row r="807" ht="14.25" customHeight="1">
-      <c r="E807" s="37"/>
-      <c r="F807" s="37"/>
+      <c r="E807" s="39"/>
+      <c r="F807" s="39"/>
       <c r="G807" s="9"/>
       <c r="H807" s="9"/>
       <c r="I807" s="10"/>
     </row>
     <row r="808" ht="14.25" customHeight="1">
-      <c r="E808" s="37"/>
-      <c r="F808" s="37"/>
+      <c r="E808" s="39"/>
+      <c r="F808" s="39"/>
       <c r="G808" s="9"/>
       <c r="H808" s="9"/>
       <c r="I808" s="10"/>
     </row>
     <row r="809" ht="14.25" customHeight="1">
-      <c r="E809" s="37"/>
-      <c r="F809" s="37"/>
+      <c r="E809" s="39"/>
+      <c r="F809" s="39"/>
       <c r="G809" s="9"/>
       <c r="H809" s="9"/>
       <c r="I809" s="10"/>
     </row>
     <row r="810" ht="14.25" customHeight="1">
-      <c r="E810" s="37"/>
-      <c r="F810" s="37"/>
+      <c r="E810" s="39"/>
+      <c r="F810" s="39"/>
       <c r="G810" s="9"/>
       <c r="H810" s="9"/>
       <c r="I810" s="10"/>
     </row>
     <row r="811" ht="14.25" customHeight="1">
-      <c r="E811" s="37"/>
-      <c r="F811" s="37"/>
+      <c r="E811" s="39"/>
+      <c r="F811" s="39"/>
       <c r="G811" s="9"/>
       <c r="H811" s="9"/>
       <c r="I811" s="10"/>
     </row>
     <row r="812" ht="14.25" customHeight="1">
-      <c r="E812" s="37"/>
-      <c r="F812" s="37"/>
+      <c r="E812" s="39"/>
+      <c r="F812" s="39"/>
       <c r="G812" s="9"/>
       <c r="H812" s="9"/>
       <c r="I812" s="10"/>
     </row>
     <row r="813" ht="14.25" customHeight="1">
-      <c r="E813" s="37"/>
-      <c r="F813" s="37"/>
+      <c r="E813" s="39"/>
+      <c r="F813" s="39"/>
       <c r="G813" s="9"/>
       <c r="H813" s="9"/>
       <c r="I813" s="10"/>
     </row>
     <row r="814" ht="14.25" customHeight="1">
-      <c r="E814" s="37"/>
-      <c r="F814" s="37"/>
+      <c r="E814" s="39"/>
+      <c r="F814" s="39"/>
       <c r="G814" s="9"/>
       <c r="H814" s="9"/>
       <c r="I814" s="10"/>
     </row>
     <row r="815" ht="14.25" customHeight="1">
-      <c r="E815" s="37"/>
-      <c r="F815" s="37"/>
+      <c r="E815" s="39"/>
+      <c r="F815" s="39"/>
       <c r="G815" s="9"/>
       <c r="H815" s="9"/>
       <c r="I815" s="10"/>
     </row>
     <row r="816" ht="14.25" customHeight="1">
-      <c r="E816" s="37"/>
-      <c r="F816" s="37"/>
+      <c r="E816" s="39"/>
+      <c r="F816" s="39"/>
       <c r="G816" s="9"/>
       <c r="H816" s="9"/>
       <c r="I816" s="10"/>
     </row>
     <row r="817" ht="14.25" customHeight="1">
-      <c r="E817" s="37"/>
-      <c r="F817" s="37"/>
+      <c r="E817" s="39"/>
+      <c r="F817" s="39"/>
       <c r="G817" s="9"/>
       <c r="H817" s="9"/>
       <c r="I817" s="10"/>
     </row>
     <row r="818" ht="14.25" customHeight="1">
-      <c r="E818" s="37"/>
-      <c r="F818" s="37"/>
+      <c r="E818" s="39"/>
+      <c r="F818" s="39"/>
       <c r="G818" s="9"/>
       <c r="H818" s="9"/>
       <c r="I818" s="10"/>
     </row>
     <row r="819" ht="14.25" customHeight="1">
-      <c r="E819" s="37"/>
-      <c r="F819" s="37"/>
+      <c r="E819" s="39"/>
+      <c r="F819" s="39"/>
       <c r="G819" s="9"/>
       <c r="H819" s="9"/>
       <c r="I819" s="10"/>
     </row>
     <row r="820" ht="14.25" customHeight="1">
-      <c r="E820" s="37"/>
-      <c r="F820" s="37"/>
+      <c r="E820" s="39"/>
+      <c r="F820" s="39"/>
       <c r="G820" s="9"/>
       <c r="H820" s="9"/>
       <c r="I820" s="10"/>
     </row>
     <row r="821" ht="14.25" customHeight="1">
-      <c r="E821" s="37"/>
-      <c r="F821" s="37"/>
+      <c r="E821" s="39"/>
+      <c r="F821" s="39"/>
       <c r="G821" s="9"/>
       <c r="H821" s="9"/>
       <c r="I821" s="10"/>
     </row>
     <row r="822" ht="14.25" customHeight="1">
-      <c r="E822" s="37"/>
-      <c r="F822" s="37"/>
+      <c r="E822" s="39"/>
+      <c r="F822" s="39"/>
       <c r="G822" s="9"/>
       <c r="H822" s="9"/>
       <c r="I822" s="10"/>
     </row>
     <row r="823" ht="14.25" customHeight="1">
-      <c r="E823" s="37"/>
-      <c r="F823" s="37"/>
+      <c r="E823" s="39"/>
+      <c r="F823" s="39"/>
       <c r="G823" s="9"/>
       <c r="H823" s="9"/>
       <c r="I823" s="10"/>
     </row>
     <row r="824" ht="14.25" customHeight="1">
-      <c r="E824" s="37"/>
-      <c r="F824" s="37"/>
+      <c r="E824" s="39"/>
+      <c r="F824" s="39"/>
       <c r="G824" s="9"/>
       <c r="H824" s="9"/>
       <c r="I824" s="10"/>
     </row>
     <row r="825" ht="14.25" customHeight="1">
-      <c r="E825" s="37"/>
-      <c r="F825" s="37"/>
+      <c r="E825" s="39"/>
+      <c r="F825" s="39"/>
       <c r="G825" s="9"/>
       <c r="H825" s="9"/>
       <c r="I825" s="10"/>
     </row>
     <row r="826" ht="14.25" customHeight="1">
-      <c r="E826" s="37"/>
-      <c r="F826" s="37"/>
+      <c r="E826" s="39"/>
+      <c r="F826" s="39"/>
       <c r="G826" s="9"/>
       <c r="H826" s="9"/>
       <c r="I826" s="10"/>
     </row>
     <row r="827" ht="14.25" customHeight="1">
-      <c r="E827" s="37"/>
-      <c r="F827" s="37"/>
+      <c r="E827" s="39"/>
+      <c r="F827" s="39"/>
       <c r="G827" s="9"/>
       <c r="H827" s="9"/>
       <c r="I827" s="10"/>
     </row>
     <row r="828" ht="14.25" customHeight="1">
-      <c r="E828" s="37"/>
-      <c r="F828" s="37"/>
+      <c r="E828" s="39"/>
+      <c r="F828" s="39"/>
       <c r="G828" s="9"/>
       <c r="H828" s="9"/>
       <c r="I828" s="10"/>
     </row>
     <row r="829" ht="14.25" customHeight="1">
-      <c r="E829" s="37"/>
-      <c r="F829" s="37"/>
+      <c r="E829" s="39"/>
+      <c r="F829" s="39"/>
       <c r="G829" s="9"/>
       <c r="H829" s="9"/>
       <c r="I829" s="10"/>
     </row>
     <row r="830" ht="14.25" customHeight="1">
-      <c r="E830" s="37"/>
-      <c r="F830" s="37"/>
+      <c r="E830" s="39"/>
+      <c r="F830" s="39"/>
       <c r="G830" s="9"/>
       <c r="H830" s="9"/>
       <c r="I830" s="10"/>
     </row>
     <row r="831" ht="14.25" customHeight="1">
-      <c r="E831" s="37"/>
-      <c r="F831" s="37"/>
+      <c r="E831" s="39"/>
+      <c r="F831" s="39"/>
       <c r="G831" s="9"/>
       <c r="H831" s="9"/>
       <c r="I831" s="10"/>
     </row>
     <row r="832" ht="14.25" customHeight="1">
-      <c r="E832" s="37"/>
-      <c r="F832" s="37"/>
+      <c r="E832" s="39"/>
+      <c r="F832" s="39"/>
       <c r="G832" s="9"/>
       <c r="H832" s="9"/>
       <c r="I832" s="10"/>
     </row>
     <row r="833" ht="14.25" customHeight="1">
-      <c r="E833" s="37"/>
-      <c r="F833" s="37"/>
+      <c r="E833" s="39"/>
+      <c r="F833" s="39"/>
       <c r="G833" s="9"/>
       <c r="H833" s="9"/>
       <c r="I833" s="10"/>
     </row>
     <row r="834" ht="14.25" customHeight="1">
-      <c r="E834" s="37"/>
-      <c r="F834" s="37"/>
+      <c r="E834" s="39"/>
+      <c r="F834" s="39"/>
       <c r="G834" s="9"/>
       <c r="H834" s="9"/>
       <c r="I834" s="10"/>
     </row>
     <row r="835" ht="14.25" customHeight="1">
-      <c r="E835" s="37"/>
-      <c r="F835" s="37"/>
+      <c r="E835" s="39"/>
+      <c r="F835" s="39"/>
       <c r="G835" s="9"/>
       <c r="H835" s="9"/>
       <c r="I835" s="10"/>
     </row>
     <row r="836" ht="14.25" customHeight="1">
-      <c r="E836" s="37"/>
-      <c r="F836" s="37"/>
+      <c r="E836" s="39"/>
+      <c r="F836" s="39"/>
       <c r="G836" s="9"/>
       <c r="H836" s="9"/>
       <c r="I836" s="10"/>
     </row>
     <row r="837" ht="14.25" customHeight="1">
-      <c r="E837" s="37"/>
-      <c r="F837" s="37"/>
+      <c r="E837" s="39"/>
+      <c r="F837" s="39"/>
       <c r="G837" s="9"/>
       <c r="H837" s="9"/>
       <c r="I837" s="10"/>
     </row>
     <row r="838" ht="14.25" customHeight="1">
-      <c r="E838" s="37"/>
-      <c r="F838" s="37"/>
+      <c r="E838" s="39"/>
+      <c r="F838" s="39"/>
       <c r="G838" s="9"/>
       <c r="H838" s="9"/>
       <c r="I838" s="10"/>
     </row>
     <row r="839" ht="14.25" customHeight="1">
-      <c r="E839" s="37"/>
-      <c r="F839" s="37"/>
+      <c r="E839" s="39"/>
+      <c r="F839" s="39"/>
       <c r="G839" s="9"/>
       <c r="H839" s="9"/>
       <c r="I839" s="10"/>
     </row>
     <row r="840" ht="14.25" customHeight="1">
-      <c r="E840" s="37"/>
-      <c r="F840" s="37"/>
+      <c r="E840" s="39"/>
+      <c r="F840" s="39"/>
       <c r="G840" s="9"/>
       <c r="H840" s="9"/>
       <c r="I840" s="10"/>
     </row>
     <row r="841" ht="14.25" customHeight="1">
-      <c r="E841" s="37"/>
-      <c r="F841" s="37"/>
+      <c r="E841" s="39"/>
+      <c r="F841" s="39"/>
       <c r="G841" s="9"/>
       <c r="H841" s="9"/>
       <c r="I841" s="10"/>
     </row>
     <row r="842" ht="14.25" customHeight="1">
-      <c r="E842" s="37"/>
-      <c r="F842" s="37"/>
+      <c r="E842" s="39"/>
+      <c r="F842" s="39"/>
       <c r="G842" s="9"/>
       <c r="H842" s="9"/>
       <c r="I842" s="10"/>
     </row>
     <row r="843" ht="14.25" customHeight="1">
-      <c r="E843" s="37"/>
-      <c r="F843" s="37"/>
+      <c r="E843" s="39"/>
+      <c r="F843" s="39"/>
       <c r="G843" s="9"/>
       <c r="H843" s="9"/>
       <c r="I843" s="10"/>
     </row>
     <row r="844" ht="14.25" customHeight="1">
-      <c r="E844" s="37"/>
-      <c r="F844" s="37"/>
+      <c r="E844" s="39"/>
+      <c r="F844" s="39"/>
       <c r="G844" s="9"/>
       <c r="H844" s="9"/>
       <c r="I844" s="10"/>
     </row>
     <row r="845" ht="14.25" customHeight="1">
-      <c r="E845" s="37"/>
-      <c r="F845" s="37"/>
+      <c r="E845" s="39"/>
+      <c r="F845" s="39"/>
       <c r="G845" s="9"/>
       <c r="H845" s="9"/>
       <c r="I845" s="10"/>
     </row>
     <row r="846" ht="14.25" customHeight="1">
-      <c r="E846" s="37"/>
-      <c r="F846" s="37"/>
+      <c r="E846" s="39"/>
+      <c r="F846" s="39"/>
       <c r="G846" s="9"/>
       <c r="H846" s="9"/>
       <c r="I846" s="10"/>
     </row>
     <row r="847" ht="14.25" customHeight="1">
-      <c r="E847" s="37"/>
-      <c r="F847" s="37"/>
+      <c r="E847" s="39"/>
+      <c r="F847" s="39"/>
       <c r="G847" s="9"/>
       <c r="H847" s="9"/>
       <c r="I847" s="10"/>
     </row>
     <row r="848" ht="14.25" customHeight="1">
-      <c r="E848" s="37"/>
-      <c r="F848" s="37"/>
+      <c r="E848" s="39"/>
+      <c r="F848" s="39"/>
       <c r="G848" s="9"/>
       <c r="H848" s="9"/>
       <c r="I848" s="10"/>
     </row>
     <row r="849" ht="14.25" customHeight="1">
-      <c r="E849" s="37"/>
-      <c r="F849" s="37"/>
+      <c r="E849" s="39"/>
+      <c r="F849" s="39"/>
       <c r="G849" s="9"/>
       <c r="H849" s="9"/>
       <c r="I849" s="10"/>
     </row>
     <row r="850" ht="14.25" customHeight="1">
-      <c r="E850" s="37"/>
-      <c r="F850" s="37"/>
+      <c r="E850" s="39"/>
+      <c r="F850" s="39"/>
       <c r="G850" s="9"/>
       <c r="H850" s="9"/>
       <c r="I850" s="10"/>
     </row>
     <row r="851" ht="14.25" customHeight="1">
-      <c r="E851" s="37"/>
-      <c r="F851" s="37"/>
+      <c r="E851" s="39"/>
+      <c r="F851" s="39"/>
       <c r="G851" s="9"/>
       <c r="H851" s="9"/>
       <c r="I851" s="10"/>
     </row>
     <row r="852" ht="14.25" customHeight="1">
-      <c r="E852" s="37"/>
-      <c r="F852" s="37"/>
+      <c r="E852" s="39"/>
+      <c r="F852" s="39"/>
       <c r="G852" s="9"/>
       <c r="H852" s="9"/>
       <c r="I852" s="10"/>
     </row>
     <row r="853" ht="14.25" customHeight="1">
-      <c r="E853" s="37"/>
-      <c r="F853" s="37"/>
+      <c r="E853" s="39"/>
+      <c r="F853" s="39"/>
       <c r="G853" s="9"/>
       <c r="H853" s="9"/>
       <c r="I853" s="10"/>
     </row>
     <row r="854" ht="14.25" customHeight="1">
-      <c r="E854" s="37"/>
-      <c r="F854" s="37"/>
+      <c r="E854" s="39"/>
+      <c r="F854" s="39"/>
       <c r="G854" s="9"/>
       <c r="H854" s="9"/>
       <c r="I854" s="10"/>
     </row>
     <row r="855" ht="14.25" customHeight="1">
-      <c r="E855" s="37"/>
-      <c r="F855" s="37"/>
+      <c r="E855" s="39"/>
+      <c r="F855" s="39"/>
       <c r="G855" s="9"/>
       <c r="H855" s="9"/>
       <c r="I855" s="10"/>
     </row>
     <row r="856" ht="14.25" customHeight="1">
-      <c r="E856" s="37"/>
-      <c r="F856" s="37"/>
+      <c r="E856" s="39"/>
+      <c r="F856" s="39"/>
       <c r="G856" s="9"/>
       <c r="H856" s="9"/>
       <c r="I856" s="10"/>
     </row>
     <row r="857" ht="14.25" customHeight="1">
-      <c r="E857" s="37"/>
-      <c r="F857" s="37"/>
+      <c r="E857" s="39"/>
+      <c r="F857" s="39"/>
       <c r="G857" s="9"/>
       <c r="H857" s="9"/>
       <c r="I857" s="10"/>
     </row>
     <row r="858" ht="14.25" customHeight="1">
-      <c r="E858" s="37"/>
-      <c r="F858" s="37"/>
+      <c r="E858" s="39"/>
+      <c r="F858" s="39"/>
       <c r="G858" s="9"/>
       <c r="H858" s="9"/>
       <c r="I858" s="10"/>
     </row>
     <row r="859" ht="14.25" customHeight="1">
-      <c r="E859" s="37"/>
-      <c r="F859" s="37"/>
+      <c r="E859" s="39"/>
+      <c r="F859" s="39"/>
       <c r="G859" s="9"/>
       <c r="H859" s="9"/>
       <c r="I859" s="10"/>
     </row>
     <row r="860" ht="14.25" customHeight="1">
-      <c r="E860" s="37"/>
-      <c r="F860" s="37"/>
+      <c r="E860" s="39"/>
+      <c r="F860" s="39"/>
       <c r="G860" s="9"/>
       <c r="H860" s="9"/>
       <c r="I860" s="10"/>
     </row>
     <row r="861" ht="14.25" customHeight="1">
-      <c r="E861" s="37"/>
-      <c r="F861" s="37"/>
+      <c r="E861" s="39"/>
+      <c r="F861" s="39"/>
       <c r="G861" s="9"/>
       <c r="H861" s="9"/>
       <c r="I861" s="10"/>
     </row>
     <row r="862" ht="14.25" customHeight="1">
-      <c r="E862" s="37"/>
-      <c r="F862" s="37"/>
+      <c r="E862" s="39"/>
+      <c r="F862" s="39"/>
       <c r="G862" s="9"/>
       <c r="H862" s="9"/>
       <c r="I862" s="10"/>
     </row>
     <row r="863" ht="14.25" customHeight="1">
-      <c r="E863" s="37"/>
-      <c r="F863" s="37"/>
+      <c r="E863" s="39"/>
+      <c r="F863" s="39"/>
       <c r="G863" s="9"/>
       <c r="H863" s="9"/>
       <c r="I863" s="10"/>
     </row>
     <row r="864" ht="14.25" customHeight="1">
-      <c r="E864" s="37"/>
-      <c r="F864" s="37"/>
+      <c r="E864" s="39"/>
+      <c r="F864" s="39"/>
       <c r="G864" s="9"/>
       <c r="H864" s="9"/>
       <c r="I864" s="10"/>
     </row>
     <row r="865" ht="14.25" customHeight="1">
-      <c r="E865" s="37"/>
-      <c r="F865" s="37"/>
+      <c r="E865" s="39"/>
+      <c r="F865" s="39"/>
       <c r="G865" s="9"/>
       <c r="H865" s="9"/>
       <c r="I865" s="10"/>
     </row>
     <row r="866" ht="14.25" customHeight="1">
-      <c r="E866" s="37"/>
-      <c r="F866" s="37"/>
+      <c r="E866" s="39"/>
+      <c r="F866" s="39"/>
       <c r="G866" s="9"/>
       <c r="H866" s="9"/>
       <c r="I866" s="10"/>
     </row>
     <row r="867" ht="14.25" customHeight="1">
-      <c r="E867" s="37"/>
-      <c r="F867" s="37"/>
+      <c r="E867" s="39"/>
+      <c r="F867" s="39"/>
       <c r="G867" s="9"/>
       <c r="H867" s="9"/>
       <c r="I867" s="10"/>
     </row>
     <row r="868" ht="14.25" customHeight="1">
-      <c r="E868" s="37"/>
-      <c r="F868" s="37"/>
+      <c r="E868" s="39"/>
+      <c r="F868" s="39"/>
       <c r="G868" s="9"/>
       <c r="H868" s="9"/>
       <c r="I868" s="10"/>
     </row>
     <row r="869" ht="14.25" customHeight="1">
-      <c r="E869" s="37"/>
-      <c r="F869" s="37"/>
+      <c r="E869" s="39"/>
+      <c r="F869" s="39"/>
       <c r="G869" s="9"/>
       <c r="H869" s="9"/>
       <c r="I869" s="10"/>
     </row>
     <row r="870" ht="14.25" customHeight="1">
-      <c r="E870" s="37"/>
-      <c r="F870" s="37"/>
+      <c r="E870" s="39"/>
+      <c r="F870" s="39"/>
       <c r="G870" s="9"/>
       <c r="H870" s="9"/>
       <c r="I870" s="10"/>
     </row>
     <row r="871" ht="14.25" customHeight="1">
-      <c r="E871" s="37"/>
-      <c r="F871" s="37"/>
+      <c r="E871" s="39"/>
+      <c r="F871" s="39"/>
       <c r="G871" s="9"/>
       <c r="H871" s="9"/>
       <c r="I871" s="10"/>
     </row>
     <row r="872" ht="14.25" customHeight="1">
-      <c r="E872" s="37"/>
-      <c r="F872" s="37"/>
+      <c r="E872" s="39"/>
+      <c r="F872" s="39"/>
       <c r="G872" s="9"/>
       <c r="H872" s="9"/>
       <c r="I872" s="10"/>
     </row>
     <row r="873" ht="14.25" customHeight="1">
-      <c r="E873" s="37"/>
-      <c r="F873" s="37"/>
+      <c r="E873" s="39"/>
+      <c r="F873" s="39"/>
       <c r="G873" s="9"/>
       <c r="H873" s="9"/>
       <c r="I873" s="10"/>
     </row>
     <row r="874" ht="14.25" customHeight="1">
-      <c r="E874" s="37"/>
-      <c r="F874" s="37"/>
+      <c r="E874" s="39"/>
+      <c r="F874" s="39"/>
       <c r="G874" s="9"/>
       <c r="H874" s="9"/>
       <c r="I874" s="10"/>
     </row>
     <row r="875" ht="14.25" customHeight="1">
-      <c r="E875" s="37"/>
-      <c r="F875" s="37"/>
+      <c r="E875" s="39"/>
+      <c r="F875" s="39"/>
       <c r="G875" s="9"/>
       <c r="H875" s="9"/>
       <c r="I875" s="10"/>
     </row>
     <row r="876" ht="14.25" customHeight="1">
-      <c r="E876" s="37"/>
-      <c r="F876" s="37"/>
+      <c r="E876" s="39"/>
+      <c r="F876" s="39"/>
       <c r="G876" s="9"/>
       <c r="H876" s="9"/>
       <c r="I876" s="10"/>
     </row>
     <row r="877" ht="14.25" customHeight="1">
-      <c r="E877" s="37"/>
-      <c r="F877" s="37"/>
+      <c r="E877" s="39"/>
+      <c r="F877" s="39"/>
       <c r="G877" s="9"/>
       <c r="H877" s="9"/>
       <c r="I877" s="10"/>
     </row>
     <row r="878" ht="14.25" customHeight="1">
-      <c r="E878" s="37"/>
-      <c r="F878" s="37"/>
+      <c r="E878" s="39"/>
+      <c r="F878" s="39"/>
       <c r="G878" s="9"/>
       <c r="H878" s="9"/>
       <c r="I878" s="10"/>
     </row>
     <row r="879" ht="14.25" customHeight="1">
-      <c r="E879" s="37"/>
-      <c r="F879" s="37"/>
+      <c r="E879" s="39"/>
+      <c r="F879" s="39"/>
       <c r="G879" s="9"/>
       <c r="H879" s="9"/>
       <c r="I879" s="10"/>
     </row>
     <row r="880" ht="14.25" customHeight="1">
-      <c r="E880" s="37"/>
-      <c r="F880" s="37"/>
+      <c r="E880" s="39"/>
+      <c r="F880" s="39"/>
       <c r="G880" s="9"/>
       <c r="H880" s="9"/>
       <c r="I880" s="10"/>
     </row>
     <row r="881" ht="14.25" customHeight="1">
-      <c r="E881" s="37"/>
-      <c r="F881" s="37"/>
+      <c r="E881" s="39"/>
+      <c r="F881" s="39"/>
       <c r="G881" s="9"/>
       <c r="H881" s="9"/>
       <c r="I881" s="10"/>
     </row>
     <row r="882" ht="14.25" customHeight="1">
-      <c r="E882" s="37"/>
-      <c r="F882" s="37"/>
+      <c r="E882" s="39"/>
+      <c r="F882" s="39"/>
       <c r="G882" s="9"/>
       <c r="H882" s="9"/>
       <c r="I882" s="10"/>
     </row>
     <row r="883" ht="14.25" customHeight="1">
-      <c r="E883" s="37"/>
-      <c r="F883" s="37"/>
+      <c r="E883" s="39"/>
+      <c r="F883" s="39"/>
       <c r="G883" s="9"/>
       <c r="H883" s="9"/>
       <c r="I883" s="10"/>
     </row>
     <row r="884" ht="14.25" customHeight="1">
-      <c r="E884" s="37"/>
-      <c r="F884" s="37"/>
+      <c r="E884" s="39"/>
+      <c r="F884" s="39"/>
       <c r="G884" s="9"/>
       <c r="H884" s="9"/>
       <c r="I884" s="10"/>
     </row>
     <row r="885" ht="14.25" customHeight="1">
-      <c r="E885" s="37"/>
-      <c r="F885" s="37"/>
+      <c r="E885" s="39"/>
+      <c r="F885" s="39"/>
       <c r="G885" s="9"/>
       <c r="H885" s="9"/>
       <c r="I885" s="10"/>
     </row>
     <row r="886" ht="14.25" customHeight="1">
-      <c r="E886" s="37"/>
-      <c r="F886" s="37"/>
+      <c r="E886" s="39"/>
+      <c r="F886" s="39"/>
       <c r="G886" s="9"/>
       <c r="H886" s="9"/>
       <c r="I886" s="10"/>
     </row>
     <row r="887" ht="14.25" customHeight="1">
-      <c r="E887" s="37"/>
-      <c r="F887" s="37"/>
+      <c r="E887" s="39"/>
+      <c r="F887" s="39"/>
       <c r="G887" s="9"/>
       <c r="H887" s="9"/>
       <c r="I887" s="10"/>
     </row>
     <row r="888" ht="14.25" customHeight="1">
-      <c r="E888" s="37"/>
-      <c r="F888" s="37"/>
+      <c r="E888" s="39"/>
+      <c r="F888" s="39"/>
       <c r="G888" s="9"/>
       <c r="H888" s="9"/>
       <c r="I888" s="10"/>
     </row>
     <row r="889" ht="14.25" customHeight="1">
-      <c r="E889" s="37"/>
-      <c r="F889" s="37"/>
+      <c r="E889" s="39"/>
+      <c r="F889" s="39"/>
       <c r="G889" s="9"/>
       <c r="H889" s="9"/>
       <c r="I889" s="10"/>
     </row>
     <row r="890" ht="14.25" customHeight="1">
-      <c r="E890" s="37"/>
-      <c r="F890" s="37"/>
+      <c r="E890" s="39"/>
+      <c r="F890" s="39"/>
       <c r="G890" s="9"/>
       <c r="H890" s="9"/>
       <c r="I890" s="10"/>
     </row>
     <row r="891" ht="14.25" customHeight="1">
-      <c r="E891" s="37"/>
-      <c r="F891" s="37"/>
+      <c r="E891" s="39"/>
+      <c r="F891" s="39"/>
       <c r="G891" s="9"/>
       <c r="H891" s="9"/>
       <c r="I891" s="10"/>
     </row>
     <row r="892" ht="14.25" customHeight="1">
-      <c r="E892" s="37"/>
-      <c r="F892" s="37"/>
+      <c r="E892" s="39"/>
+      <c r="F892" s="39"/>
       <c r="G892" s="9"/>
       <c r="H892" s="9"/>
       <c r="I892" s="10"/>
     </row>
     <row r="893" ht="14.25" customHeight="1">
-      <c r="E893" s="37"/>
-      <c r="F893" s="37"/>
+      <c r="E893" s="39"/>
+      <c r="F893" s="39"/>
       <c r="G893" s="9"/>
       <c r="H893" s="9"/>
       <c r="I893" s="10"/>
     </row>
     <row r="894" ht="14.25" customHeight="1">
-      <c r="E894" s="37"/>
-      <c r="F894" s="37"/>
+      <c r="E894" s="39"/>
+      <c r="F894" s="39"/>
       <c r="G894" s="9"/>
       <c r="H894" s="9"/>
       <c r="I894" s="10"/>
     </row>
     <row r="895" ht="14.25" customHeight="1">
-      <c r="E895" s="37"/>
-      <c r="F895" s="37"/>
+      <c r="E895" s="39"/>
+      <c r="F895" s="39"/>
       <c r="G895" s="9"/>
       <c r="H895" s="9"/>
       <c r="I895" s="10"/>
     </row>
     <row r="896" ht="14.25" customHeight="1">
-      <c r="E896" s="37"/>
-      <c r="F896" s="37"/>
+      <c r="E896" s="39"/>
+      <c r="F896" s="39"/>
       <c r="G896" s="9"/>
       <c r="H896" s="9"/>
       <c r="I896" s="10"/>
     </row>
     <row r="897" ht="14.25" customHeight="1">
-      <c r="E897" s="37"/>
-      <c r="F897" s="37"/>
+      <c r="E897" s="39"/>
+      <c r="F897" s="39"/>
       <c r="G897" s="9"/>
       <c r="H897" s="9"/>
       <c r="I897" s="10"/>
     </row>
     <row r="898" ht="14.25" customHeight="1">
-      <c r="E898" s="37"/>
-      <c r="F898" s="37"/>
+      <c r="E898" s="39"/>
+      <c r="F898" s="39"/>
       <c r="G898" s="9"/>
       <c r="H898" s="9"/>
       <c r="I898" s="10"/>
     </row>
     <row r="899" ht="14.25" customHeight="1">
-      <c r="E899" s="37"/>
-      <c r="F899" s="37"/>
+      <c r="E899" s="39"/>
+      <c r="F899" s="39"/>
       <c r="G899" s="9"/>
       <c r="H899" s="9"/>
       <c r="I899" s="10"/>
     </row>
     <row r="900" ht="14.25" customHeight="1">
-      <c r="E900" s="37"/>
-      <c r="F900" s="37"/>
+      <c r="E900" s="39"/>
+      <c r="F900" s="39"/>
       <c r="G900" s="9"/>
       <c r="H900" s="9"/>
       <c r="I900" s="10"/>
     </row>
     <row r="901" ht="14.25" customHeight="1">
-      <c r="E901" s="37"/>
-      <c r="F901" s="37"/>
+      <c r="E901" s="39"/>
+      <c r="F901" s="39"/>
       <c r="G901" s="9"/>
       <c r="H901" s="9"/>
       <c r="I901" s="10"/>
     </row>
     <row r="902" ht="14.25" customHeight="1">
-      <c r="E902" s="37"/>
-      <c r="F902" s="37"/>
+      <c r="E902" s="39"/>
+      <c r="F902" s="39"/>
       <c r="G902" s="9"/>
       <c r="H902" s="9"/>
       <c r="I902" s="10"/>
     </row>
     <row r="903" ht="14.25" customHeight="1">
-      <c r="E903" s="37"/>
-      <c r="F903" s="37"/>
+      <c r="E903" s="39"/>
+      <c r="F903" s="39"/>
       <c r="G903" s="9"/>
       <c r="H903" s="9"/>
       <c r="I903" s="10"/>
     </row>
     <row r="904" ht="14.25" customHeight="1">
-      <c r="E904" s="37"/>
-      <c r="F904" s="37"/>
+      <c r="E904" s="39"/>
+      <c r="F904" s="39"/>
       <c r="G904" s="9"/>
       <c r="H904" s="9"/>
       <c r="I904" s="10"/>
     </row>
     <row r="905" ht="14.25" customHeight="1">
-      <c r="E905" s="37"/>
-      <c r="F905" s="37"/>
+      <c r="E905" s="39"/>
+      <c r="F905" s="39"/>
       <c r="G905" s="9"/>
       <c r="H905" s="9"/>
       <c r="I905" s="10"/>
     </row>
     <row r="906" ht="14.25" customHeight="1">
-      <c r="E906" s="37"/>
-      <c r="F906" s="37"/>
+      <c r="E906" s="39"/>
+      <c r="F906" s="39"/>
       <c r="G906" s="9"/>
       <c r="H906" s="9"/>
       <c r="I906" s="10"/>
     </row>
     <row r="907" ht="14.25" customHeight="1">
-      <c r="E907" s="37"/>
-      <c r="F907" s="37"/>
+      <c r="E907" s="39"/>
+      <c r="F907" s="39"/>
       <c r="G907" s="9"/>
       <c r="H907" s="9"/>
       <c r="I907" s="10"/>
     </row>
     <row r="908" ht="14.25" customHeight="1">
-      <c r="E908" s="37"/>
-      <c r="F908" s="37"/>
+      <c r="E908" s="39"/>
+      <c r="F908" s="39"/>
       <c r="G908" s="9"/>
       <c r="H908" s="9"/>
       <c r="I908" s="10"/>
     </row>
     <row r="909" ht="14.25" customHeight="1">
-      <c r="E909" s="37"/>
-      <c r="F909" s="37"/>
+      <c r="E909" s="39"/>
+      <c r="F909" s="39"/>
       <c r="G909" s="9"/>
       <c r="H909" s="9"/>
       <c r="I909" s="10"/>
     </row>
     <row r="910" ht="14.25" customHeight="1">
-      <c r="E910" s="37"/>
-      <c r="F910" s="37"/>
+      <c r="E910" s="39"/>
+      <c r="F910" s="39"/>
       <c r="G910" s="9"/>
       <c r="H910" s="9"/>
       <c r="I910" s="10"/>
     </row>
     <row r="911" ht="14.25" customHeight="1">
-      <c r="E911" s="37"/>
-      <c r="F911" s="37"/>
+      <c r="E911" s="39"/>
+      <c r="F911" s="39"/>
       <c r="G911" s="9"/>
       <c r="H911" s="9"/>
       <c r="I911" s="10"/>
     </row>
     <row r="912" ht="14.25" customHeight="1">
-      <c r="E912" s="37"/>
-      <c r="F912" s="37"/>
+      <c r="E912" s="39"/>
+      <c r="F912" s="39"/>
       <c r="G912" s="9"/>
       <c r="H912" s="9"/>
       <c r="I912" s="10"/>
     </row>
     <row r="913" ht="14.25" customHeight="1">
-      <c r="E913" s="37"/>
-      <c r="F913" s="37"/>
+      <c r="E913" s="39"/>
+      <c r="F913" s="39"/>
       <c r="G913" s="9"/>
       <c r="H913" s="9"/>
       <c r="I913" s="10"/>
     </row>
     <row r="914" ht="14.25" customHeight="1">
-      <c r="E914" s="37"/>
-      <c r="F914" s="37"/>
+      <c r="E914" s="39"/>
+      <c r="F914" s="39"/>
       <c r="G914" s="9"/>
       <c r="H914" s="9"/>
       <c r="I914" s="10"/>
     </row>
     <row r="915" ht="14.25" customHeight="1">
-      <c r="E915" s="37"/>
-      <c r="F915" s="37"/>
+      <c r="E915" s="39"/>
+      <c r="F915" s="39"/>
       <c r="G915" s="9"/>
       <c r="H915" s="9"/>
       <c r="I915" s="10"/>
     </row>
     <row r="916" ht="14.25" customHeight="1">
-      <c r="E916" s="37"/>
-      <c r="F916" s="37"/>
+      <c r="E916" s="39"/>
+      <c r="F916" s="39"/>
       <c r="G916" s="9"/>
       <c r="H916" s="9"/>
       <c r="I916" s="10"/>
     </row>
     <row r="917" ht="14.25" customHeight="1">
-      <c r="E917" s="37"/>
-      <c r="F917" s="37"/>
+      <c r="E917" s="39"/>
+      <c r="F917" s="39"/>
       <c r="G917" s="9"/>
       <c r="H917" s="9"/>
       <c r="I917" s="10"/>
     </row>
     <row r="918" ht="14.25" customHeight="1">
-      <c r="E918" s="37"/>
-      <c r="F918" s="37"/>
+      <c r="E918" s="39"/>
+      <c r="F918" s="39"/>
       <c r="G918" s="9"/>
       <c r="H918" s="9"/>
       <c r="I918" s="10"/>
     </row>
     <row r="919" ht="14.25" customHeight="1">
-      <c r="E919" s="37"/>
-      <c r="F919" s="37"/>
+      <c r="E919" s="39"/>
+      <c r="F919" s="39"/>
       <c r="G919" s="9"/>
       <c r="H919" s="9"/>
       <c r="I919" s="10"/>
     </row>
     <row r="920" ht="14.25" customHeight="1">
-      <c r="E920" s="37"/>
-      <c r="F920" s="37"/>
+      <c r="E920" s="39"/>
+      <c r="F920" s="39"/>
       <c r="G920" s="9"/>
       <c r="H920" s="9"/>
       <c r="I920" s="10"/>
     </row>
     <row r="921" ht="14.25" customHeight="1">
-      <c r="E921" s="37"/>
-      <c r="F921" s="37"/>
+      <c r="E921" s="39"/>
+      <c r="F921" s="39"/>
       <c r="G921" s="9"/>
       <c r="H921" s="9"/>
       <c r="I921" s="10"/>
     </row>
     <row r="922" ht="14.25" customHeight="1">
-      <c r="E922" s="37"/>
-      <c r="F922" s="37"/>
+      <c r="E922" s="39"/>
+      <c r="F922" s="39"/>
       <c r="G922" s="9"/>
       <c r="H922" s="9"/>
       <c r="I922" s="10"/>
     </row>
     <row r="923" ht="14.25" customHeight="1">
-      <c r="E923" s="37"/>
-      <c r="F923" s="37"/>
+      <c r="E923" s="39"/>
+      <c r="F923" s="39"/>
       <c r="G923" s="9"/>
       <c r="H923" s="9"/>
       <c r="I923" s="10"/>
     </row>
     <row r="924" ht="14.25" customHeight="1">
-      <c r="E924" s="37"/>
-      <c r="F924" s="37"/>
+      <c r="E924" s="39"/>
+      <c r="F924" s="39"/>
       <c r="G924" s="9"/>
       <c r="H924" s="9"/>
       <c r="I924" s="10"/>
     </row>
     <row r="925" ht="14.25" customHeight="1">
-      <c r="E925" s="37"/>
-      <c r="F925" s="37"/>
+      <c r="E925" s="39"/>
+      <c r="F925" s="39"/>
       <c r="G925" s="9"/>
       <c r="H925" s="9"/>
       <c r="I925" s="10"/>
     </row>
     <row r="926" ht="14.25" customHeight="1">
-      <c r="E926" s="37"/>
-      <c r="F926" s="37"/>
+      <c r="E926" s="39"/>
+      <c r="F926" s="39"/>
       <c r="G926" s="9"/>
       <c r="H926" s="9"/>
       <c r="I926" s="10"/>
     </row>
     <row r="927" ht="14.25" customHeight="1">
-      <c r="E927" s="37"/>
-      <c r="F927" s="37"/>
+      <c r="E927" s="39"/>
+      <c r="F927" s="39"/>
       <c r="G927" s="9"/>
       <c r="H927" s="9"/>
       <c r="I927" s="10"/>
     </row>
     <row r="928" ht="14.25" customHeight="1">
-      <c r="E928" s="37"/>
-      <c r="F928" s="37"/>
+      <c r="E928" s="39"/>
+      <c r="F928" s="39"/>
       <c r="G928" s="9"/>
       <c r="H928" s="9"/>
       <c r="I928" s="10"/>
     </row>
     <row r="929" ht="14.25" customHeight="1">
-      <c r="E929" s="37"/>
-      <c r="F929" s="37"/>
+      <c r="E929" s="39"/>
+      <c r="F929" s="39"/>
       <c r="G929" s="9"/>
       <c r="H929" s="9"/>
       <c r="I929" s="10"/>
     </row>
     <row r="930" ht="14.25" customHeight="1">
-      <c r="E930" s="37"/>
-      <c r="F930" s="37"/>
+      <c r="E930" s="39"/>
+      <c r="F930" s="39"/>
       <c r="G930" s="9"/>
       <c r="H930" s="9"/>
       <c r="I930" s="10"/>
     </row>
     <row r="931" ht="14.25" customHeight="1">
-      <c r="E931" s="37"/>
-      <c r="F931" s="37"/>
+      <c r="E931" s="39"/>
+      <c r="F931" s="39"/>
       <c r="G931" s="9"/>
       <c r="H931" s="9"/>
       <c r="I931" s="10"/>
     </row>
     <row r="932" ht="14.25" customHeight="1">
-      <c r="E932" s="37"/>
-      <c r="F932" s="37"/>
+      <c r="E932" s="39"/>
+      <c r="F932" s="39"/>
       <c r="G932" s="9"/>
       <c r="H932" s="9"/>
       <c r="I932" s="10"/>
     </row>
     <row r="933" ht="14.25" customHeight="1">
-      <c r="E933" s="37"/>
-      <c r="F933" s="37"/>
+      <c r="E933" s="39"/>
+      <c r="F933" s="39"/>
       <c r="G933" s="9"/>
       <c r="H933" s="9"/>
       <c r="I933" s="10"/>
     </row>
     <row r="934" ht="14.25" customHeight="1">
-      <c r="E934" s="37"/>
-      <c r="F934" s="37"/>
+      <c r="E934" s="39"/>
+      <c r="F934" s="39"/>
       <c r="G934" s="9"/>
       <c r="H934" s="9"/>
       <c r="I934" s="10"/>
     </row>
     <row r="935" ht="14.25" customHeight="1">
-      <c r="E935" s="37"/>
-      <c r="F935" s="37"/>
+      <c r="E935" s="39"/>
+      <c r="F935" s="39"/>
       <c r="G935" s="9"/>
       <c r="H935" s="9"/>
       <c r="I935" s="10"/>
     </row>
     <row r="936" ht="14.25" customHeight="1">
-      <c r="E936" s="37"/>
-      <c r="F936" s="37"/>
+      <c r="E936" s="39"/>
+      <c r="F936" s="39"/>
       <c r="G936" s="9"/>
       <c r="H936" s="9"/>
       <c r="I936" s="10"/>
     </row>
     <row r="937" ht="14.25" customHeight="1">
-      <c r="E937" s="37"/>
-      <c r="F937" s="37"/>
+      <c r="E937" s="39"/>
+      <c r="F937" s="39"/>
       <c r="G937" s="9"/>
       <c r="H937" s="9"/>
       <c r="I937" s="10"/>
     </row>
     <row r="938" ht="14.25" customHeight="1">
-      <c r="E938" s="37"/>
-      <c r="F938" s="37"/>
+      <c r="E938" s="39"/>
+      <c r="F938" s="39"/>
       <c r="G938" s="9"/>
       <c r="H938" s="9"/>
       <c r="I938" s="10"/>
     </row>
     <row r="939" ht="14.25" customHeight="1">
-      <c r="E939" s="37"/>
-      <c r="F939" s="37"/>
+      <c r="E939" s="39"/>
+      <c r="F939" s="39"/>
       <c r="G939" s="9"/>
       <c r="H939" s="9"/>
       <c r="I939" s="10"/>
     </row>
     <row r="940" ht="14.25" customHeight="1">
-      <c r="E940" s="37"/>
-      <c r="F940" s="37"/>
+      <c r="E940" s="39"/>
+      <c r="F940" s="39"/>
       <c r="G940" s="9"/>
       <c r="H940" s="9"/>
       <c r="I940" s="10"/>
     </row>
     <row r="941" ht="14.25" customHeight="1">
-      <c r="E941" s="37"/>
-      <c r="F941" s="37"/>
+      <c r="E941" s="39"/>
+      <c r="F941" s="39"/>
       <c r="G941" s="9"/>
       <c r="H941" s="9"/>
       <c r="I941" s="10"/>
     </row>
     <row r="942" ht="14.25" customHeight="1">
-      <c r="E942" s="37"/>
-      <c r="F942" s="37"/>
+      <c r="E942" s="39"/>
+      <c r="F942" s="39"/>
       <c r="G942" s="9"/>
       <c r="H942" s="9"/>
       <c r="I942" s="10"/>
     </row>
     <row r="943" ht="14.25" customHeight="1">
-      <c r="E943" s="37"/>
-      <c r="F943" s="37"/>
+      <c r="E943" s="39"/>
+      <c r="F943" s="39"/>
       <c r="G943" s="9"/>
       <c r="H943" s="9"/>
       <c r="I943" s="10"/>
     </row>
     <row r="944" ht="14.25" customHeight="1">
-      <c r="E944" s="37"/>
-      <c r="F944" s="37"/>
+      <c r="E944" s="39"/>
+      <c r="F944" s="39"/>
       <c r="G944" s="9"/>
       <c r="H944" s="9"/>
       <c r="I944" s="10"/>
     </row>
     <row r="945" ht="14.25" customHeight="1">
-      <c r="E945" s="37"/>
-      <c r="F945" s="37"/>
+      <c r="E945" s="39"/>
+      <c r="F945" s="39"/>
       <c r="G945" s="9"/>
       <c r="H945" s="9"/>
       <c r="I945" s="10"/>
     </row>
     <row r="946" ht="14.25" customHeight="1">
-      <c r="E946" s="37"/>
-      <c r="F946" s="37"/>
+      <c r="E946" s="39"/>
+      <c r="F946" s="39"/>
       <c r="G946" s="9"/>
       <c r="H946" s="9"/>
       <c r="I946" s="10"/>
     </row>
     <row r="947" ht="14.25" customHeight="1">
-      <c r="E947" s="37"/>
-      <c r="F947" s="37"/>
+      <c r="E947" s="39"/>
+      <c r="F947" s="39"/>
       <c r="G947" s="9"/>
       <c r="H947" s="9"/>
       <c r="I947" s="10"/>
     </row>
     <row r="948" ht="14.25" customHeight="1">
-      <c r="E948" s="37"/>
-      <c r="F948" s="37"/>
+      <c r="E948" s="39"/>
+      <c r="F948" s="39"/>
       <c r="G948" s="9"/>
       <c r="H948" s="9"/>
       <c r="I948" s="10"/>
     </row>
     <row r="949" ht="14.25" customHeight="1">
-      <c r="E949" s="37"/>
-      <c r="F949" s="37"/>
+      <c r="E949" s="39"/>
+      <c r="F949" s="39"/>
       <c r="G949" s="9"/>
       <c r="H949" s="9"/>
       <c r="I949" s="10"/>
     </row>
     <row r="950" ht="14.25" customHeight="1">
-      <c r="E950" s="37"/>
-      <c r="F950" s="37"/>
+      <c r="E950" s="39"/>
+      <c r="F950" s="39"/>
       <c r="G950" s="9"/>
       <c r="H950" s="9"/>
       <c r="I950" s="10"/>
     </row>
     <row r="951" ht="14.25" customHeight="1">
-      <c r="E951" s="37"/>
-      <c r="F951" s="37"/>
+      <c r="E951" s="39"/>
+      <c r="F951" s="39"/>
       <c r="G951" s="9"/>
       <c r="H951" s="9"/>
       <c r="I951" s="10"/>
     </row>
     <row r="952" ht="14.25" customHeight="1">
-      <c r="E952" s="37"/>
-      <c r="F952" s="37"/>
+      <c r="E952" s="39"/>
+      <c r="F952" s="39"/>
       <c r="G952" s="9"/>
       <c r="H952" s="9"/>
       <c r="I952" s="10"/>
     </row>
     <row r="953" ht="14.25" customHeight="1">
-      <c r="E953" s="37"/>
-      <c r="F953" s="37"/>
+      <c r="E953" s="39"/>
+      <c r="F953" s="39"/>
       <c r="G953" s="9"/>
       <c r="H953" s="9"/>
       <c r="I953" s="10"/>
     </row>
     <row r="954" ht="14.25" customHeight="1">
-      <c r="E954" s="37"/>
-      <c r="F954" s="37"/>
+      <c r="E954" s="39"/>
+      <c r="F954" s="39"/>
       <c r="G954" s="9"/>
       <c r="H954" s="9"/>
       <c r="I954" s="10"/>
     </row>
     <row r="955" ht="14.25" customHeight="1">
-      <c r="E955" s="37"/>
-      <c r="F955" s="37"/>
+      <c r="E955" s="39"/>
+      <c r="F955" s="39"/>
       <c r="G955" s="9"/>
       <c r="H955" s="9"/>
       <c r="I955" s="10"/>
     </row>
     <row r="956" ht="14.25" customHeight="1">
-      <c r="E956" s="37"/>
-      <c r="F956" s="37"/>
+      <c r="E956" s="39"/>
+      <c r="F956" s="39"/>
       <c r="G956" s="9"/>
       <c r="H956" s="9"/>
       <c r="I956" s="10"/>
     </row>
     <row r="957" ht="14.25" customHeight="1">
-      <c r="E957" s="37"/>
-      <c r="F957" s="37"/>
+      <c r="E957" s="39"/>
+      <c r="F957" s="39"/>
       <c r="G957" s="9"/>
       <c r="H957" s="9"/>
       <c r="I957" s="10"/>
     </row>
     <row r="958" ht="14.25" customHeight="1">
-      <c r="E958" s="37"/>
-      <c r="F958" s="37"/>
+      <c r="E958" s="39"/>
+      <c r="F958" s="39"/>
       <c r="G958" s="9"/>
       <c r="H958" s="9"/>
       <c r="I958" s="10"/>
     </row>
     <row r="959" ht="14.25" customHeight="1">
-      <c r="E959" s="37"/>
-      <c r="F959" s="37"/>
+      <c r="E959" s="39"/>
+      <c r="F959" s="39"/>
       <c r="G959" s="9"/>
       <c r="H959" s="9"/>
       <c r="I959" s="10"/>
     </row>
     <row r="960" ht="14.25" customHeight="1">
-      <c r="E960" s="37"/>
-      <c r="F960" s="37"/>
+      <c r="E960" s="39"/>
+      <c r="F960" s="39"/>
       <c r="G960" s="9"/>
       <c r="H960" s="9"/>
       <c r="I960" s="10"/>
     </row>
     <row r="961" ht="14.25" customHeight="1">
-      <c r="E961" s="37"/>
-      <c r="F961" s="37"/>
+      <c r="E961" s="39"/>
+      <c r="F961" s="39"/>
       <c r="G961" s="9"/>
       <c r="H961" s="9"/>
       <c r="I961" s="10"/>
     </row>
     <row r="962" ht="14.25" customHeight="1">
-      <c r="E962" s="37"/>
-      <c r="F962" s="37"/>
+      <c r="E962" s="39"/>
+      <c r="F962" s="39"/>
       <c r="G962" s="9"/>
       <c r="H962" s="9"/>
       <c r="I962" s="10"/>
     </row>
     <row r="963" ht="14.25" customHeight="1">
-      <c r="E963" s="37"/>
-      <c r="F963" s="37"/>
+      <c r="E963" s="39"/>
+      <c r="F963" s="39"/>
       <c r="G963" s="9"/>
       <c r="H963" s="9"/>
       <c r="I963" s="10"/>
     </row>
     <row r="964" ht="14.25" customHeight="1">
-      <c r="E964" s="37"/>
-      <c r="F964" s="37"/>
+      <c r="E964" s="39"/>
+      <c r="F964" s="39"/>
       <c r="G964" s="9"/>
       <c r="H964" s="9"/>
       <c r="I964" s="10"/>
     </row>
     <row r="965" ht="14.25" customHeight="1">
-      <c r="E965" s="37"/>
-      <c r="F965" s="37"/>
+      <c r="E965" s="39"/>
+      <c r="F965" s="39"/>
       <c r="G965" s="9"/>
       <c r="H965" s="9"/>
       <c r="I965" s="10"/>
     </row>
     <row r="966" ht="14.25" customHeight="1">
-      <c r="E966" s="37"/>
-      <c r="F966" s="37"/>
+      <c r="E966" s="39"/>
+      <c r="F966" s="39"/>
       <c r="G966" s="9"/>
       <c r="H966" s="9"/>
       <c r="I966" s="10"/>
     </row>
     <row r="967" ht="14.25" customHeight="1">
-      <c r="E967" s="37"/>
-      <c r="F967" s="37"/>
+      <c r="E967" s="39"/>
+      <c r="F967" s="39"/>
       <c r="G967" s="9"/>
       <c r="H967" s="9"/>
       <c r="I967" s="10"/>
     </row>
     <row r="968" ht="14.25" customHeight="1">
-      <c r="E968" s="37"/>
-      <c r="F968" s="37"/>
+      <c r="E968" s="39"/>
+      <c r="F968" s="39"/>
       <c r="G968" s="9"/>
       <c r="H968" s="9"/>
       <c r="I968" s="10"/>
     </row>
     <row r="969" ht="14.25" customHeight="1">
-      <c r="E969" s="37"/>
-      <c r="F969" s="37"/>
+      <c r="E969" s="39"/>
+      <c r="F969" s="39"/>
       <c r="G969" s="9"/>
       <c r="H969" s="9"/>
       <c r="I969" s="10"/>
     </row>
     <row r="970" ht="14.25" customHeight="1">
-      <c r="E970" s="37"/>
-      <c r="F970" s="37"/>
+      <c r="E970" s="39"/>
+      <c r="F970" s="39"/>
       <c r="G970" s="9"/>
       <c r="H970" s="9"/>
       <c r="I970" s="10"/>
     </row>
     <row r="971" ht="14.25" customHeight="1">
-      <c r="E971" s="37"/>
-      <c r="F971" s="37"/>
+      <c r="E971" s="39"/>
+      <c r="F971" s="39"/>
       <c r="G971" s="9"/>
       <c r="H971" s="9"/>
       <c r="I971" s="10"/>
     </row>
     <row r="972" ht="14.25" customHeight="1">
-      <c r="E972" s="37"/>
-      <c r="F972" s="37"/>
+      <c r="E972" s="39"/>
+      <c r="F972" s="39"/>
       <c r="G972" s="9"/>
       <c r="H972" s="9"/>
       <c r="I972" s="10"/>
     </row>
     <row r="973" ht="14.25" customHeight="1">
-      <c r="E973" s="37"/>
-      <c r="F973" s="37"/>
+      <c r="E973" s="39"/>
+      <c r="F973" s="39"/>
       <c r="G973" s="9"/>
       <c r="H973" s="9"/>
       <c r="I973" s="10"/>
     </row>
     <row r="974" ht="14.25" customHeight="1">
-      <c r="E974" s="37"/>
-      <c r="F974" s="37"/>
+      <c r="E974" s="39"/>
+      <c r="F974" s="39"/>
       <c r="G974" s="9"/>
       <c r="H974" s="9"/>
       <c r="I974" s="10"/>
     </row>
     <row r="975" ht="14.25" customHeight="1">
-      <c r="E975" s="37"/>
-      <c r="F975" s="37"/>
+      <c r="E975" s="39"/>
+      <c r="F975" s="39"/>
       <c r="G975" s="9"/>
       <c r="H975" s="9"/>
       <c r="I975" s="10"/>
     </row>
     <row r="976" ht="14.25" customHeight="1">
-      <c r="E976" s="37"/>
-      <c r="F976" s="37"/>
+      <c r="E976" s="39"/>
+      <c r="F976" s="39"/>
       <c r="G976" s="9"/>
       <c r="H976" s="9"/>
       <c r="I976" s="10"/>
     </row>
     <row r="977" ht="14.25" customHeight="1">
-      <c r="E977" s="37"/>
-      <c r="F977" s="37"/>
+      <c r="E977" s="39"/>
+      <c r="F977" s="39"/>
       <c r="G977" s="9"/>
       <c r="H977" s="9"/>
       <c r="I977" s="10"/>
     </row>
     <row r="978" ht="14.25" customHeight="1">
-      <c r="E978" s="37"/>
-      <c r="F978" s="37"/>
+      <c r="E978" s="39"/>
+      <c r="F978" s="39"/>
       <c r="G978" s="9"/>
       <c r="H978" s="9"/>
       <c r="I978" s="10"/>
     </row>
     <row r="979" ht="14.25" customHeight="1">
-      <c r="E979" s="37"/>
-      <c r="F979" s="37"/>
+      <c r="E979" s="39"/>
+      <c r="F979" s="39"/>
       <c r="G979" s="9"/>
       <c r="H979" s="9"/>
       <c r="I979" s="10"/>
     </row>
     <row r="980" ht="14.25" customHeight="1">
-      <c r="E980" s="37"/>
-      <c r="F980" s="37"/>
+      <c r="E980" s="39"/>
+      <c r="F980" s="39"/>
       <c r="G980" s="9"/>
       <c r="H980" s="9"/>
       <c r="I980" s="10"/>
     </row>
     <row r="981" ht="14.25" customHeight="1">
-      <c r="E981" s="37"/>
-      <c r="F981" s="37"/>
+      <c r="E981" s="39"/>
+      <c r="F981" s="39"/>
       <c r="G981" s="9"/>
       <c r="H981" s="9"/>
       <c r="I981" s="10"/>
     </row>
     <row r="982" ht="14.25" customHeight="1">
-      <c r="E982" s="37"/>
-      <c r="F982" s="37"/>
+      <c r="E982" s="39"/>
+      <c r="F982" s="39"/>
       <c r="G982" s="9"/>
       <c r="H982" s="9"/>
       <c r="I982" s="10"/>
     </row>
     <row r="983" ht="14.25" customHeight="1">
-      <c r="E983" s="37"/>
-      <c r="F983" s="37"/>
+      <c r="E983" s="39"/>
+      <c r="F983" s="39"/>
       <c r="G983" s="9"/>
       <c r="H983" s="9"/>
       <c r="I983" s="10"/>
     </row>
     <row r="984" ht="14.25" customHeight="1">
-      <c r="E984" s="37"/>
-      <c r="F984" s="37"/>
+      <c r="E984" s="39"/>
+      <c r="F984" s="39"/>
       <c r="G984" s="9"/>
       <c r="H984" s="9"/>
       <c r="I984" s="10"/>
     </row>
     <row r="985" ht="14.25" customHeight="1">
-      <c r="E985" s="37"/>
-      <c r="F985" s="37"/>
+      <c r="E985" s="39"/>
+      <c r="F985" s="39"/>
       <c r="G985" s="9"/>
       <c r="H985" s="9"/>
       <c r="I985" s="10"/>
     </row>
     <row r="986" ht="14.25" customHeight="1">
-      <c r="E986" s="37"/>
-      <c r="F986" s="37"/>
+      <c r="E986" s="39"/>
+      <c r="F986" s="39"/>
       <c r="G986" s="9"/>
       <c r="H986" s="9"/>
       <c r="I986" s="10"/>
     </row>
     <row r="987" ht="14.25" customHeight="1">
-      <c r="E987" s="37"/>
-      <c r="F987" s="37"/>
+      <c r="E987" s="39"/>
+      <c r="F987" s="39"/>
       <c r="G987" s="9"/>
       <c r="H987" s="9"/>
       <c r="I987" s="10"/>
     </row>
     <row r="988" ht="14.25" customHeight="1">
-      <c r="E988" s="37"/>
-      <c r="F988" s="37"/>
+      <c r="E988" s="39"/>
+      <c r="F988" s="39"/>
       <c r="G988" s="9"/>
       <c r="H988" s="9"/>
       <c r="I988" s="10"/>
     </row>
     <row r="989" ht="14.25" customHeight="1">
-      <c r="E989" s="37"/>
-      <c r="F989" s="37"/>
+      <c r="E989" s="39"/>
+      <c r="F989" s="39"/>
       <c r="G989" s="9"/>
       <c r="H989" s="9"/>
       <c r="I989" s="10"/>
     </row>
     <row r="990" ht="14.25" customHeight="1">
-      <c r="E990" s="37"/>
-      <c r="F990" s="37"/>
+      <c r="E990" s="39"/>
+      <c r="F990" s="39"/>
       <c r="G990" s="9"/>
       <c r="H990" s="9"/>
       <c r="I990" s="10"/>
     </row>
     <row r="991" ht="14.25" customHeight="1">
-      <c r="E991" s="37"/>
-      <c r="F991" s="37"/>
+      <c r="E991" s="39"/>
+      <c r="F991" s="39"/>
       <c r="G991" s="9"/>
       <c r="H991" s="9"/>
       <c r="I991" s="10"/>
     </row>
     <row r="992" ht="14.25" customHeight="1">
-      <c r="E992" s="37"/>
-      <c r="F992" s="37"/>
+      <c r="E992" s="39"/>
+      <c r="F992" s="39"/>
       <c r="G992" s="9"/>
       <c r="H992" s="9"/>
       <c r="I992" s="10"/>
     </row>
     <row r="993" ht="14.25" customHeight="1">
-      <c r="E993" s="37"/>
-      <c r="F993" s="37"/>
+      <c r="E993" s="39"/>
+      <c r="F993" s="39"/>
       <c r="G993" s="9"/>
       <c r="H993" s="9"/>
       <c r="I993" s="10"/>
     </row>
     <row r="994" ht="14.25" customHeight="1">
-      <c r="E994" s="37"/>
-      <c r="F994" s="37"/>
+      <c r="E994" s="39"/>
+      <c r="F994" s="39"/>
       <c r="G994" s="9"/>
       <c r="H994" s="9"/>
       <c r="I994" s="10"/>
     </row>
     <row r="995" ht="14.25" customHeight="1">
-      <c r="E995" s="37"/>
-      <c r="F995" s="37"/>
+      <c r="E995" s="39"/>
+      <c r="F995" s="39"/>
       <c r="G995" s="9"/>
       <c r="H995" s="9"/>
       <c r="I995" s="10"/>
     </row>
     <row r="996" ht="14.25" customHeight="1">
-      <c r="E996" s="37"/>
-      <c r="F996" s="37"/>
+      <c r="E996" s="39"/>
+      <c r="F996" s="39"/>
       <c r="G996" s="9"/>
       <c r="H996" s="9"/>
       <c r="I996" s="10"/>
     </row>
     <row r="997" ht="14.25" customHeight="1">
-      <c r="E997" s="37"/>
-      <c r="F997" s="37"/>
+      <c r="E997" s="39"/>
+      <c r="F997" s="39"/>
       <c r="G997" s="9"/>
       <c r="H997" s="9"/>
       <c r="I997" s="10"/>
     </row>
     <row r="998" ht="14.25" customHeight="1">
-      <c r="E998" s="37"/>
-      <c r="F998" s="37"/>
+      <c r="E998" s="39"/>
+      <c r="F998" s="39"/>
       <c r="G998" s="9"/>
       <c r="H998" s="9"/>
       <c r="I998" s="10"/>
     </row>
     <row r="999" ht="14.25" customHeight="1">
-      <c r="E999" s="37"/>
-      <c r="F999" s="37"/>
+      <c r="E999" s="39"/>
+      <c r="F999" s="39"/>
       <c r="G999" s="9"/>
       <c r="H999" s="9"/>
       <c r="I999" s="10"/>
     </row>
     <row r="1000" ht="14.25" customHeight="1">
-      <c r="E1000" s="37"/>
-      <c r="F1000" s="37"/>
+      <c r="E1000" s="39"/>
+      <c r="F1000" s="39"/>
       <c r="G1000" s="9"/>
       <c r="H1000" s="9"/>
       <c r="I1000" s="10"/>

--- a/[Document]/소개운영자료/DIVE_개인정보_진로현황_수요조사.xlsx
+++ b/[Document]/소개운영자료/DIVE_개인정보_진로현황_수요조사.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DIVE]\[Document]\소개운영자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4298960-817B-40E0-80DC-2C5FEC4385F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23754876-DCC4-47B0-A074-43B1E0A4A614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31890" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="rIrnfRnEDFb1XQMrdHO4GVnJawBEXBIN/vP6bbo9hQc="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="ri5jhtXS+yygCJOUzQb7SIi28hzSEn3VwNPvv4SWb0s="/>
     </ext>
   </extLst>
 </workbook>
@@ -7064,7 +7064,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7179,12 +7179,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7408,7 +7402,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomRight" activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="14.25"/>
@@ -8040,17 +8034,17 @@
       <c r="I15" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="43"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="25"/>
     </row>
     <row r="16" spans="1:20" ht="85.5">
       <c r="A16" s="22" t="s">
@@ -8140,7 +8134,7 @@
       <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
       <c r="S17" s="27"/>
-      <c r="T17" s="29"/>
+      <c r="T17" s="27"/>
     </row>
     <row r="18" spans="1:20" ht="28.5">
       <c r="A18" s="22" t="s">
@@ -15293,6 +15287,6 @@
     <hyperlink ref="F16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId13"/>
 </worksheet>
 </file>
--- a/[Document]/소개운영자료/DIVE_개인정보_진로현황_수요조사.xlsx
+++ b/[Document]/소개운영자료/DIVE_개인정보_진로현황_수요조사.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DIVE]\[Document]\소개운영자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23754876-DCC4-47B0-A074-43B1E0A4A614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5BA90C-33A2-4814-A870-497FE3EF7284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31890" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,14 +21,14 @@
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="ri5jhtXS+yygCJOUzQb7SIi28hzSEn3VwNPvv4SWb0s="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="FenN1M1jOdJkWzenF7NuPUH9BSDI6Ss61En9h+7+tmk="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="175">
   <si>
     <t>DIVE 2026년도 1분기 
 수요조사</t>
@@ -1793,154 +1793,943 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>공간정보</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>활용</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>아이디어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>경진대회</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">최우수상(2위, 진흥원장상+100만원) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>탑승</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>가능성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>기반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>광역버스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>정류장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>서비스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>안기다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>버스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>"(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>안기다리고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>타는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>버스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">[2025.06] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">한국경영과학회 춘계공동학술대회 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>고성능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>시계열</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>딥러닝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>알고리즘을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>활용한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>미래</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>교통수요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">예측
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">[2025.06] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>한국빅데이터학회 학회지 |</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> 2025년도 KTX 수요 예측 및 정책적 의사결정: XAI 기반 실증적 예측연구
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">[2024.06] SK T&amp;C </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>재단 보고서 |</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> Ageism </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>문제의식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>공감대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>확산을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>위한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>한국</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>사회의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>세대간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>갈등</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>트렌드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>빅데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>텍스트마이닝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>기</t>
+    </r>
+  </si>
+  <si>
+    <t>2024-Present</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>박재흥</t>
+    </r>
+  </si>
+  <si>
+    <t>010-5626-4327</t>
+  </si>
+  <si>
+    <t>james2p@naver.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>무역학부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>컴퓨터공학부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>공간정보</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>성균관대 인공지능대학원 + 대학원준비중 &gt; 삼일회계법인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>활용</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>인턴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>아이디어</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>인천대학교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>경진대회</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>무역학부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">최우수상(2위, 진흥원장상+100만원) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+      <t>컴퓨터공학부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>탑승</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+      <t>진행중</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>가능성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+      <t>재무관리연구</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>기반</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>|</t>
     </r>
     <r>
       <rPr>
@@ -1958,7 +2747,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>광역버스</t>
+      <t>온라인</t>
     </r>
     <r>
       <rPr>
@@ -1976,7 +2765,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>정류장</t>
+      <t>텍스트</t>
     </r>
     <r>
       <rPr>
@@ -1994,7 +2783,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>추천</t>
+      <t>마이닝</t>
     </r>
     <r>
       <rPr>
@@ -2012,15 +2801,15 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>서비스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> "</t>
+      <t>감성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2030,7 +2819,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>안기다</t>
+      <t>분석을</t>
     </r>
     <r>
       <rPr>
@@ -2048,15 +2837,15 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>버스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>"(</t>
+      <t>통한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2066,7 +2855,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>안기다리고</t>
+      <t>한국의</t>
     </r>
     <r>
       <rPr>
@@ -2084,7 +2873,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>타는</t>
+      <t>환율</t>
     </r>
     <r>
       <rPr>
@@ -2102,15 +2891,15 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>버스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">)
+      <t>예측</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> 
 </t>
     </r>
     <r>
@@ -2120,7 +2909,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">[2025.06] </t>
+      <t xml:space="preserve">[2025.09] </t>
     </r>
     <r>
       <rPr>
@@ -2131,7 +2920,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">한국경영과학회 춘계공동학술대회 </t>
+      <t xml:space="preserve">정보과학회논문지 </t>
     </r>
     <r>
       <rPr>
@@ -2158,43 +2947,65 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>고성능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+      <t>딥러닝과 은닉 마르코프 모델을 연계한 연속적인손 제스처 적출에 관한 연구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">[2025.06] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>시계열</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+      <t>한국빅데이터학회</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>딥러닝</t>
+      <t xml:space="preserve">학회지 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>|</t>
     </r>
     <r>
       <rPr>
@@ -2212,7 +3023,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>알고리즘을</t>
+      <t>설명가능한</t>
     </r>
     <r>
       <rPr>
@@ -2230,7 +3041,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>활용한</t>
+      <t>인공지능</t>
     </r>
     <r>
       <rPr>
@@ -2248,7 +3059,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>미래</t>
+      <t>활용</t>
     </r>
     <r>
       <rPr>
@@ -2266,7 +3077,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>교통수요</t>
+      <t>서울시</t>
     </r>
     <r>
       <rPr>
@@ -2284,28 +3095,33 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">예측
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">[2025.06] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>지하철</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>한국빅데이터학회 학회지 |</t>
+      <t>혼잡도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2315,36 +3131,33 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> 2025년도 KTX 수요 예측 및 정책적 의사결정: XAI 기반 실증적 예측연구
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">[2024.06] SK T&amp;C </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>예측과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>재단 보고서 |</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> Ageism </t>
+      <t>정책적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2354,7 +3167,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>문제의식</t>
+      <t>의사결정</t>
     </r>
     <r>
       <rPr>
@@ -2372,7 +3185,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>공감대</t>
+      <t>지원을</t>
     </r>
     <r>
       <rPr>
@@ -2390,7 +3203,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>확산을</t>
+      <t>위한</t>
     </r>
     <r>
       <rPr>
@@ -2408,7 +3221,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>위한</t>
+      <t>비즈니스</t>
     </r>
     <r>
       <rPr>
@@ -2426,33 +3239,844 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>한국</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+      <t>애널리틱스</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>기</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>유효정</t>
+    </r>
+  </si>
+  <si>
+    <t>010-9392-7358</t>
+  </si>
+  <si>
+    <t>yuhyojung02@naver.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>무역학부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>컴퓨터공학부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>인천대학교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>무역학부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>컴퓨터공학부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">[2026.02] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>한국경영과학회지</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>비형식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>평생학습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>참여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>예측을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>위한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>설명가능한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> AI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>의사결정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>디지털</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>고령사회에서의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>참여자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>예측과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>포용적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>교육정책</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+[2025.06] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>한국빅데이터학회</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>학회지</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>설명가능한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>인공지능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>기반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>비형식학습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>효과성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>참여자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>애널리틱스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>지속</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>가능한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>평생학습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>유도를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>위하여</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">[2025.11] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">한국경영과학회 추계학술대회 경쟁부문 최우수논문상(1위) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">설명가능한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">AI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>기반 평생학습 참여촉진 프로그램 정책: 디지털 전환과 고령사회에서의 시사점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">[2025.08] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>인문사회융합인재사업단 AI경진대회 장려상(3위) |</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> 뿌리 기업 맞춤형 정책 지원 챗봇</t>
+    </r>
+  </si>
+  <si>
+    <t>마케팅 데이터를 활용한 분석 및 개선 프로젝트 (SQL 기반)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>기</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>조은지</t>
+    </r>
+  </si>
+  <si>
+    <t>010-9299-4302</t>
+  </si>
+  <si>
+    <t>jonjilike@inu.ac.kr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>경영학부</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>인천대학교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>경영학부</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">[2026.02] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>사회의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>한국경영과학회지</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
     </r>
     <r>
       <rPr>
@@ -2462,7 +4086,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>세대간</t>
+      <t>비형식</t>
     </r>
     <r>
       <rPr>
@@ -2480,7 +4104,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>갈등</t>
+      <t>평생학습</t>
     </r>
     <r>
       <rPr>
@@ -2498,7 +4122,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>트렌드</t>
+      <t>참여</t>
     </r>
     <r>
       <rPr>
@@ -2516,7 +4140,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>빅데이터</t>
+      <t>예측을</t>
     </r>
     <r>
       <rPr>
@@ -2534,7 +4158,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>분석</t>
+      <t>위한</t>
     </r>
     <r>
       <rPr>
@@ -2552,15 +4176,15 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>설명가능한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> AI </t>
     </r>
     <r>
       <rPr>
@@ -2570,15 +4194,15 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>텍스트마이닝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>의사결정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
@@ -2588,83 +4212,16 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>분석</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>기</t>
-    </r>
-  </si>
-  <si>
-    <t>2024-Present</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>박재흥</t>
-    </r>
-  </si>
-  <si>
-    <t>010-5626-4327</t>
-  </si>
-  <si>
-    <t>james2p@naver.com</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>무역학부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>컴퓨터공학부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
+      <t>디지털</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>·</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2673,7 +4230,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>성균관대 인공지능대학원 + 대학원준비중 &gt; 삼일회계법인</t>
+      <t>고령사회에서의</t>
     </r>
     <r>
       <rPr>
@@ -2691,15 +4248,15 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>인턴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; </t>
+      <t>참여자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2709,7 +4266,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>인천대학교</t>
+      <t>예측과</t>
     </r>
     <r>
       <rPr>
@@ -2727,15 +4284,15 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>무역학부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>(</t>
+      <t>포용적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2745,26 +4302,17 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>컴퓨터공학부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>[</t>
+      <t>교육정책</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+[2025.06] </t>
     </r>
     <r>
       <rPr>
@@ -2775,16 +4323,16 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>진행중</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
+      <t>한국빅데이터학회</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2795,27 +4343,26 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>재무관리연구</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>학회지</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>|</t>
+      <t>설명가능한</t>
     </r>
     <r>
       <rPr>
@@ -2833,7 +4380,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>온라인</t>
+      <t>인공지능</t>
     </r>
     <r>
       <rPr>
@@ -2851,7 +4398,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>텍스트</t>
+      <t>기반</t>
     </r>
     <r>
       <rPr>
@@ -2869,7 +4416,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>마이닝</t>
+      <t>비형식학습</t>
     </r>
     <r>
       <rPr>
@@ -2887,7 +4434,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>감성</t>
+      <t>효과성</t>
     </r>
     <r>
       <rPr>
@@ -2905,7 +4452,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>분석을</t>
+      <t>분석</t>
     </r>
     <r>
       <rPr>
@@ -2923,7 +4470,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>통한</t>
+      <t>및</t>
     </r>
     <r>
       <rPr>
@@ -2941,7 +4488,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>한국의</t>
+      <t>참여자</t>
     </r>
     <r>
       <rPr>
@@ -2959,7 +4506,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>환율</t>
+      <t>추천</t>
     </r>
     <r>
       <rPr>
@@ -2977,45 +4524,25 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>예측</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">[2025.09] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>애널리틱스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">정보과학회논문지 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>|</t>
+      <t>지속</t>
     </r>
     <r>
       <rPr>
@@ -3033,65 +4560,43 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>딥러닝과 은닉 마르코프 모델을 연계한 연속적인손 제스처 적출에 관한 연구</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">[2025.06] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>가능한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>한국빅데이터학회</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>평생학습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">학회지 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>|</t>
+      <t>유도를</t>
     </r>
     <r>
       <rPr>
@@ -3109,25 +4614,46 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>설명가능한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+      <t>위하여</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">[2025.11] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>인공지능</t>
+      <t xml:space="preserve">한국경영과학회 추계학술대회 경쟁부문 최우수논문상(1위) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>|</t>
     </r>
     <r>
       <rPr>
@@ -3145,15 +4671,15 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>활용</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">설명가능한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">AI </t>
     </r>
     <r>
       <rPr>
@@ -3163,16 +4689,88 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>서울시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+      <t>기반 평생학습 참여촉진 프로그램 정책: 디지털 전환과 고령사회에서의 시사점</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">환경데이터 활용한 시계열 분석
+2026 상반기 환경데이터 공모전 목표
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>기</t>
+    </r>
+  </si>
+  <si>
+    <t>2025-Present</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>방가연</t>
+    </r>
+  </si>
+  <si>
+    <t>010-6549-5589</t>
+  </si>
+  <si>
+    <t>bangga5589@naver.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>미디어커뮤니케이션학과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>산업경영공학부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3181,7 +4779,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>지하철</t>
+      <t>호주 어딘가 인턴 &gt; 인천대학교</t>
     </r>
     <r>
       <rPr>
@@ -3199,15 +4797,15 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>혼잡도</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>미디어커뮤니케이션학과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -3217,15 +4815,71 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>예측과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
+      <t>산업경영공학과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>기</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>강보현</t>
+    </r>
+  </si>
+  <si>
+    <t>010-2676-2527</t>
+  </si>
+  <si>
+    <t>dmsgk0307@naver.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>무역학부</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">GTEP </t>
     </r>
     <r>
       <rPr>
@@ -3235,7 +4889,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>정책적</t>
+      <t>몰빵! &gt; 인천대학교</t>
     </r>
     <r>
       <rPr>
@@ -3253,6 +4907,259 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>무역학부</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>기</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>이현서</t>
+    </r>
+  </si>
+  <si>
+    <t>010-4177-6245</t>
+  </si>
+  <si>
+    <t>leeki0123@naver.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>무역학부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>컴퓨터공학부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>인천대학교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>무역학부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>컴퓨터공학부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">[2026.02] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>한국경영과학회지</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>비형식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>평생학습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>참여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>예측을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>위한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>설명가능한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> AI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>의사결정</t>
     </r>
     <r>
@@ -3261,202 +5168,651 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>디지털</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>고령사회에서의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>참여자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>예측과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>포용적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>교육정책</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+[2025.06] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>한국빅데이터학회</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>학회지</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> | </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>설명가능한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>인공지능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>기반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>비형식학습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>효과성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>분석</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>참여자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>추천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>애널리틱스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>지속</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>가능한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>평생학습</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>유도를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>위하여</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+[2025.11] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">한국경영과학회 추계학술대회 경쟁부문 최우수논문상(1위) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">설명가능한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">AI </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>기반 평생학습 참여촉진 프로그램 정책: 디지털 전환과 고령사회에서의 시사점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">[2025.08] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>인문사회융합인재사업단 AI경진대회 장려상(3위) |</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> 뿌리 기업 맞춤형 정책 지원 챗봇</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>기</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>학부연구생</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>조성훈</t>
+    </r>
+  </si>
+  <si>
+    <t>010-2835-7183</t>
+  </si>
+  <si>
+    <t>0901shc@naver.com</t>
+  </si>
+  <si>
+    <t>산업경영공학과</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>인천대학교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>산업경영공학과</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">[2025.08] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>지원을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+      <t>실리콘밸리</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>위한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+      <t>하계</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>비즈니스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+      <t>테커</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>애널리틱스</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>기</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>유효정</t>
-    </r>
-  </si>
-  <si>
-    <t>010-9392-7358</t>
-  </si>
-  <si>
-    <t>yuhyojung02@naver.com</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>무역학부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>컴퓨터공학부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>인천대학교</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>무역학부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>컴퓨터공학부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">[2026.02] </t>
+      <t>부트캠프</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -3467,16 +5823,24 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>한국경영과학회지</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
+      <t xml:space="preserve">최우수상(1위) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> AI </t>
     </r>
     <r>
       <rPr>
@@ -3486,7 +5850,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>비형식</t>
+      <t>가상피팅</t>
     </r>
     <r>
       <rPr>
@@ -3504,105 +5868,192 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>평생학습</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+      <t>쇼핑몰</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>기</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>학부연구생</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>이준형</t>
+    </r>
+  </si>
+  <si>
+    <t>010-9911-5334</t>
+  </si>
+  <si>
+    <t>jun010914@naver.com</t>
+  </si>
+  <si>
+    <t>인천대학교 산업경영공학과</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">[2025.07] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>참여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+      <t>인천대</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>예측을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+      <t>산학</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>위한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+      <t>캡스톤디지인</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>설명가능한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> AI </t>
-    </r>
-    <r>
-      <rPr>
+      <t>경진대회</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>의사결정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
+      <t xml:space="preserve">금상(2위) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -3612,15 +6063,15 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>디지털</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>·</t>
+      <t>인천</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
     </r>
     <r>
       <rPr>
@@ -3630,7 +6081,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>고령사회에서의</t>
+      <t>음</t>
     </r>
     <r>
       <rPr>
@@ -3648,7 +6099,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>참여자</t>
+      <t>카드</t>
     </r>
     <r>
       <rPr>
@@ -3666,7 +6117,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>예측과</t>
+      <t>소비</t>
     </r>
     <r>
       <rPr>
@@ -3684,7 +6135,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>포용적</t>
+      <t>패턴</t>
     </r>
     <r>
       <rPr>
@@ -3702,57 +6153,51 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>교육정책</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-[2025.06] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>예측</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>한국빅데이터학회</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>학회지</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
+      <t>캐시백</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -3762,3054 +6207,440 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>설명가능한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+      <t>최적화</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SQl 를 통한
+마케팅 데이터 전처리 
+및 코호트 AB 테스트 프로젝트 진행 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>기</t>
+    </r>
+  </si>
+  <si>
+    <t>서정민</t>
+  </si>
+  <si>
+    <t>010-2416-3750</t>
+  </si>
+  <si>
+    <t>sigtd32@inu.ac.kr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>수학과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>빅데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>기반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>수학적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>경영</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>인천대학교 수학과</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>기</t>
+    </r>
+  </si>
+  <si>
+    <t>김태영</t>
+  </si>
+  <si>
+    <t>010-4599-1565</t>
+  </si>
+  <si>
+    <t>kim156565@naver.com</t>
+  </si>
+  <si>
+    <t>무역학부</t>
+  </si>
+  <si>
+    <t>인천대학교 무역학부</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>기</t>
+    </r>
+  </si>
+  <si>
+    <t>문정연</t>
+  </si>
+  <si>
+    <t>010-3396-6895</t>
+  </si>
+  <si>
+    <t>canon731@naver.com</t>
+  </si>
+  <si>
+    <t>무역학부(데이터과학과)</t>
+  </si>
+  <si>
+    <t>인천대학교 무역학부(데이터과학과)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>기</t>
+    </r>
+  </si>
+  <si>
+    <t>김채빈</t>
+  </si>
+  <si>
+    <t>010-8317-2302</t>
+  </si>
+  <si>
+    <t>kchb30123@inu.ac.kr</t>
+  </si>
+  <si>
+    <t>경영학부</t>
+  </si>
+  <si>
+    <t>호주 인턴 중(3월 귀국 예정) &gt; 인천대학교 경영학부</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>기</t>
+    </r>
+  </si>
+  <si>
+    <t>전호준</t>
+  </si>
+  <si>
+    <t>010-9266-9912</t>
+  </si>
+  <si>
+    <t>ho19991213@naver.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>기</t>
+    </r>
+  </si>
+  <si>
+    <t>박희선</t>
+  </si>
+  <si>
+    <t>010-3459-8336</t>
+  </si>
+  <si>
+    <t>hisunhelloo@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">휴햑중~ (아직 26상반기 복학여부 고민중)&gt;인천대학교 산업경영공학과 </t>
+  </si>
+  <si>
+    <t>ESG 환경 보고서 생성 ai agent 프로젝트 진행중
+이걸로 투고할 수 있는 공모전 탐색중</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>기</t>
+    </r>
+  </si>
+  <si>
+    <t>권나은</t>
+  </si>
+  <si>
+    <t>010-8635-7246</t>
+  </si>
+  <si>
+    <t>merlo@inu.ac.kr</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>기</t>
+    </r>
+  </si>
+  <si>
+    <t>이혜진</t>
+  </si>
+  <si>
+    <t>010-3660-7081</t>
+  </si>
+  <si>
+    <t>letme2411@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터과학과</t>
+  </si>
+  <si>
+    <t>인천대학교 데이터과학과</t>
+  </si>
+  <si>
+    <t>진로상담</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>26</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>인공지능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+      <t>년1월14일</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>O
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>기반</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+      <t>공모전 집중)</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>O
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>비형식학습</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
+      <t>스터디 집중)</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>O
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
+        <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>효과성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분석</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참여자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추천</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>애널리틱스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지속</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가능한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>평생학습</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유도를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위하여</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">[2025.11] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">한국경영과학회 추계학술대회 경쟁부문 최우수논문상(1위) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">설명가능한 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">AI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기반 평생학습 참여촉진 프로그램 정책: 디지털 전환과 고령사회에서의 시사점</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">[2025.08] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인문사회융합인재사업단 AI경진대회 장려상(3위) |</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 뿌리 기업 맞춤형 정책 지원 챗봇</t>
-    </r>
-  </si>
-  <si>
-    <t>마케팅 데이터를 활용한 분석 및 개선 프로젝트 (SQL 기반)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>기</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>조은지</t>
-    </r>
-  </si>
-  <si>
-    <t>010-9299-4302</t>
-  </si>
-  <si>
-    <t>jonjilike@inu.ac.kr</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>경영학부</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>인천대학교</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>경영학부</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">[2026.02] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한국경영과학회지</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비형식</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>평생학습</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예측을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설명가능한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> AI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의사결정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>디지털</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>고령사회에서의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참여자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예측과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>포용적</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교육정책</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-[2025.06] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한국빅데이터학회</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학회지</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설명가능한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인공지능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기반</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비형식학습</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>효과성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분석</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참여자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추천</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>애널리틱스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지속</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가능한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>평생학습</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유도를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위하여</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">[2025.11] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">한국경영과학회 추계학술대회 경쟁부문 최우수논문상(1위) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">설명가능한 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">AI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기반 평생학습 참여촉진 프로그램 정책: 디지털 전환과 고령사회에서의 시사점</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">환경데이터 활용한 시계열 분석
-2026 상반기 환경데이터 공모전 목표
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>기</t>
-    </r>
-  </si>
-  <si>
-    <t>2025-Present</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>방가연</t>
-    </r>
-  </si>
-  <si>
-    <t>010-6549-5589</t>
-  </si>
-  <si>
-    <t>bangga5589@naver.com</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>미디어커뮤니케이션학과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>산업경영공학부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>호주 어딘가 인턴 &gt; 인천대학교</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>미디어커뮤니케이션학과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>산업경영공학과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>기</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>강보현</t>
-    </r>
-  </si>
-  <si>
-    <t>010-2676-2527</t>
-  </si>
-  <si>
-    <t>dmsgk0307@naver.com</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>무역학부</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">GTEP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>몰빵! &gt; 인천대학교</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>무역학부</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>기</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>이현서</t>
-    </r>
-  </si>
-  <si>
-    <t>010-4177-6245</t>
-  </si>
-  <si>
-    <t>leeki0123@naver.com</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>무역학부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>컴퓨터공학부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>인천대학교</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>무역학부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>컴퓨터공학부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">[2026.02] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한국경영과학회지</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비형식</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>평생학습</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예측을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설명가능한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> AI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의사결정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>디지털</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>고령사회에서의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참여자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예측과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>포용적</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>교육정책</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-[2025.06] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한국빅데이터학회</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학회지</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> | </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설명가능한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인공지능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기반</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비형식학습</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>효과성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분석</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>참여자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추천</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>애널리틱스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>지속</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가능한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>평생학습</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유도를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위하여</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">[2025.11] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">한국경영과학회 추계학술대회 경쟁부문 최우수논문상(1위) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">설명가능한 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">AI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기반 평생학습 참여촉진 프로그램 정책: 디지털 전환과 고령사회에서의 시사점</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">[2025.08] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인문사회융합인재사업단 AI경진대회 장려상(3위) |</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 뿌리 기업 맞춤형 정책 지원 챗봇</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>기</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>학부연구생</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>조성훈</t>
-    </r>
-  </si>
-  <si>
-    <t>010-2835-7183</t>
-  </si>
-  <si>
-    <t>0901shc@naver.com</t>
-  </si>
-  <si>
-    <t>산업경영공학과</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>인천대학교</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>산업경영공학과</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">[2025.08] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>실리콘밸리</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하계</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테커</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>부트캠프</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">최우수상(1위) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> AI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가상피팅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>쇼핑몰</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>기</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>학부연구생</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>이준형</t>
-    </r>
-  </si>
-  <si>
-    <t>010-9911-5334</t>
-  </si>
-  <si>
-    <t>jun010914@naver.com</t>
-  </si>
-  <si>
-    <t>인천대학교 산업경영공학과</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">[2025.07] </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인천대</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>산학</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캡스톤디지인</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경진대회</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">금상(2위) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>|</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인천</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>음</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>카드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>소비</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>패턴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>예측</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>캐시백</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최적화</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">SQl 를 통한
-마케팅 데이터 전처리 
-및 코호트 AB 테스트 프로젝트 진행 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>기</t>
-    </r>
-  </si>
-  <si>
-    <t>서정민</t>
-  </si>
-  <si>
-    <t>010-2416-3750</t>
-  </si>
-  <si>
-    <t>sigtd32@inu.ac.kr</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>수학과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>빅데이터</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>기반</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>수학적</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>경영</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>인천대학교 수학과</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>기</t>
-    </r>
-  </si>
-  <si>
-    <t>김태영</t>
-  </si>
-  <si>
-    <t>010-4599-1565</t>
-  </si>
-  <si>
-    <t>kim156565@naver.com</t>
-  </si>
-  <si>
-    <t>무역학부</t>
-  </si>
-  <si>
-    <t>인천대학교 무역학부</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>기</t>
-    </r>
-  </si>
-  <si>
-    <t>문정연</t>
-  </si>
-  <si>
-    <t>010-3396-6895</t>
-  </si>
-  <si>
-    <t>canon731@naver.com</t>
-  </si>
-  <si>
-    <t>무역학부(데이터과학과)</t>
-  </si>
-  <si>
-    <t>인천대학교 무역학부(데이터과학과)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>기</t>
-    </r>
-  </si>
-  <si>
-    <t>김채빈</t>
-  </si>
-  <si>
-    <t>010-8317-2302</t>
-  </si>
-  <si>
-    <t>kchb30123@inu.ac.kr</t>
-  </si>
-  <si>
-    <t>경영학부</t>
-  </si>
-  <si>
-    <t>호주 인턴 중(3월 귀국 예정) &gt; 인천대학교 경영학부</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>기</t>
-    </r>
-  </si>
-  <si>
-    <t>전호준</t>
-  </si>
-  <si>
-    <t>010-9266-9912</t>
-  </si>
-  <si>
-    <t>ho19991213@naver.com</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>기</t>
-    </r>
-  </si>
-  <si>
-    <t>박희선</t>
-  </si>
-  <si>
-    <t>010-3459-8336</t>
-  </si>
-  <si>
-    <t>hisunhelloo@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">휴햑중~ (아직 26상반기 복학여부 고민중)&gt;인천대학교 산업경영공학과 </t>
-  </si>
-  <si>
-    <t>ESG 환경 보고서 생성 ai agent 프로젝트 진행중
-이걸로 투고할 수 있는 공모전 탐색중</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>기</t>
-    </r>
-  </si>
-  <si>
-    <t>권나은</t>
-  </si>
-  <si>
-    <t>010-8635-7246</t>
-  </si>
-  <si>
-    <t>merlo@inu.ac.kr</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>기</t>
-    </r>
-  </si>
-  <si>
-    <t>이혜진</t>
-  </si>
-  <si>
-    <t>010-3660-7081</t>
-  </si>
-  <si>
-    <t>letme2411@gmail.com</t>
-  </si>
-  <si>
-    <t>데이터과학과</t>
-  </si>
-  <si>
-    <t>인천대학교 데이터과학과</t>
+      <t>진로 및 공모전 집중)</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6968,6 +6799,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -7064,7 +6915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7179,6 +7030,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7396,13 +7253,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T1000"/>
+  <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="H11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="V17" sqref="V17"/>
+      <selection pane="bottomRight" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="14.25"/>
@@ -7416,10 +7273,11 @@
     <col min="8" max="8" width="32.3984375" customWidth="1"/>
     <col min="9" max="9" width="70.53125" customWidth="1"/>
     <col min="10" max="20" width="14.53125" customWidth="1"/>
-    <col min="21" max="26" width="8.86328125" customWidth="1"/>
+    <col min="21" max="21" width="13.59765625" customWidth="1"/>
+    <col min="22" max="26" width="8.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18">
+    <row r="1" spans="1:21" ht="18">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -7432,7 +7290,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:20" ht="16.899999999999999">
+    <row r="2" spans="1:21" ht="33.75">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -7463,8 +7321,11 @@
       <c r="R2" s="37"/>
       <c r="S2" s="37"/>
       <c r="T2" s="38"/>
-    </row>
-    <row r="3" spans="1:20" ht="84.4">
+      <c r="U2" s="42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="84.4">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -7525,8 +7386,11 @@
       <c r="T3" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="41.25">
+      <c r="U3" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="41.25">
       <c r="A4" s="10" t="s">
         <v>25</v>
       </c>
@@ -7587,8 +7451,9 @@
       <c r="T4" s="19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="33.75">
+      <c r="U4" s="19"/>
+    </row>
+    <row r="5" spans="1:21" ht="33.75">
       <c r="A5" s="22" t="s">
         <v>40</v>
       </c>
@@ -7625,8 +7490,9 @@
       <c r="R5" s="24"/>
       <c r="S5" s="24"/>
       <c r="T5" s="25"/>
-    </row>
-    <row r="6" spans="1:20" ht="67.5">
+      <c r="U5" s="25"/>
+    </row>
+    <row r="6" spans="1:21" ht="67.5">
       <c r="A6" s="22" t="s">
         <v>47</v>
       </c>
@@ -7665,8 +7531,9 @@
       <c r="R6" s="27"/>
       <c r="S6" s="27"/>
       <c r="T6" s="29"/>
-    </row>
-    <row r="7" spans="1:20" ht="28.5">
+      <c r="U6" s="29"/>
+    </row>
+    <row r="7" spans="1:21" ht="28.5">
       <c r="A7" s="22" t="s">
         <v>54</v>
       </c>
@@ -7703,8 +7570,9 @@
       <c r="R7" s="24"/>
       <c r="S7" s="24"/>
       <c r="T7" s="25"/>
-    </row>
-    <row r="8" spans="1:20" ht="151.9">
+      <c r="U7" s="25"/>
+    </row>
+    <row r="8" spans="1:21" ht="127.5">
       <c r="A8" s="22" t="s">
         <v>61</v>
       </c>
@@ -7743,8 +7611,9 @@
       <c r="R8" s="24"/>
       <c r="S8" s="24"/>
       <c r="T8" s="25"/>
-    </row>
-    <row r="9" spans="1:20" ht="84.4">
+      <c r="U8" s="25"/>
+    </row>
+    <row r="9" spans="1:21" ht="84.4">
       <c r="A9" s="22" t="s">
         <v>68</v>
       </c>
@@ -7785,8 +7654,9 @@
       <c r="R9" s="27"/>
       <c r="S9" s="27"/>
       <c r="T9" s="29"/>
-    </row>
-    <row r="10" spans="1:20" ht="151.9">
+      <c r="U9" s="29"/>
+    </row>
+    <row r="10" spans="1:21" ht="127.5">
       <c r="A10" s="22" t="s">
         <v>76</v>
       </c>
@@ -7831,8 +7701,9 @@
       <c r="T10" s="29" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" ht="118.15">
+      <c r="U10" s="29"/>
+    </row>
+    <row r="11" spans="1:21" ht="118.15">
       <c r="A11" s="22" t="s">
         <v>84</v>
       </c>
@@ -7879,8 +7750,9 @@
       <c r="T11" s="29" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="50.65">
+      <c r="U11" s="29"/>
+    </row>
+    <row r="12" spans="1:21" ht="50.65">
       <c r="A12" s="22" t="s">
         <v>92</v>
       </c>
@@ -7921,8 +7793,11 @@
         <v>37</v>
       </c>
       <c r="T12" s="29"/>
-    </row>
-    <row r="13" spans="1:20" ht="28.5">
+      <c r="U12" s="43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="28.5">
       <c r="A13" s="22" t="s">
         <v>99</v>
       </c>
@@ -7959,8 +7834,9 @@
       <c r="R13" s="27"/>
       <c r="S13" s="27"/>
       <c r="T13" s="29"/>
-    </row>
-    <row r="14" spans="1:20" ht="151.9">
+      <c r="U13" s="29"/>
+    </row>
+    <row r="14" spans="1:21" ht="127.5">
       <c r="A14" s="22" t="s">
         <v>105</v>
       </c>
@@ -8005,8 +7881,9 @@
         <v>37</v>
       </c>
       <c r="T14" s="29"/>
-    </row>
-    <row r="15" spans="1:20" ht="28.5">
+      <c r="U14" s="29"/>
+    </row>
+    <row r="15" spans="1:21" ht="28.5">
       <c r="A15" s="22" t="s">
         <v>112</v>
       </c>
@@ -8045,8 +7922,9 @@
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
       <c r="T15" s="25"/>
-    </row>
-    <row r="16" spans="1:20" ht="85.5">
+      <c r="U15" s="25"/>
+    </row>
+    <row r="16" spans="1:21" ht="85.5">
       <c r="A16" s="22" t="s">
         <v>119</v>
       </c>
@@ -8091,8 +7969,9 @@
       <c r="T16" s="29" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="28.5">
+      <c r="U16" s="29"/>
+    </row>
+    <row r="17" spans="1:21" ht="31.15">
       <c r="A17" s="22" t="s">
         <v>126</v>
       </c>
@@ -8135,8 +8014,11 @@
       <c r="R17" s="27"/>
       <c r="S17" s="27"/>
       <c r="T17" s="27"/>
-    </row>
-    <row r="18" spans="1:20" ht="28.5">
+      <c r="U17" s="43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="28.5">
       <c r="A18" s="22" t="s">
         <v>132</v>
       </c>
@@ -8175,8 +8057,9 @@
       <c r="R18" s="27"/>
       <c r="S18" s="27"/>
       <c r="T18" s="29"/>
-    </row>
-    <row r="19" spans="1:20" ht="28.5">
+      <c r="U18" s="29"/>
+    </row>
+    <row r="19" spans="1:21" ht="31.15">
       <c r="A19" s="22" t="s">
         <v>138</v>
       </c>
@@ -8219,8 +8102,11 @@
         <v>37</v>
       </c>
       <c r="T19" s="29"/>
-    </row>
-    <row r="20" spans="1:20" ht="33.75">
+      <c r="U19" s="43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="33.75">
       <c r="A20" s="22" t="s">
         <v>144</v>
       </c>
@@ -8261,8 +8147,9 @@
         <v>37</v>
       </c>
       <c r="T20" s="18"/>
-    </row>
-    <row r="21" spans="1:20" ht="28.5">
+      <c r="U20" s="18"/>
+    </row>
+    <row r="21" spans="1:21" ht="28.5">
       <c r="A21" s="22" t="s">
         <v>150</v>
       </c>
@@ -8299,8 +8186,9 @@
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
       <c r="T21" s="29"/>
-    </row>
-    <row r="22" spans="1:20" ht="85.5">
+      <c r="U21" s="29"/>
+    </row>
+    <row r="22" spans="1:21" ht="85.5">
       <c r="A22" s="22" t="s">
         <v>154</v>
       </c>
@@ -8330,12 +8218,8 @@
       <c r="K22" s="27"/>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
-      <c r="N22" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="O22" s="20" t="s">
-        <v>37</v>
-      </c>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
       <c r="P22" s="28"/>
       <c r="Q22" s="32" t="s">
         <v>37</v>
@@ -8349,8 +8233,9 @@
       <c r="T22" s="29" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" ht="28.5">
+      <c r="U22" s="29"/>
+    </row>
+    <row r="23" spans="1:21" ht="28.5">
       <c r="A23" s="22" t="s">
         <v>160</v>
       </c>
@@ -8387,8 +8272,9 @@
       <c r="R23" s="27"/>
       <c r="S23" s="32"/>
       <c r="T23" s="29"/>
-    </row>
-    <row r="24" spans="1:20" ht="28.5">
+      <c r="U23" s="29"/>
+    </row>
+    <row r="24" spans="1:21" ht="28.5">
       <c r="A24" s="22" t="s">
         <v>164</v>
       </c>
@@ -8425,57 +8311,58 @@
       <c r="R24" s="27"/>
       <c r="S24" s="27"/>
       <c r="T24" s="29"/>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24" s="29"/>
+    </row>
+    <row r="25" spans="1:21">
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:21">
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:21">
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:21">
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:21">
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:21">
       <c r="E30" s="35"/>
       <c r="F30" s="35"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:21">
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:21">
       <c r="E32" s="35"/>
       <c r="F32" s="35"/>
       <c r="G32" s="5"/>

--- a/[Document]/소개운영자료/DIVE_개인정보_진로현황_수요조사.xlsx
+++ b/[Document]/소개운영자료/DIVE_개인정보_진로현황_수요조사.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DIVE]\[Document]\소개운영자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5BA90C-33A2-4814-A870-497FE3EF7284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1075825F-EE89-40E5-946E-7F3EB8965F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31890" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="176">
   <si>
     <t>DIVE 2026년도 1분기 
 수요조사</t>
@@ -6632,6 +6632,23 @@
         <charset val="129"/>
       </rPr>
       <t>진로 및 공모전 집중)</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>O
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취업준비)</t>
     </r>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -7020,6 +7037,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7030,12 +7053,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7256,10 +7273,10 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U13" sqref="U13"/>
+      <selection pane="bottomRight" activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="14.25"/>
@@ -7278,11 +7295,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -7290,38 +7307,38 @@
       <c r="H1" s="2"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:21" ht="33.75">
+    <row r="2" spans="1:21" ht="16.899999999999999">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="41" t="s">
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="41" t="s">
+      <c r="O2" s="39"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="42" t="s">
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="36" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7793,11 +7810,11 @@
         <v>37</v>
       </c>
       <c r="T12" s="29"/>
-      <c r="U12" s="43" t="s">
+      <c r="U12" s="37" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="28.5">
+    <row r="13" spans="1:21" ht="31.15">
       <c r="A13" s="22" t="s">
         <v>99</v>
       </c>
@@ -7834,7 +7851,9 @@
       <c r="R13" s="27"/>
       <c r="S13" s="27"/>
       <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
+      <c r="U13" s="37" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="127.5">
       <c r="A14" s="22" t="s">
@@ -8014,7 +8033,7 @@
       <c r="R17" s="27"/>
       <c r="S17" s="27"/>
       <c r="T17" s="27"/>
-      <c r="U17" s="43" t="s">
+      <c r="U17" s="37" t="s">
         <v>173</v>
       </c>
     </row>
@@ -8102,7 +8121,7 @@
         <v>37</v>
       </c>
       <c r="T19" s="29"/>
-      <c r="U19" s="43" t="s">
+      <c r="U19" s="37" t="s">
         <v>172</v>
       </c>
     </row>

--- a/[Document]/소개운영자료/DIVE_개인정보_진로현황_수요조사.xlsx
+++ b/[Document]/소개운영자료/DIVE_개인정보_진로현황_수요조사.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DIVE]\[Document]\소개운영자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1075825F-EE89-40E5-946E-7F3EB8965F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919E9B89-98D0-4D7C-9FAB-3817A9298385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31890" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="180">
   <si>
     <t>DIVE 2026년도 1분기 
 수요조사</t>
@@ -6649,6 +6649,61 @@
         <charset val="129"/>
       </rPr>
       <t>취업준비)</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>O
+(26</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년하반기참여)</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>X
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교환학생)</t>
+    </r>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>X
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교환학생)</t>
     </r>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
@@ -6657,7 +6712,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6836,6 +6891,13 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -6932,7 +6994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7053,6 +7115,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7273,10 +7338,10 @@
   <dimension ref="A1:U1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="I14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="U23" sqref="U23"/>
+      <selection pane="bottomRight" activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="14.25"/>
@@ -7468,7 +7533,9 @@
       <c r="T4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="U4" s="19"/>
+      <c r="U4" s="19" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="5" spans="1:21" ht="33.75">
       <c r="A5" s="22" t="s">
@@ -7548,7 +7615,9 @@
       <c r="R6" s="27"/>
       <c r="S6" s="27"/>
       <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
+      <c r="U6" s="44" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="7" spans="1:21" ht="28.5">
       <c r="A7" s="22" t="s">
@@ -7718,7 +7787,9 @@
       <c r="T10" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="U10" s="29"/>
+      <c r="U10" s="37" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="118.15">
       <c r="A11" s="22" t="s">
@@ -7767,7 +7838,9 @@
       <c r="T11" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="U11" s="29"/>
+      <c r="U11" s="37" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="12" spans="1:21" ht="50.65">
       <c r="A12" s="22" t="s">
@@ -8168,7 +8241,7 @@
       <c r="T20" s="18"/>
       <c r="U20" s="18"/>
     </row>
-    <row r="21" spans="1:21" ht="28.5">
+    <row r="21" spans="1:21" ht="31.15">
       <c r="A21" s="22" t="s">
         <v>150</v>
       </c>
@@ -8205,7 +8278,9 @@
       <c r="R21" s="27"/>
       <c r="S21" s="27"/>
       <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
+      <c r="U21" s="37" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="22" spans="1:21" ht="85.5">
       <c r="A22" s="22" t="s">
@@ -8293,7 +8368,7 @@
       <c r="T23" s="29"/>
       <c r="U23" s="29"/>
     </row>
-    <row r="24" spans="1:21" ht="28.5">
+    <row r="24" spans="1:21" ht="48">
       <c r="A24" s="22" t="s">
         <v>164</v>
       </c>
@@ -8330,7 +8405,9 @@
       <c r="R24" s="27"/>
       <c r="S24" s="27"/>
       <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
+      <c r="U24" s="37" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="25" spans="1:21">
       <c r="E25" s="35"/>

--- a/[Document]/소개운영자료/DIVE_개인정보_진로현황_수요조사.xlsx
+++ b/[Document]/소개운영자료/DIVE_개인정보_진로현황_수요조사.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DIVE]\[Document]\소개운영자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04220F8F-C958-47B5-A0A0-4D3FF6092B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D995C5-C02A-4B14-8C33-7AA4CE7DA28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31890" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1645,64 +1645,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>토스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>인턴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>인천대학교</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>무역학부</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
@@ -7126,6 +7068,73 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> SQL</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고려대학교 경영학과&gt;토스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인턴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인천대학교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무역학부</t>
     </r>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -7134,7 +7143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7326,6 +7335,13 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -7433,7 +7449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7541,6 +7557,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7553,11 +7575,8 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7777,10 +7796,10 @@
   <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="M9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X11" sqref="X11"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="14.25"/>
@@ -7799,11 +7818,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="41"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -7816,34 +7835,34 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="42" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="42" t="s">
+      <c r="P2" s="40"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="39"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="41"/>
       <c r="V2" s="7" t="s">
         <v>6</v>
       </c>
@@ -8072,7 +8091,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="28.5">
+    <row r="7" spans="1:23" ht="33.75">
       <c r="A7" s="22" t="s">
         <v>60</v>
       </c>
@@ -8095,8 +8114,8 @@
       <c r="H7" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>66</v>
+      <c r="I7" s="45" t="s">
+        <v>198</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="24"/>
@@ -8114,34 +8133,34 @@
     </row>
     <row r="8" spans="1:23" ht="127.5">
       <c r="A8" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="23">
         <v>201900884</v>
       </c>
       <c r="E8" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>56</v>
       </c>
       <c r="H8" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="J8" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>73</v>
       </c>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
@@ -8158,34 +8177,34 @@
     </row>
     <row r="9" spans="1:23" ht="84.4">
       <c r="A9" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="23" t="s">
         <v>75</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>76</v>
       </c>
       <c r="D9" s="23">
         <v>201900833</v>
       </c>
       <c r="E9" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="G9" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="H9" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="I9" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="J9" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>82</v>
       </c>
       <c r="K9" s="27"/>
       <c r="L9" s="27"/>
@@ -8206,34 +8225,34 @@
     </row>
     <row r="10" spans="1:23" ht="127.5">
       <c r="A10" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>83</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>84</v>
       </c>
       <c r="D10" s="23">
         <v>202200803</v>
       </c>
       <c r="E10" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="G10" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="H10" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="I10" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="J10" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>90</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="33"/>
@@ -8250,45 +8269,45 @@
       </c>
       <c r="T10" s="33"/>
       <c r="U10" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="V10" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="V10" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="W10" s="38" t="s">
         <v>194</v>
-      </c>
-      <c r="W10" s="44" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="118.15">
       <c r="A11" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>92</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>93</v>
       </c>
       <c r="D11" s="23">
         <v>202201788</v>
       </c>
       <c r="E11" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="G11" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="H11" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="I11" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="J11" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>99</v>
       </c>
       <c r="K11" s="27"/>
       <c r="L11" s="27"/>
@@ -8307,39 +8326,39 @@
         <v>41</v>
       </c>
       <c r="U11" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="V11" s="29" t="s">
         <v>100</v>
-      </c>
-      <c r="V11" s="29" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="50.65">
       <c r="A12" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="23" t="s">
         <v>103</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>104</v>
       </c>
       <c r="D12" s="23">
         <v>202300502</v>
       </c>
       <c r="E12" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="G12" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="H12" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="I12" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="J12" s="17"/>
       <c r="K12" s="27"/>
@@ -8358,34 +8377,34 @@
       </c>
       <c r="U12" s="29"/>
       <c r="V12" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="31.15">
       <c r="A13" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>111</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>112</v>
       </c>
       <c r="D13" s="23">
         <v>202300733</v>
       </c>
       <c r="E13" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>113</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>114</v>
       </c>
       <c r="G13" s="25"/>
       <c r="H13" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>116</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="27"/>
@@ -8400,39 +8419,39 @@
       <c r="T13" s="27"/>
       <c r="U13" s="29"/>
       <c r="V13" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="127.5">
       <c r="A14" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>118</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>119</v>
       </c>
       <c r="D14" s="23">
         <v>202300811</v>
       </c>
       <c r="E14" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="G14" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="H14" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="I14" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="J14" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="K14" s="27"/>
       <c r="L14" s="27"/>
@@ -8450,40 +8469,40 @@
       </c>
       <c r="U14" s="29"/>
       <c r="V14" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="W14" s="43" t="s">
-        <v>198</v>
+        <v>125</v>
+      </c>
+      <c r="W14" s="37" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="28.5">
       <c r="A15" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="11">
         <v>2025</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="23">
         <v>201901374</v>
       </c>
       <c r="E15" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>130</v>
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="J15" s="16" t="s">
         <v>132</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>133</v>
       </c>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
@@ -8500,32 +8519,32 @@
     </row>
     <row r="16" spans="1:23" ht="85.5">
       <c r="A16" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>134</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>135</v>
       </c>
       <c r="D16" s="23">
         <v>202202884</v>
       </c>
       <c r="E16" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>136</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>137</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I16" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>139</v>
       </c>
       <c r="K16" s="27"/>
       <c r="L16" s="27"/>
@@ -8542,42 +8561,42 @@
       </c>
       <c r="T16" s="27"/>
       <c r="U16" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="V16" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="V16" s="29" t="s">
-        <v>141</v>
-      </c>
       <c r="W16" s="29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="28.5">
       <c r="A17" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>142</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>143</v>
       </c>
       <c r="D17" s="23">
         <v>202100256</v>
       </c>
       <c r="E17" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="G17" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="H17" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="I17" s="35" t="s">
         <v>147</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>148</v>
       </c>
       <c r="J17" s="32"/>
       <c r="K17" s="27" t="s">
@@ -8598,34 +8617,34 @@
       <c r="T17" s="27"/>
       <c r="U17" s="27"/>
       <c r="V17" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="28.5">
       <c r="A18" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>150</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>151</v>
       </c>
       <c r="D18" s="23">
         <v>202100743</v>
       </c>
       <c r="E18" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="25" t="s">
         <v>152</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>153</v>
       </c>
       <c r="G18" s="25"/>
       <c r="H18" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="35" t="s">
         <v>154</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>155</v>
       </c>
       <c r="J18" s="32"/>
       <c r="K18" s="27"/>
@@ -8645,29 +8664,29 @@
     </row>
     <row r="19" spans="1:23" ht="28.5">
       <c r="A19" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>156</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>157</v>
       </c>
       <c r="D19" s="23">
         <v>202200776</v>
       </c>
       <c r="E19" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="25" t="s">
         <v>158</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>159</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="I19" s="35" t="s">
         <v>160</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>161</v>
       </c>
       <c r="J19" s="32"/>
       <c r="K19" s="27"/>
@@ -8688,37 +8707,37 @@
       </c>
       <c r="U19" s="29"/>
       <c r="V19" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="W19" s="44" t="s">
-        <v>197</v>
+        <v>161</v>
+      </c>
+      <c r="W19" s="38" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="33.75">
       <c r="A20" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>163</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>164</v>
       </c>
       <c r="D20" s="23">
         <v>202201705</v>
       </c>
       <c r="E20" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="25" t="s">
         <v>165</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>166</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="I20" s="35" t="s">
         <v>167</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>168</v>
       </c>
       <c r="J20" s="32"/>
       <c r="K20" s="33"/>
@@ -8737,34 +8756,34 @@
       </c>
       <c r="U20" s="18"/>
       <c r="V20" s="29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="31.15">
       <c r="A21" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>170</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>171</v>
       </c>
       <c r="D21" s="23">
         <v>202300822</v>
       </c>
       <c r="E21" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" s="25" t="s">
         <v>172</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>173</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="I21" s="35" t="s">
         <v>154</v>
-      </c>
-      <c r="I21" s="35" t="s">
-        <v>155</v>
       </c>
       <c r="J21" s="32"/>
       <c r="K21" s="27"/>
@@ -8779,36 +8798,36 @@
       <c r="T21" s="27"/>
       <c r="U21" s="29"/>
       <c r="V21" s="29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="85.5">
       <c r="A22" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="23" t="s">
         <v>175</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>176</v>
       </c>
       <c r="D22" s="23">
         <v>202301275</v>
       </c>
       <c r="E22" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="G22" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="H22" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="35" t="s">
         <v>179</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>180</v>
       </c>
       <c r="J22" s="32"/>
       <c r="K22" s="27"/>
@@ -8828,37 +8847,37 @@
         <v>41</v>
       </c>
       <c r="U22" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="V22" s="29" t="s">
         <v>181</v>
-      </c>
-      <c r="V22" s="29" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="28.5">
       <c r="A23" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>183</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>184</v>
       </c>
       <c r="D23" s="23">
         <v>202400733</v>
       </c>
       <c r="E23" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="F23" s="25" t="s">
         <v>185</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>186</v>
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J23" s="32"/>
       <c r="K23" s="27"/>
@@ -8876,29 +8895,29 @@
     </row>
     <row r="24" spans="1:23" ht="48">
       <c r="A24" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>187</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>188</v>
       </c>
       <c r="D24" s="23">
         <v>202401802</v>
       </c>
       <c r="E24" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" s="25" t="s">
         <v>189</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>190</v>
       </c>
       <c r="G24" s="25"/>
       <c r="H24" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="I24" s="35" t="s">
         <v>191</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>192</v>
       </c>
       <c r="J24" s="32"/>
       <c r="K24" s="27"/>
@@ -8913,7 +8932,7 @@
       <c r="T24" s="27"/>
       <c r="U24" s="29"/>
       <c r="V24" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:23">

--- a/[Document]/소개운영자료/DIVE_개인정보_진로현황_수요조사.xlsx
+++ b/[Document]/소개운영자료/DIVE_개인정보_진로현황_수요조사.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataScience\[DIVE]\[Document]\소개운영자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D995C5-C02A-4B14-8C33-7AA4CE7DA28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F266EA-B8D1-4E03-8D79-578637ECF02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31890" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6811,29 +6811,79 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>None, SQL</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스터디</t>
-    </r>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>추가 도메인 기반 논문 작성 + 코드 그대로</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>2</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고려대학교 경영학과&gt;토스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인턴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인천대학교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무역학부</t>
+    </r>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>None, SQL</t>
     </r>
     <r>
       <rPr>
@@ -6844,7 +6894,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>개로</t>
+      <t>스터디</t>
     </r>
     <r>
       <rPr>
@@ -6854,7 +6904,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -6862,52 +6913,10 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문제</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>압축+분석기획/결과설득력</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>논문작성법동영상공유??</t>
+        <charset val="129"/>
+      </rPr>
+      <t>무섭다?? 인간이 할일;;</t>
     </r>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -7067,74 +7076,118 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> SQL</t>
+      <t xml:space="preserve"> SQL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한국</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>HCI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학회</t>
     </r>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>고려대학교 경영학과&gt;토스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인턴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> &gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인천대학교</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>무역학부</t>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개로</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문제</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>압축(한국 R&amp;D 예산배분 논문)
+분석기획/결과설득력</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>논문작성법동영상공유??</t>
     </r>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -7143,7 +7196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7342,6 +7395,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -7560,8 +7620,8 @@
     <xf numFmtId="0" fontId="27" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -7575,8 +7635,8 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7796,10 +7856,10 @@
   <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="P9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="14.25"/>
@@ -7814,10 +7874,11 @@
     <col min="10" max="10" width="70.53125" customWidth="1"/>
     <col min="11" max="21" width="14.53125" customWidth="1"/>
     <col min="22" max="22" width="13.53125" customWidth="1"/>
-    <col min="23" max="26" width="8.86328125" customWidth="1"/>
+    <col min="23" max="23" width="60.796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="8.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18">
+    <row r="1" spans="1:23" ht="60.75" customHeight="1">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -8114,8 +8175,8 @@
       <c r="H7" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="45" t="s">
-        <v>198</v>
+      <c r="I7" s="38" t="s">
+        <v>195</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="24"/>
@@ -8274,8 +8335,8 @@
       <c r="V10" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="W10" s="38" t="s">
-        <v>194</v>
+      <c r="W10" s="45" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="118.15">
@@ -8567,7 +8628,7 @@
         <v>140</v>
       </c>
       <c r="W16" s="29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="28.5">
@@ -8662,7 +8723,7 @@
       <c r="U18" s="29"/>
       <c r="V18" s="29"/>
     </row>
-    <row r="19" spans="1:23" ht="28.5">
+    <row r="19" spans="1:23" ht="33.75">
       <c r="A19" s="22" t="s">
         <v>155</v>
       </c>
@@ -8709,8 +8770,8 @@
       <c r="V19" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="W19" s="38" t="s">
-        <v>196</v>
+      <c r="W19" s="45" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="33.75">
